--- a/BackTest/2020-01-22 BackTest FCT.xlsx
+++ b/BackTest/2020-01-22 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>31.07</v>
       </c>
       <c r="F2" t="n">
-        <v>192.4307</v>
+        <v>20.8641</v>
       </c>
       <c r="G2" t="n">
-        <v>30.95166666666669</v>
+        <v>30.95100000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.74</v>
+        <v>31.07</v>
       </c>
       <c r="C3" t="n">
-        <v>30.74</v>
+        <v>31.07</v>
       </c>
       <c r="D3" t="n">
-        <v>30.74</v>
+        <v>31.07</v>
       </c>
       <c r="E3" t="n">
-        <v>30.74</v>
+        <v>31.07</v>
       </c>
       <c r="F3" t="n">
-        <v>6268.3829</v>
+        <v>192.4307</v>
       </c>
       <c r="G3" t="n">
-        <v>30.94700000000002</v>
+        <v>30.95166666666669</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>30.74</v>
       </c>
       <c r="C4" t="n">
-        <v>30.73</v>
+        <v>30.74</v>
       </c>
       <c r="D4" t="n">
         <v>30.74</v>
       </c>
       <c r="E4" t="n">
-        <v>30.73</v>
+        <v>30.74</v>
       </c>
       <c r="F4" t="n">
-        <v>59417.9724</v>
+        <v>6268.3829</v>
       </c>
       <c r="G4" t="n">
-        <v>30.93766666666669</v>
+        <v>30.94700000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.05</v>
+        <v>30.74</v>
       </c>
       <c r="C5" t="n">
-        <v>31.05</v>
+        <v>30.73</v>
       </c>
       <c r="D5" t="n">
-        <v>31.05</v>
+        <v>30.74</v>
       </c>
       <c r="E5" t="n">
-        <v>31.05</v>
+        <v>30.73</v>
       </c>
       <c r="F5" t="n">
-        <v>14980.4214</v>
+        <v>59417.9724</v>
       </c>
       <c r="G5" t="n">
-        <v>30.93816666666669</v>
+        <v>30.93766666666669</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30.75</v>
+        <v>31.05</v>
       </c>
       <c r="C6" t="n">
-        <v>30.75</v>
+        <v>31.05</v>
       </c>
       <c r="D6" t="n">
-        <v>30.75</v>
+        <v>31.05</v>
       </c>
       <c r="E6" t="n">
-        <v>30.75</v>
+        <v>31.05</v>
       </c>
       <c r="F6" t="n">
-        <v>7214.032</v>
+        <v>14980.4214</v>
       </c>
       <c r="G6" t="n">
-        <v>30.93566666666668</v>
+        <v>30.93816666666669</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.06</v>
+        <v>30.75</v>
       </c>
       <c r="C7" t="n">
-        <v>31.06</v>
+        <v>30.75</v>
       </c>
       <c r="D7" t="n">
-        <v>31.06</v>
+        <v>30.75</v>
       </c>
       <c r="E7" t="n">
-        <v>31.06</v>
+        <v>30.75</v>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>7214.032</v>
       </c>
       <c r="G7" t="n">
-        <v>30.93833333333335</v>
+        <v>30.93566666666668</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>31.06</v>
       </c>
       <c r="C8" t="n">
-        <v>31.29</v>
+        <v>31.06</v>
       </c>
       <c r="D8" t="n">
-        <v>31.29</v>
+        <v>31.06</v>
       </c>
       <c r="E8" t="n">
         <v>31.06</v>
       </c>
       <c r="F8" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="n">
-        <v>30.94483333333335</v>
+        <v>30.93833333333335</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="C9" t="n">
         <v>31.29</v>
       </c>
-      <c r="C9" t="n">
-        <v>31.37</v>
-      </c>
       <c r="D9" t="n">
-        <v>31.37</v>
+        <v>31.29</v>
       </c>
       <c r="E9" t="n">
-        <v>31.29</v>
+        <v>31.06</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G9" t="n">
-        <v>30.95266666666668</v>
+        <v>30.94483333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30.9</v>
+        <v>31.29</v>
       </c>
       <c r="C10" t="n">
-        <v>30.9</v>
+        <v>31.37</v>
       </c>
       <c r="D10" t="n">
-        <v>30.9</v>
+        <v>31.37</v>
       </c>
       <c r="E10" t="n">
-        <v>30.9</v>
+        <v>31.29</v>
       </c>
       <c r="F10" t="n">
-        <v>106273.2916</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="n">
         <v>30.95266666666668</v>
@@ -760,7 +760,7 @@
         <v>30.9</v>
       </c>
       <c r="F11" t="n">
-        <v>726.7084</v>
+        <v>106273.2916</v>
       </c>
       <c r="G11" t="n">
         <v>30.95266666666668</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31.09</v>
+        <v>30.9</v>
       </c>
       <c r="C12" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="D12" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="E12" t="n">
-        <v>31.09</v>
+        <v>30.9</v>
       </c>
       <c r="F12" t="n">
-        <v>47972.4078</v>
+        <v>726.7084</v>
       </c>
       <c r="G12" t="n">
-        <v>30.95600000000001</v>
+        <v>30.95266666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31.1</v>
+        <v>31.09</v>
       </c>
       <c r="C13" t="n">
         <v>31.1</v>
@@ -827,13 +827,13 @@
         <v>31.1</v>
       </c>
       <c r="E13" t="n">
-        <v>31.1</v>
+        <v>31.09</v>
       </c>
       <c r="F13" t="n">
-        <v>96</v>
+        <v>47972.4078</v>
       </c>
       <c r="G13" t="n">
-        <v>30.95933333333334</v>
+        <v>30.95600000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>31.1</v>
       </c>
       <c r="F14" t="n">
-        <v>8544.112499999999</v>
+        <v>96</v>
       </c>
       <c r="G14" t="n">
-        <v>30.96266666666667</v>
+        <v>30.95933333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>31.1</v>
       </c>
       <c r="F15" t="n">
-        <v>1272.8527</v>
+        <v>8544.112499999999</v>
       </c>
       <c r="G15" t="n">
-        <v>30.966</v>
+        <v>30.96266666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>31.1</v>
       </c>
       <c r="F16" t="n">
-        <v>16646.7336</v>
+        <v>1272.8527</v>
       </c>
       <c r="G16" t="n">
-        <v>30.97016666666666</v>
+        <v>30.966</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31.25</v>
+        <v>31.1</v>
       </c>
       <c r="C17" t="n">
-        <v>31.25</v>
+        <v>31.1</v>
       </c>
       <c r="D17" t="n">
-        <v>31.25</v>
+        <v>31.1</v>
       </c>
       <c r="E17" t="n">
-        <v>31.25</v>
+        <v>31.1</v>
       </c>
       <c r="F17" t="n">
-        <v>15130.528</v>
+        <v>16646.7336</v>
       </c>
       <c r="G17" t="n">
-        <v>30.966</v>
+        <v>30.97016666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>31</v>
+        <v>31.25</v>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>31.25</v>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>31.25</v>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>31.25</v>
       </c>
       <c r="F18" t="n">
-        <v>15155.5475</v>
+        <v>15130.528</v>
       </c>
       <c r="G18" t="n">
         <v>30.966</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30.89</v>
+        <v>31</v>
       </c>
       <c r="C19" t="n">
-        <v>30.89</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
-        <v>30.89</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>30.89</v>
+        <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>12622.2839</v>
+        <v>15155.5475</v>
       </c>
       <c r="G19" t="n">
-        <v>30.96083333333333</v>
+        <v>30.966</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30.87</v>
+        <v>30.89</v>
       </c>
       <c r="C20" t="n">
-        <v>30.87</v>
+        <v>30.89</v>
       </c>
       <c r="D20" t="n">
-        <v>30.87</v>
+        <v>30.89</v>
       </c>
       <c r="E20" t="n">
-        <v>30.87</v>
+        <v>30.89</v>
       </c>
       <c r="F20" t="n">
-        <v>11177.9416</v>
+        <v>12622.2839</v>
       </c>
       <c r="G20" t="n">
-        <v>30.95683333333333</v>
+        <v>30.96083333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30.85</v>
+        <v>30.87</v>
       </c>
       <c r="C21" t="n">
-        <v>30.85</v>
+        <v>30.87</v>
       </c>
       <c r="D21" t="n">
-        <v>30.85</v>
+        <v>30.87</v>
       </c>
       <c r="E21" t="n">
-        <v>30.85</v>
+        <v>30.87</v>
       </c>
       <c r="F21" t="n">
-        <v>6121.0062</v>
+        <v>11177.9416</v>
       </c>
       <c r="G21" t="n">
-        <v>30.95266666666667</v>
+        <v>30.95683333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="C22" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="D22" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="E22" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="F22" t="n">
-        <v>67917.2534</v>
+        <v>6121.0062</v>
       </c>
       <c r="G22" t="n">
-        <v>30.9485</v>
+        <v>30.95266666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30.88</v>
+        <v>30.87</v>
       </c>
       <c r="C23" t="n">
         <v>30.87</v>
       </c>
       <c r="D23" t="n">
-        <v>30.88</v>
+        <v>30.87</v>
       </c>
       <c r="E23" t="n">
         <v>30.87</v>
       </c>
       <c r="F23" t="n">
-        <v>36668.8097</v>
+        <v>67917.2534</v>
       </c>
       <c r="G23" t="n">
-        <v>30.94733333333333</v>
+        <v>30.9485</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>30.87</v>
+        <v>30.88</v>
       </c>
       <c r="C24" t="n">
         <v>30.87</v>
       </c>
       <c r="D24" t="n">
-        <v>30.87</v>
+        <v>30.88</v>
       </c>
       <c r="E24" t="n">
         <v>30.87</v>
       </c>
       <c r="F24" t="n">
-        <v>3045.2417</v>
+        <v>36668.8097</v>
       </c>
       <c r="G24" t="n">
-        <v>30.94516666666666</v>
+        <v>30.94733333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,19 +1238,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>31</v>
+        <v>30.87</v>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>30.87</v>
       </c>
       <c r="D25" t="n">
-        <v>31</v>
+        <v>30.87</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>30.87</v>
       </c>
       <c r="F25" t="n">
-        <v>16844.4525</v>
+        <v>3045.2417</v>
       </c>
       <c r="G25" t="n">
         <v>30.94516666666666</v>
@@ -1285,7 +1285,7 @@
         <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>25151.9639</v>
+        <v>16844.4525</v>
       </c>
       <c r="G26" t="n">
         <v>30.94516666666666</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="D27" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="E27" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n">
-        <v>2814.3296</v>
+        <v>25151.9639</v>
       </c>
       <c r="G27" t="n">
-        <v>30.94366666666666</v>
+        <v>30.94516666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>30.85</v>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>2814.3296</v>
       </c>
       <c r="G28" t="n">
-        <v>30.94166666666666</v>
+        <v>30.94366666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="C29" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="D29" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="E29" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="F29" t="n">
-        <v>39.0793</v>
+        <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>30.94316666666665</v>
+        <v>30.94166666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>3211.9584</v>
+        <v>39.0793</v>
       </c>
       <c r="G30" t="n">
-        <v>30.94649999999999</v>
+        <v>30.94316666666665</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>31</v>
       </c>
       <c r="F31" t="n">
-        <v>75.6138</v>
+        <v>3211.9584</v>
       </c>
       <c r="G31" t="n">
-        <v>30.95366666666666</v>
+        <v>30.94649999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>30.83</v>
+        <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>30.83</v>
+        <v>31</v>
       </c>
       <c r="F32" t="n">
-        <v>23019.5941</v>
+        <v>75.6138</v>
       </c>
       <c r="G32" t="n">
-        <v>30.95799999999999</v>
+        <v>30.95366666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30.83</v>
+        <v>30.85</v>
       </c>
       <c r="C33" t="n">
         <v>30.83</v>
       </c>
       <c r="D33" t="n">
-        <v>30.83</v>
+        <v>30.85</v>
       </c>
       <c r="E33" t="n">
         <v>30.83</v>
       </c>
       <c r="F33" t="n">
-        <v>158.3281</v>
+        <v>23019.5941</v>
       </c>
       <c r="G33" t="n">
-        <v>30.96283333333332</v>
+        <v>30.95799999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>31</v>
+        <v>30.83</v>
       </c>
       <c r="C34" t="n">
-        <v>31</v>
+        <v>30.83</v>
       </c>
       <c r="D34" t="n">
-        <v>31</v>
+        <v>30.83</v>
       </c>
       <c r="E34" t="n">
-        <v>31</v>
+        <v>30.83</v>
       </c>
       <c r="F34" t="n">
-        <v>17</v>
+        <v>158.3281</v>
       </c>
       <c r="G34" t="n">
-        <v>30.97049999999999</v>
+        <v>30.96283333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>31</v>
       </c>
       <c r="C35" t="n">
-        <v>31.28</v>
+        <v>31</v>
       </c>
       <c r="D35" t="n">
-        <v>31.28</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
         <v>31</v>
       </c>
       <c r="F35" t="n">
-        <v>41465</v>
+        <v>17</v>
       </c>
       <c r="G35" t="n">
-        <v>30.97849999999999</v>
+        <v>30.97049999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>31.28</v>
+        <v>31</v>
       </c>
       <c r="C36" t="n">
         <v>31.28</v>
@@ -1632,13 +1632,13 @@
         <v>31.28</v>
       </c>
       <c r="E36" t="n">
-        <v>31.28</v>
+        <v>31</v>
       </c>
       <c r="F36" t="n">
-        <v>1047</v>
+        <v>41465</v>
       </c>
       <c r="G36" t="n">
-        <v>30.98899999999999</v>
+        <v>30.97849999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
+        <v>31.28</v>
       </c>
       <c r="C37" t="n">
-        <v>31.33</v>
+        <v>31.28</v>
       </c>
       <c r="D37" t="n">
-        <v>31.33</v>
+        <v>31.28</v>
       </c>
       <c r="E37" t="n">
-        <v>30.9</v>
+        <v>31.28</v>
       </c>
       <c r="F37" t="n">
-        <v>18000</v>
+        <v>1047</v>
       </c>
       <c r="G37" t="n">
-        <v>30.98616666666665</v>
+        <v>30.98899999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,19 +1693,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>31.05</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>31.1</v>
+        <v>31.33</v>
       </c>
       <c r="D38" t="n">
-        <v>31.1</v>
+        <v>31.33</v>
       </c>
       <c r="E38" t="n">
-        <v>31.05</v>
+        <v>30.9</v>
       </c>
       <c r="F38" t="n">
-        <v>8695184.0241</v>
+        <v>18000</v>
       </c>
       <c r="G38" t="n">
         <v>30.98616666666665</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="C39" t="n">
         <v>31.1</v>
       </c>
-      <c r="C39" t="n">
-        <v>31.2</v>
-      </c>
       <c r="D39" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="E39" t="n">
-        <v>31.1</v>
+        <v>31.05</v>
       </c>
       <c r="F39" t="n">
-        <v>2707304.0388</v>
+        <v>8695184.0241</v>
       </c>
       <c r="G39" t="n">
-        <v>30.98283333333332</v>
+        <v>30.98616666666665</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="C40" t="n">
         <v>31.2</v>
@@ -1772,13 +1772,13 @@
         <v>31.2</v>
       </c>
       <c r="E40" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="F40" t="n">
-        <v>30036.5781</v>
+        <v>2707304.0388</v>
       </c>
       <c r="G40" t="n">
-        <v>30.97949999999998</v>
+        <v>30.98283333333332</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>31.01</v>
+        <v>31.2</v>
       </c>
       <c r="C41" t="n">
-        <v>31.01</v>
+        <v>31.2</v>
       </c>
       <c r="D41" t="n">
-        <v>31.01</v>
+        <v>31.2</v>
       </c>
       <c r="E41" t="n">
-        <v>31.01</v>
+        <v>31.2</v>
       </c>
       <c r="F41" t="n">
-        <v>1999.3579</v>
+        <v>30036.5781</v>
       </c>
       <c r="G41" t="n">
-        <v>30.97299999999998</v>
+        <v>30.97949999999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>31.19</v>
+        <v>31.01</v>
       </c>
       <c r="C42" t="n">
-        <v>31.19</v>
+        <v>31.01</v>
       </c>
       <c r="D42" t="n">
-        <v>31.19</v>
+        <v>31.01</v>
       </c>
       <c r="E42" t="n">
-        <v>31.19</v>
+        <v>31.01</v>
       </c>
       <c r="F42" t="n">
-        <v>1629.7675</v>
+        <v>1999.3579</v>
       </c>
       <c r="G42" t="n">
-        <v>30.97616666666665</v>
+        <v>30.97299999999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.01</v>
+        <v>31.19</v>
       </c>
       <c r="C43" t="n">
-        <v>31.55</v>
+        <v>31.19</v>
       </c>
       <c r="D43" t="n">
-        <v>31.55</v>
+        <v>31.19</v>
       </c>
       <c r="E43" t="n">
-        <v>31</v>
+        <v>31.19</v>
       </c>
       <c r="F43" t="n">
-        <v>90000</v>
+        <v>1629.7675</v>
       </c>
       <c r="G43" t="n">
-        <v>30.97699999999998</v>
+        <v>30.97616666666665</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31</v>
+        <v>31.01</v>
       </c>
       <c r="C44" t="n">
-        <v>31.58</v>
+        <v>31.55</v>
       </c>
       <c r="D44" t="n">
-        <v>31.58</v>
+        <v>31.55</v>
       </c>
       <c r="E44" t="n">
         <v>31</v>
       </c>
       <c r="F44" t="n">
-        <v>36000</v>
+        <v>90000</v>
       </c>
       <c r="G44" t="n">
-        <v>30.98833333333331</v>
+        <v>30.97699999999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="C45" t="n">
-        <v>31.76</v>
+        <v>31.58</v>
       </c>
       <c r="D45" t="n">
-        <v>31.76</v>
+        <v>31.58</v>
       </c>
       <c r="E45" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="F45" t="n">
-        <v>145912</v>
+        <v>36000</v>
       </c>
       <c r="G45" t="n">
-        <v>30.99933333333331</v>
+        <v>30.98833333333331</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.66</v>
+        <v>31.3</v>
       </c>
       <c r="C46" t="n">
-        <v>31.66</v>
+        <v>31.76</v>
       </c>
       <c r="D46" t="n">
-        <v>31.66</v>
+        <v>31.76</v>
       </c>
       <c r="E46" t="n">
-        <v>31.66</v>
+        <v>31.2</v>
       </c>
       <c r="F46" t="n">
-        <v>1445.0159</v>
+        <v>145912</v>
       </c>
       <c r="G46" t="n">
-        <v>31.01199999999998</v>
+        <v>30.99933333333331</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>31.66</v>
       </c>
       <c r="F47" t="n">
-        <v>3995.1189</v>
+        <v>1445.0159</v>
       </c>
       <c r="G47" t="n">
-        <v>31.02466666666665</v>
+        <v>31.01199999999998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>31.66</v>
       </c>
       <c r="F48" t="n">
-        <v>1579.279848389134</v>
+        <v>3995.1189</v>
       </c>
       <c r="G48" t="n">
-        <v>31.03866666666665</v>
+        <v>31.02466666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2078,28 +2078,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>31.4</v>
+        <v>31.66</v>
       </c>
       <c r="C49" t="n">
-        <v>31.2</v>
+        <v>31.66</v>
       </c>
       <c r="D49" t="n">
-        <v>31.4</v>
+        <v>31.66</v>
       </c>
       <c r="E49" t="n">
-        <v>31.2</v>
+        <v>31.66</v>
       </c>
       <c r="F49" t="n">
-        <v>17146.3756</v>
+        <v>1579.279848389134</v>
       </c>
       <c r="G49" t="n">
-        <v>31.04449999999999</v>
+        <v>31.03866666666665</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2113,28 +2113,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="C50" t="n">
         <v>31.2</v>
       </c>
       <c r="D50" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="E50" t="n">
         <v>31.2</v>
       </c>
       <c r="F50" t="n">
-        <v>32576.9576</v>
+        <v>17146.3756</v>
       </c>
       <c r="G50" t="n">
-        <v>31.05033333333332</v>
+        <v>31.04449999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="C51" t="n">
         <v>31.2</v>
       </c>
       <c r="D51" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="E51" t="n">
         <v>31.2</v>
       </c>
       <c r="F51" t="n">
-        <v>12520.4031</v>
+        <v>32576.9576</v>
       </c>
       <c r="G51" t="n">
-        <v>31.05616666666666</v>
+        <v>31.05033333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>31.2</v>
       </c>
       <c r="C52" t="n">
-        <v>31.65</v>
+        <v>31.2</v>
       </c>
       <c r="D52" t="n">
-        <v>31.65</v>
+        <v>31.2</v>
       </c>
       <c r="E52" t="n">
         <v>31.2</v>
       </c>
       <c r="F52" t="n">
-        <v>110151.1991</v>
+        <v>12520.4031</v>
       </c>
       <c r="G52" t="n">
-        <v>31.06999999999999</v>
+        <v>31.05616666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>31.31</v>
+        <v>31.2</v>
       </c>
       <c r="C53" t="n">
-        <v>31.31</v>
+        <v>31.65</v>
       </c>
       <c r="D53" t="n">
-        <v>31.31</v>
+        <v>31.65</v>
       </c>
       <c r="E53" t="n">
-        <v>31.31</v>
+        <v>31.2</v>
       </c>
       <c r="F53" t="n">
-        <v>3000</v>
+        <v>110151.1991</v>
       </c>
       <c r="G53" t="n">
-        <v>31.07766666666666</v>
+        <v>31.06999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>31.45</v>
+        <v>31.31</v>
       </c>
       <c r="C54" t="n">
-        <v>31.45</v>
+        <v>31.31</v>
       </c>
       <c r="D54" t="n">
-        <v>31.45</v>
+        <v>31.31</v>
       </c>
       <c r="E54" t="n">
-        <v>31.45</v>
+        <v>31.31</v>
       </c>
       <c r="F54" t="n">
-        <v>9181.7057</v>
+        <v>3000</v>
       </c>
       <c r="G54" t="n">
-        <v>31.08766666666666</v>
+        <v>31.07766666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>31.46</v>
+        <v>31.45</v>
       </c>
       <c r="C55" t="n">
-        <v>31.46</v>
+        <v>31.45</v>
       </c>
       <c r="D55" t="n">
-        <v>31.46</v>
+        <v>31.45</v>
       </c>
       <c r="E55" t="n">
-        <v>31.46</v>
+        <v>31.45</v>
       </c>
       <c r="F55" t="n">
-        <v>2466</v>
+        <v>9181.7057</v>
       </c>
       <c r="G55" t="n">
-        <v>31.09783333333333</v>
+        <v>31.08766666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.3</v>
+        <v>31.46</v>
       </c>
       <c r="C56" t="n">
-        <v>31.3</v>
+        <v>31.46</v>
       </c>
       <c r="D56" t="n">
-        <v>31.3</v>
+        <v>31.46</v>
       </c>
       <c r="E56" t="n">
-        <v>31.3</v>
+        <v>31.46</v>
       </c>
       <c r="F56" t="n">
-        <v>11196.8046</v>
+        <v>2466</v>
       </c>
       <c r="G56" t="n">
-        <v>31.10533333333333</v>
+        <v>31.09783333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>31.45</v>
+        <v>31.3</v>
       </c>
       <c r="C57" t="n">
-        <v>31.45</v>
+        <v>31.3</v>
       </c>
       <c r="D57" t="n">
-        <v>31.45</v>
+        <v>31.3</v>
       </c>
       <c r="E57" t="n">
-        <v>31.45</v>
+        <v>31.3</v>
       </c>
       <c r="F57" t="n">
-        <v>3471.0137</v>
+        <v>11196.8046</v>
       </c>
       <c r="G57" t="n">
-        <v>31.11783333333333</v>
+        <v>31.10533333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>31.3</v>
+        <v>31.45</v>
       </c>
       <c r="C58" t="n">
-        <v>31.3</v>
+        <v>31.45</v>
       </c>
       <c r="D58" t="n">
-        <v>31.3</v>
+        <v>31.45</v>
       </c>
       <c r="E58" t="n">
-        <v>31.3</v>
+        <v>31.45</v>
       </c>
       <c r="F58" t="n">
-        <v>2692.8823</v>
+        <v>3471.0137</v>
       </c>
       <c r="G58" t="n">
-        <v>31.1275</v>
+        <v>31.11783333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>31.18</v>
+        <v>31.3</v>
       </c>
       <c r="C59" t="n">
-        <v>31.18</v>
+        <v>31.3</v>
       </c>
       <c r="D59" t="n">
-        <v>31.18</v>
+        <v>31.3</v>
       </c>
       <c r="E59" t="n">
-        <v>31.18</v>
+        <v>31.3</v>
       </c>
       <c r="F59" t="n">
-        <v>34793.8293</v>
+        <v>2692.8823</v>
       </c>
       <c r="G59" t="n">
-        <v>31.13533333333333</v>
+        <v>31.1275</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>31.1</v>
+        <v>31.18</v>
       </c>
       <c r="C60" t="n">
-        <v>31.1</v>
+        <v>31.18</v>
       </c>
       <c r="D60" t="n">
-        <v>31.1</v>
+        <v>31.18</v>
       </c>
       <c r="E60" t="n">
-        <v>31.1</v>
+        <v>31.18</v>
       </c>
       <c r="F60" t="n">
-        <v>7655.6397</v>
+        <v>34793.8293</v>
       </c>
       <c r="G60" t="n">
-        <v>31.142</v>
+        <v>31.13533333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>31.1</v>
       </c>
       <c r="C61" t="n">
-        <v>30.71</v>
+        <v>31.1</v>
       </c>
       <c r="D61" t="n">
         <v>31.1</v>
       </c>
       <c r="E61" t="n">
-        <v>30.71</v>
+        <v>31.1</v>
       </c>
       <c r="F61" t="n">
-        <v>145814.9758</v>
+        <v>7655.6397</v>
       </c>
       <c r="G61" t="n">
-        <v>31.136</v>
+        <v>31.142</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C62" t="n">
         <v>30.71</v>
       </c>
-      <c r="C62" t="n">
-        <v>30.3</v>
-      </c>
       <c r="D62" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="E62" t="n">
         <v>30.71</v>
       </c>
-      <c r="E62" t="n">
-        <v>30.3</v>
-      </c>
       <c r="F62" t="n">
-        <v>313295.2873</v>
+        <v>145814.9758</v>
       </c>
       <c r="G62" t="n">
-        <v>31.12316666666667</v>
+        <v>31.136</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="C63" t="n">
         <v>30.3</v>
       </c>
-      <c r="C63" t="n">
-        <v>30.2</v>
-      </c>
       <c r="D63" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="E63" t="n">
         <v>30.3</v>
       </c>
-      <c r="E63" t="n">
-        <v>30.2</v>
-      </c>
       <c r="F63" t="n">
-        <v>40884.7369</v>
+        <v>313295.2873</v>
       </c>
       <c r="G63" t="n">
-        <v>31.11416666666667</v>
+        <v>31.12316666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="C64" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="D64" t="n">
-        <v>30.48</v>
+        <v>30.3</v>
       </c>
       <c r="E64" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="F64" t="n">
-        <v>23894.7766</v>
+        <v>40884.7369</v>
       </c>
       <c r="G64" t="n">
-        <v>31.10866666666667</v>
+        <v>31.11416666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,31 +2638,35 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="C65" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="D65" t="n">
-        <v>30.5</v>
+        <v>30.48</v>
       </c>
       <c r="E65" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="F65" t="n">
-        <v>1400</v>
+        <v>23894.7766</v>
       </c>
       <c r="G65" t="n">
-        <v>31.0995</v>
+        <v>31.10866666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>30.2</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2673,32 +2677,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="C66" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="D66" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="E66" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="G66" t="n">
-        <v>31.09866666666667</v>
+        <v>31.0995</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2720,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.86</v>
+        <v>30.7</v>
       </c>
       <c r="C67" t="n">
-        <v>30.86</v>
+        <v>30.7</v>
       </c>
       <c r="D67" t="n">
-        <v>30.86</v>
+        <v>30.7</v>
       </c>
       <c r="E67" t="n">
-        <v>30.86</v>
+        <v>30.7</v>
       </c>
       <c r="F67" t="n">
-        <v>19.9309</v>
+        <v>200</v>
       </c>
       <c r="G67" t="n">
-        <v>31.09533333333333</v>
+        <v>31.09866666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2744,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2746,28 +2764,32 @@
         <v>30.86</v>
       </c>
       <c r="C68" t="n">
-        <v>31.07</v>
+        <v>30.86</v>
       </c>
       <c r="D68" t="n">
-        <v>31.07</v>
+        <v>30.86</v>
       </c>
       <c r="E68" t="n">
         <v>30.86</v>
       </c>
       <c r="F68" t="n">
-        <v>842.8113</v>
+        <v>19.9309</v>
       </c>
       <c r="G68" t="n">
-        <v>31.09166666666667</v>
+        <v>31.09533333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K68" t="n">
+        <v>30.7</v>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
@@ -2778,22 +2800,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30.5</v>
+        <v>30.86</v>
       </c>
       <c r="C69" t="n">
-        <v>30.69</v>
+        <v>31.07</v>
       </c>
       <c r="D69" t="n">
-        <v>30.69</v>
+        <v>31.07</v>
       </c>
       <c r="E69" t="n">
-        <v>30.5</v>
+        <v>30.86</v>
       </c>
       <c r="F69" t="n">
-        <v>19698.0253</v>
+        <v>842.8113</v>
       </c>
       <c r="G69" t="n">
-        <v>31.08033333333334</v>
+        <v>31.09166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2824,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2816,19 +2844,19 @@
         <v>30.5</v>
       </c>
       <c r="C70" t="n">
-        <v>30.5</v>
+        <v>30.69</v>
       </c>
       <c r="D70" t="n">
-        <v>30.5</v>
+        <v>30.69</v>
       </c>
       <c r="E70" t="n">
         <v>30.5</v>
       </c>
       <c r="F70" t="n">
-        <v>1600</v>
+        <v>19698.0253</v>
       </c>
       <c r="G70" t="n">
-        <v>31.07366666666667</v>
+        <v>31.08033333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2865,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2882,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.52</v>
+        <v>30.5</v>
       </c>
       <c r="C71" t="n">
-        <v>31.33</v>
+        <v>30.5</v>
       </c>
       <c r="D71" t="n">
-        <v>31.33</v>
+        <v>30.5</v>
       </c>
       <c r="E71" t="n">
         <v>30.5</v>
       </c>
       <c r="F71" t="n">
-        <v>336000</v>
+        <v>1600</v>
       </c>
       <c r="G71" t="n">
-        <v>31.08083333333333</v>
+        <v>31.07366666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +2906,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2923,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>31.27</v>
+        <v>30.52</v>
       </c>
       <c r="C72" t="n">
-        <v>31.27</v>
+        <v>31.33</v>
       </c>
       <c r="D72" t="n">
-        <v>31.27</v>
+        <v>31.33</v>
       </c>
       <c r="E72" t="n">
-        <v>31.27</v>
+        <v>30.5</v>
       </c>
       <c r="F72" t="n">
-        <v>424.2009</v>
+        <v>336000</v>
       </c>
       <c r="G72" t="n">
-        <v>31.08366666666667</v>
+        <v>31.08083333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +2947,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +2964,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>31.1</v>
+        <v>31.27</v>
       </c>
       <c r="C73" t="n">
-        <v>31.25</v>
+        <v>31.27</v>
       </c>
       <c r="D73" t="n">
-        <v>31.25</v>
+        <v>31.27</v>
       </c>
       <c r="E73" t="n">
-        <v>31.1</v>
+        <v>31.27</v>
       </c>
       <c r="F73" t="n">
-        <v>66480.3236</v>
+        <v>424.2009</v>
       </c>
       <c r="G73" t="n">
-        <v>31.08616666666667</v>
+        <v>31.08366666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +2988,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2956,16 +3008,16 @@
         <v>31.1</v>
       </c>
       <c r="C74" t="n">
-        <v>31.1</v>
+        <v>31.25</v>
       </c>
       <c r="D74" t="n">
-        <v>31.1</v>
+        <v>31.25</v>
       </c>
       <c r="E74" t="n">
         <v>31.1</v>
       </c>
       <c r="F74" t="n">
-        <v>3436.2912</v>
+        <v>66480.3236</v>
       </c>
       <c r="G74" t="n">
         <v>31.08616666666667</v>
@@ -2977,8 +3029,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3046,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>30.85</v>
+        <v>31.1</v>
       </c>
       <c r="C75" t="n">
-        <v>30.21</v>
+        <v>31.1</v>
       </c>
       <c r="D75" t="n">
-        <v>30.85</v>
+        <v>31.1</v>
       </c>
       <c r="E75" t="n">
-        <v>30.21</v>
+        <v>31.1</v>
       </c>
       <c r="F75" t="n">
-        <v>133630.7436</v>
+        <v>3436.2912</v>
       </c>
       <c r="G75" t="n">
-        <v>31.07133333333334</v>
+        <v>31.08616666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3070,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3087,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.2</v>
+        <v>30.85</v>
       </c>
       <c r="C76" t="n">
-        <v>30.1</v>
+        <v>30.21</v>
       </c>
       <c r="D76" t="n">
-        <v>30.99</v>
+        <v>30.85</v>
       </c>
       <c r="E76" t="n">
-        <v>30.1</v>
+        <v>30.21</v>
       </c>
       <c r="F76" t="n">
-        <v>369503.2564</v>
+        <v>133630.7436</v>
       </c>
       <c r="G76" t="n">
-        <v>31.05466666666667</v>
+        <v>31.07133333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3111,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3128,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30.21</v>
+        <v>30.2</v>
       </c>
       <c r="C77" t="n">
-        <v>31.62</v>
+        <v>30.1</v>
       </c>
       <c r="D77" t="n">
-        <v>31.62</v>
+        <v>30.99</v>
       </c>
       <c r="E77" t="n">
-        <v>30.21</v>
+        <v>30.1</v>
       </c>
       <c r="F77" t="n">
-        <v>208816.0002</v>
+        <v>369503.2564</v>
       </c>
       <c r="G77" t="n">
-        <v>31.06083333333333</v>
+        <v>31.05466666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3152,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,19 +3169,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>31</v>
+        <v>30.21</v>
       </c>
       <c r="C78" t="n">
-        <v>31</v>
+        <v>31.62</v>
       </c>
       <c r="D78" t="n">
-        <v>31</v>
+        <v>31.62</v>
       </c>
       <c r="E78" t="n">
-        <v>31</v>
+        <v>30.21</v>
       </c>
       <c r="F78" t="n">
-        <v>15801.354</v>
+        <v>208816.0002</v>
       </c>
       <c r="G78" t="n">
         <v>31.06083333333333</v>
@@ -3117,8 +3193,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.75</v>
+        <v>31</v>
       </c>
       <c r="C79" t="n">
-        <v>30.75</v>
+        <v>31</v>
       </c>
       <c r="D79" t="n">
-        <v>30.75</v>
+        <v>31</v>
       </c>
       <c r="E79" t="n">
-        <v>30.75</v>
+        <v>31</v>
       </c>
       <c r="F79" t="n">
-        <v>1300.813</v>
+        <v>15801.354</v>
       </c>
       <c r="G79" t="n">
-        <v>31.0585</v>
+        <v>31.06083333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3234,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3175,10 +3263,10 @@
         <v>30.75</v>
       </c>
       <c r="F80" t="n">
-        <v>2694.3059</v>
+        <v>1300.813</v>
       </c>
       <c r="G80" t="n">
-        <v>31.0565</v>
+        <v>31.0585</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3275,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3210,10 +3304,10 @@
         <v>30.75</v>
       </c>
       <c r="F81" t="n">
-        <v>13151.9689</v>
+        <v>2694.3059</v>
       </c>
       <c r="G81" t="n">
-        <v>31.05483333333334</v>
+        <v>31.0565</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3316,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3245,10 +3345,10 @@
         <v>30.75</v>
       </c>
       <c r="F82" t="n">
-        <v>5465.4186</v>
+        <v>13151.9689</v>
       </c>
       <c r="G82" t="n">
-        <v>31.05283333333334</v>
+        <v>31.05483333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3357,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3280,10 +3386,10 @@
         <v>30.75</v>
       </c>
       <c r="F83" t="n">
-        <v>17622.7691</v>
+        <v>5465.4186</v>
       </c>
       <c r="G83" t="n">
-        <v>31.05083333333334</v>
+        <v>31.05283333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3398,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3415,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>30.98</v>
+        <v>30.75</v>
       </c>
       <c r="C84" t="n">
-        <v>30.98</v>
+        <v>30.75</v>
       </c>
       <c r="D84" t="n">
-        <v>30.98</v>
+        <v>30.75</v>
       </c>
       <c r="E84" t="n">
-        <v>30.98</v>
+        <v>30.75</v>
       </c>
       <c r="F84" t="n">
-        <v>378.8047</v>
+        <v>17622.7691</v>
       </c>
       <c r="G84" t="n">
-        <v>31.05266666666667</v>
+        <v>31.05083333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3439,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3350,10 +3468,10 @@
         <v>30.98</v>
       </c>
       <c r="F85" t="n">
-        <v>379.7816</v>
+        <v>378.8047</v>
       </c>
       <c r="G85" t="n">
-        <v>31.05233333333334</v>
+        <v>31.05266666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3480,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3497,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>30.7</v>
+        <v>30.98</v>
       </c>
       <c r="C86" t="n">
-        <v>30.06</v>
+        <v>30.98</v>
       </c>
       <c r="D86" t="n">
-        <v>30.7</v>
+        <v>30.98</v>
       </c>
       <c r="E86" t="n">
-        <v>30.06</v>
+        <v>30.98</v>
       </c>
       <c r="F86" t="n">
-        <v>144318.0488</v>
+        <v>379.7816</v>
       </c>
       <c r="G86" t="n">
-        <v>31.03666666666668</v>
+        <v>31.05233333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3521,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3538,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C87" t="n">
         <v>30.06</v>
       </c>
-      <c r="C87" t="n">
-        <v>30.1</v>
-      </c>
       <c r="D87" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="E87" t="n">
-        <v>30.01</v>
+        <v>30.06</v>
       </c>
       <c r="F87" t="n">
-        <v>205281.3412</v>
+        <v>144318.0488</v>
       </c>
       <c r="G87" t="n">
-        <v>31.02416666666668</v>
+        <v>31.03666666666668</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3562,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3579,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>30.04</v>
+        <v>30.06</v>
       </c>
       <c r="C88" t="n">
-        <v>29.98</v>
+        <v>30.1</v>
       </c>
       <c r="D88" t="n">
-        <v>30.04</v>
+        <v>30.2</v>
       </c>
       <c r="E88" t="n">
-        <v>29.98</v>
+        <v>30.01</v>
       </c>
       <c r="F88" t="n">
-        <v>150395.61</v>
+        <v>205281.3412</v>
       </c>
       <c r="G88" t="n">
-        <v>31.00966666666668</v>
+        <v>31.02416666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3603,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3620,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>30.2</v>
+        <v>30.04</v>
       </c>
       <c r="C89" t="n">
-        <v>30.2</v>
+        <v>29.98</v>
       </c>
       <c r="D89" t="n">
-        <v>30.2</v>
+        <v>30.04</v>
       </c>
       <c r="E89" t="n">
-        <v>30.2</v>
+        <v>29.98</v>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>150395.61</v>
       </c>
       <c r="G89" t="n">
-        <v>30.99633333333334</v>
+        <v>31.00966666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3644,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3673,10 @@
         <v>30.2</v>
       </c>
       <c r="F90" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>30.98300000000001</v>
+        <v>30.99633333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3685,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3702,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.07</v>
+        <v>30.2</v>
       </c>
       <c r="C91" t="n">
-        <v>30.05</v>
+        <v>30.2</v>
       </c>
       <c r="D91" t="n">
-        <v>30.07</v>
+        <v>30.2</v>
       </c>
       <c r="E91" t="n">
-        <v>30.05</v>
+        <v>30.2</v>
       </c>
       <c r="F91" t="n">
-        <v>5471.9606</v>
+        <v>1000</v>
       </c>
       <c r="G91" t="n">
-        <v>30.96716666666668</v>
+        <v>30.98300000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3726,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3743,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.08</v>
+        <v>30.07</v>
       </c>
       <c r="C92" t="n">
-        <v>30.2</v>
+        <v>30.05</v>
       </c>
       <c r="D92" t="n">
-        <v>30.2</v>
+        <v>30.07</v>
       </c>
       <c r="E92" t="n">
-        <v>30.08</v>
+        <v>30.05</v>
       </c>
       <c r="F92" t="n">
-        <v>35.8391</v>
+        <v>5471.9606</v>
       </c>
       <c r="G92" t="n">
-        <v>30.95666666666668</v>
+        <v>30.96716666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3767,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,7 +3784,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.2</v>
+        <v>30.08</v>
       </c>
       <c r="C93" t="n">
         <v>30.2</v>
@@ -3627,13 +3793,13 @@
         <v>30.2</v>
       </c>
       <c r="E93" t="n">
-        <v>30.2</v>
+        <v>30.08</v>
       </c>
       <c r="F93" t="n">
-        <v>571.6026000000001</v>
+        <v>35.8391</v>
       </c>
       <c r="G93" t="n">
-        <v>30.94616666666668</v>
+        <v>30.95666666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,36 +3825,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="C94" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="D94" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="E94" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>571.6026000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>30.93616666666668</v>
+        <v>30.94616666666668</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>30.2</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
+        <v>30.7</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3704,10 +3878,10 @@
         <v>30.4</v>
       </c>
       <c r="F95" t="n">
-        <v>32894.73684210526</v>
+        <v>20</v>
       </c>
       <c r="G95" t="n">
-        <v>30.92150000000002</v>
+        <v>30.93616666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,11 +3891,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -3733,22 +3907,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="C96" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="D96" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="E96" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="F96" t="n">
-        <v>1357.5755</v>
+        <v>32894.73684210526</v>
       </c>
       <c r="G96" t="n">
-        <v>30.90850000000002</v>
+        <v>30.92150000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,11 +3932,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -3774,22 +3948,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>30.69</v>
+        <v>30.5</v>
       </c>
       <c r="C97" t="n">
-        <v>30.69</v>
+        <v>30.5</v>
       </c>
       <c r="D97" t="n">
-        <v>30.69</v>
+        <v>30.5</v>
       </c>
       <c r="E97" t="n">
-        <v>30.69</v>
+        <v>30.5</v>
       </c>
       <c r="F97" t="n">
-        <v>19</v>
+        <v>1357.5755</v>
       </c>
       <c r="G97" t="n">
-        <v>30.89783333333336</v>
+        <v>30.90850000000002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3798,8 +3972,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3809,7 +3989,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30.49</v>
+        <v>30.69</v>
       </c>
       <c r="C98" t="n">
         <v>30.69</v>
@@ -3818,13 +3998,13 @@
         <v>30.69</v>
       </c>
       <c r="E98" t="n">
-        <v>30.49</v>
+        <v>30.69</v>
       </c>
       <c r="F98" t="n">
-        <v>23789.3595</v>
+        <v>19</v>
       </c>
       <c r="G98" t="n">
-        <v>30.89100000000002</v>
+        <v>30.89783333333336</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3833,8 +4013,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +4030,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>30.8</v>
+        <v>30.49</v>
       </c>
       <c r="C99" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="D99" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="E99" t="n">
-        <v>30.8</v>
+        <v>30.49</v>
       </c>
       <c r="F99" t="n">
-        <v>5307.799</v>
+        <v>23789.3595</v>
       </c>
       <c r="G99" t="n">
-        <v>30.88433333333336</v>
+        <v>30.89100000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3868,8 +4054,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3879,22 +4071,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="C100" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="D100" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="E100" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="F100" t="n">
-        <v>8210.2986</v>
+        <v>5307.799</v>
       </c>
       <c r="G100" t="n">
-        <v>30.87433333333335</v>
+        <v>30.88433333333336</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3903,8 +4095,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3914,22 +4112,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="C101" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="D101" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="E101" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="F101" t="n">
-        <v>7618.389</v>
+        <v>8210.2986</v>
       </c>
       <c r="G101" t="n">
-        <v>30.86916666666669</v>
+        <v>30.87433333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3938,8 +4136,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3949,22 +4153,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="C102" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="D102" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="E102" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="F102" t="n">
-        <v>8198.128000000001</v>
+        <v>7618.389</v>
       </c>
       <c r="G102" t="n">
-        <v>30.85933333333335</v>
+        <v>30.86916666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3973,8 +4177,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3996,10 +4206,10 @@
         <v>30.6</v>
       </c>
       <c r="F103" t="n">
-        <v>7618.389</v>
+        <v>8198.128000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>30.84350000000002</v>
+        <v>30.85933333333335</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4008,8 +4218,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4019,22 +4235,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="C104" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="D104" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="E104" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="F104" t="n">
-        <v>48048.1403</v>
+        <v>7618.389</v>
       </c>
       <c r="G104" t="n">
-        <v>30.82916666666669</v>
+        <v>30.84350000000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4043,8 +4259,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4066,10 +4288,10 @@
         <v>30.72</v>
       </c>
       <c r="F105" t="n">
-        <v>4337.537</v>
+        <v>48048.1403</v>
       </c>
       <c r="G105" t="n">
-        <v>30.81183333333335</v>
+        <v>30.82916666666669</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4078,8 +4300,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4101,10 +4329,10 @@
         <v>30.72</v>
       </c>
       <c r="F106" t="n">
-        <v>11037.7246</v>
+        <v>4337.537</v>
       </c>
       <c r="G106" t="n">
-        <v>30.79616666666669</v>
+        <v>30.81183333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4113,8 +4341,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4124,22 +4358,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>30.63</v>
+        <v>30.72</v>
       </c>
       <c r="C107" t="n">
-        <v>30.61</v>
+        <v>30.72</v>
       </c>
       <c r="D107" t="n">
-        <v>30.63</v>
+        <v>30.72</v>
       </c>
       <c r="E107" t="n">
-        <v>30.61</v>
+        <v>30.72</v>
       </c>
       <c r="F107" t="n">
-        <v>64372.3077</v>
+        <v>11037.7246</v>
       </c>
       <c r="G107" t="n">
-        <v>30.77866666666668</v>
+        <v>30.79616666666669</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4148,8 +4382,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4159,22 +4399,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>30.72</v>
+        <v>30.63</v>
       </c>
       <c r="C108" t="n">
-        <v>31.06</v>
+        <v>30.61</v>
       </c>
       <c r="D108" t="n">
-        <v>31.06</v>
+        <v>30.63</v>
       </c>
       <c r="E108" t="n">
-        <v>30.72</v>
+        <v>30.61</v>
       </c>
       <c r="F108" t="n">
-        <v>4911.7037</v>
+        <v>64372.3077</v>
       </c>
       <c r="G108" t="n">
-        <v>30.76866666666668</v>
+        <v>30.77866666666668</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4183,8 +4423,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4194,22 +4440,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>31.05</v>
+        <v>30.72</v>
       </c>
       <c r="C109" t="n">
-        <v>31.05</v>
+        <v>31.06</v>
       </c>
       <c r="D109" t="n">
-        <v>31.05</v>
+        <v>31.06</v>
       </c>
       <c r="E109" t="n">
-        <v>31.05</v>
+        <v>30.72</v>
       </c>
       <c r="F109" t="n">
-        <v>15550</v>
+        <v>4911.7037</v>
       </c>
       <c r="G109" t="n">
-        <v>30.76616666666668</v>
+        <v>30.76866666666668</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4218,8 +4464,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4229,22 +4481,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>30.55</v>
+        <v>31.05</v>
       </c>
       <c r="C110" t="n">
-        <v>31</v>
+        <v>31.05</v>
       </c>
       <c r="D110" t="n">
-        <v>31</v>
+        <v>31.05</v>
       </c>
       <c r="E110" t="n">
-        <v>30.2</v>
+        <v>31.05</v>
       </c>
       <c r="F110" t="n">
-        <v>78000</v>
+        <v>15550</v>
       </c>
       <c r="G110" t="n">
-        <v>30.76283333333334</v>
+        <v>30.76616666666668</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4253,8 +4505,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4264,22 +4522,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>30.4</v>
+        <v>30.55</v>
       </c>
       <c r="C111" t="n">
-        <v>30.89</v>
+        <v>31</v>
       </c>
       <c r="D111" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="E111" t="n">
-        <v>30.02</v>
+        <v>30.2</v>
       </c>
       <c r="F111" t="n">
-        <v>113886.6497</v>
+        <v>78000</v>
       </c>
       <c r="G111" t="n">
-        <v>30.75766666666668</v>
+        <v>30.76283333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4288,8 +4546,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4299,22 +4563,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="C112" t="n">
-        <v>30.4</v>
+        <v>30.89</v>
       </c>
       <c r="D112" t="n">
-        <v>30.5</v>
+        <v>30.9</v>
       </c>
       <c r="E112" t="n">
-        <v>30.4</v>
+        <v>30.02</v>
       </c>
       <c r="F112" t="n">
-        <v>3551.3422</v>
+        <v>113886.6497</v>
       </c>
       <c r="G112" t="n">
-        <v>30.73683333333334</v>
+        <v>30.75766666666668</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4323,8 +4587,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4334,22 +4604,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>30.14</v>
+        <v>30.5</v>
       </c>
       <c r="C113" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="D113" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="E113" t="n">
-        <v>30.14</v>
+        <v>30.4</v>
       </c>
       <c r="F113" t="n">
-        <v>19888</v>
+        <v>3551.3422</v>
       </c>
       <c r="G113" t="n">
-        <v>30.72500000000001</v>
+        <v>30.73683333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4358,8 +4628,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4369,7 +4645,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>30.6</v>
+        <v>30.14</v>
       </c>
       <c r="C114" t="n">
         <v>30.6</v>
@@ -4378,13 +4654,13 @@
         <v>30.6</v>
       </c>
       <c r="E114" t="n">
-        <v>30.6</v>
+        <v>30.14</v>
       </c>
       <c r="F114" t="n">
-        <v>11976.2147</v>
+        <v>19888</v>
       </c>
       <c r="G114" t="n">
-        <v>30.71083333333334</v>
+        <v>30.72500000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4393,8 +4669,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4404,22 +4686,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="C115" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="D115" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="E115" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="F115" t="n">
-        <v>2547.7162</v>
+        <v>11976.2147</v>
       </c>
       <c r="G115" t="n">
-        <v>30.69483333333334</v>
+        <v>30.71083333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4428,8 +4710,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4439,22 +4727,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="C116" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="D116" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="E116" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="F116" t="n">
-        <v>2547</v>
+        <v>2547.7162</v>
       </c>
       <c r="G116" t="n">
-        <v>30.67983333333335</v>
+        <v>30.69483333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4463,8 +4751,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4474,22 +4768,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>30.22</v>
+        <v>30.4</v>
       </c>
       <c r="C117" t="n">
-        <v>30.14</v>
+        <v>30.4</v>
       </c>
       <c r="D117" t="n">
-        <v>30.22</v>
+        <v>30.4</v>
       </c>
       <c r="E117" t="n">
-        <v>30.14</v>
+        <v>30.4</v>
       </c>
       <c r="F117" t="n">
-        <v>29012.8156</v>
+        <v>2547</v>
       </c>
       <c r="G117" t="n">
-        <v>30.65800000000001</v>
+        <v>30.67983333333335</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4498,8 +4792,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4509,22 +4809,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>30.4</v>
+        <v>30.22</v>
       </c>
       <c r="C118" t="n">
-        <v>30.4</v>
+        <v>30.14</v>
       </c>
       <c r="D118" t="n">
-        <v>30.4</v>
+        <v>30.22</v>
       </c>
       <c r="E118" t="n">
-        <v>30.4</v>
+        <v>30.14</v>
       </c>
       <c r="F118" t="n">
-        <v>231.7162</v>
+        <v>29012.8156</v>
       </c>
       <c r="G118" t="n">
-        <v>30.64300000000001</v>
+        <v>30.65800000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4533,8 +4833,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4556,10 +4862,10 @@
         <v>30.4</v>
       </c>
       <c r="F119" t="n">
-        <v>4670.913</v>
+        <v>231.7162</v>
       </c>
       <c r="G119" t="n">
-        <v>30.63000000000001</v>
+        <v>30.64300000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4568,8 +4874,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4591,10 +4903,10 @@
         <v>30.4</v>
       </c>
       <c r="F120" t="n">
-        <v>6713.709</v>
+        <v>4670.913</v>
       </c>
       <c r="G120" t="n">
-        <v>30.61833333333335</v>
+        <v>30.63000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4603,8 +4915,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4614,22 +4932,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="C121" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="D121" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="E121" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="F121" t="n">
-        <v>11870.0868</v>
+        <v>6713.709</v>
       </c>
       <c r="G121" t="n">
-        <v>30.61816666666668</v>
+        <v>30.61833333333335</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4638,8 +4956,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4649,22 +4973,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>30.61</v>
+        <v>30.7</v>
       </c>
       <c r="C122" t="n">
-        <v>30.61</v>
+        <v>30.7</v>
       </c>
       <c r="D122" t="n">
-        <v>30.61</v>
+        <v>30.7</v>
       </c>
       <c r="E122" t="n">
-        <v>30.61</v>
+        <v>30.7</v>
       </c>
       <c r="F122" t="n">
-        <v>12903.0245</v>
+        <v>11870.0868</v>
       </c>
       <c r="G122" t="n">
-        <v>30.62333333333335</v>
+        <v>30.61816666666668</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4673,8 +4997,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4684,22 +5014,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>30.79</v>
+        <v>30.61</v>
       </c>
       <c r="C123" t="n">
-        <v>30.79</v>
+        <v>30.61</v>
       </c>
       <c r="D123" t="n">
-        <v>30.79</v>
+        <v>30.61</v>
       </c>
       <c r="E123" t="n">
-        <v>30.79</v>
+        <v>30.61</v>
       </c>
       <c r="F123" t="n">
-        <v>1181.1345</v>
+        <v>12903.0245</v>
       </c>
       <c r="G123" t="n">
-        <v>30.63316666666668</v>
+        <v>30.62333333333335</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4708,8 +5038,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4719,22 +5055,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>30.74</v>
+        <v>30.79</v>
       </c>
       <c r="C124" t="n">
-        <v>30.61</v>
+        <v>30.79</v>
       </c>
       <c r="D124" t="n">
-        <v>30.74</v>
+        <v>30.79</v>
       </c>
       <c r="E124" t="n">
-        <v>30.61</v>
+        <v>30.79</v>
       </c>
       <c r="F124" t="n">
-        <v>12033.2785</v>
+        <v>1181.1345</v>
       </c>
       <c r="G124" t="n">
-        <v>30.63666666666668</v>
+        <v>30.63316666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4743,8 +5079,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4754,22 +5096,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>30.61</v>
+        <v>30.74</v>
       </c>
       <c r="C125" t="n">
         <v>30.61</v>
       </c>
       <c r="D125" t="n">
-        <v>30.61</v>
+        <v>30.74</v>
       </c>
       <c r="E125" t="n">
         <v>30.61</v>
       </c>
       <c r="F125" t="n">
-        <v>8459.2413</v>
+        <v>12033.2785</v>
       </c>
       <c r="G125" t="n">
-        <v>30.63850000000001</v>
+        <v>30.63666666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4778,8 +5120,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4792,19 +5140,19 @@
         <v>30.61</v>
       </c>
       <c r="C126" t="n">
-        <v>30.8</v>
+        <v>30.61</v>
       </c>
       <c r="D126" t="n">
-        <v>30.8</v>
+        <v>30.61</v>
       </c>
       <c r="E126" t="n">
-        <v>30.4</v>
+        <v>30.61</v>
       </c>
       <c r="F126" t="n">
-        <v>126000</v>
+        <v>8459.2413</v>
       </c>
       <c r="G126" t="n">
-        <v>30.64016666666668</v>
+        <v>30.63850000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4813,8 +5161,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4824,22 +5178,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>30.41</v>
+        <v>30.61</v>
       </c>
       <c r="C127" t="n">
-        <v>31.03</v>
+        <v>30.8</v>
       </c>
       <c r="D127" t="n">
-        <v>31.03</v>
+        <v>30.8</v>
       </c>
       <c r="E127" t="n">
-        <v>30.41</v>
+        <v>30.4</v>
       </c>
       <c r="F127" t="n">
-        <v>6465152.9402</v>
+        <v>126000</v>
       </c>
       <c r="G127" t="n">
-        <v>30.64300000000001</v>
+        <v>30.64016666666668</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4848,8 +5202,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4859,22 +5219,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>31.04</v>
+        <v>30.41</v>
       </c>
       <c r="C128" t="n">
-        <v>30.7</v>
+        <v>31.03</v>
       </c>
       <c r="D128" t="n">
-        <v>31.04</v>
+        <v>31.03</v>
       </c>
       <c r="E128" t="n">
-        <v>30.4</v>
+        <v>30.41</v>
       </c>
       <c r="F128" t="n">
-        <v>4628041.992</v>
+        <v>6465152.9402</v>
       </c>
       <c r="G128" t="n">
-        <v>30.63683333333335</v>
+        <v>30.64300000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4883,8 +5243,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4894,22 +5260,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>30.7</v>
+        <v>31.04</v>
       </c>
       <c r="C129" t="n">
         <v>30.7</v>
       </c>
       <c r="D129" t="n">
-        <v>30.7</v>
+        <v>31.04</v>
       </c>
       <c r="E129" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="F129" t="n">
-        <v>5888365.3185</v>
+        <v>4628041.992</v>
       </c>
       <c r="G129" t="n">
-        <v>30.63700000000001</v>
+        <v>30.63683333333335</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4918,8 +5284,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4929,34 +5301,40 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>30.89</v>
+        <v>30.7</v>
       </c>
       <c r="C130" t="n">
-        <v>30.89</v>
+        <v>30.7</v>
       </c>
       <c r="D130" t="n">
-        <v>30.89</v>
+        <v>30.7</v>
       </c>
       <c r="E130" t="n">
-        <v>30.89</v>
+        <v>30.7</v>
       </c>
       <c r="F130" t="n">
-        <v>22258.1566</v>
+        <v>5888365.3185</v>
       </c>
       <c r="G130" t="n">
-        <v>30.64350000000001</v>
+        <v>30.63700000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="131">
@@ -4964,28 +5342,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>30.9</v>
+        <v>30.89</v>
       </c>
       <c r="C131" t="n">
-        <v>30.9</v>
+        <v>30.89</v>
       </c>
       <c r="D131" t="n">
-        <v>30.9</v>
+        <v>30.89</v>
       </c>
       <c r="E131" t="n">
-        <v>30.9</v>
+        <v>30.89</v>
       </c>
       <c r="F131" t="n">
-        <v>3238.9963</v>
+        <v>22258.1566</v>
       </c>
       <c r="G131" t="n">
-        <v>30.63633333333335</v>
+        <v>30.64350000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -4999,28 +5377,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="C132" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="D132" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="E132" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="F132" t="n">
-        <v>6525.6107</v>
+        <v>3238.9963</v>
       </c>
       <c r="G132" t="n">
-        <v>30.62683333333335</v>
+        <v>30.63633333333335</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5037,19 +5415,19 @@
         <v>30.7</v>
       </c>
       <c r="C133" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="D133" t="n">
         <v>30.7</v>
       </c>
       <c r="E133" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="F133" t="n">
-        <v>16001.6564</v>
+        <v>6525.6107</v>
       </c>
       <c r="G133" t="n">
-        <v>30.61600000000002</v>
+        <v>30.62683333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5069,22 +5447,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="C134" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="D134" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="E134" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="F134" t="n">
-        <v>38382.698</v>
+        <v>16001.6564</v>
       </c>
       <c r="G134" t="n">
-        <v>30.60600000000002</v>
+        <v>30.61600000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5104,22 +5482,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>31.03</v>
+        <v>30.5</v>
       </c>
       <c r="C135" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="D135" t="n">
-        <v>31.03</v>
+        <v>30.5</v>
       </c>
       <c r="E135" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="F135" t="n">
-        <v>15168.5257</v>
+        <v>38382.698</v>
       </c>
       <c r="G135" t="n">
-        <v>30.61583333333335</v>
+        <v>30.60600000000002</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5139,22 +5517,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>30.7</v>
+        <v>31.03</v>
       </c>
       <c r="C136" t="n">
-        <v>30.22</v>
+        <v>30.8</v>
       </c>
       <c r="D136" t="n">
-        <v>30.7</v>
+        <v>31.03</v>
       </c>
       <c r="E136" t="n">
-        <v>30.22</v>
+        <v>30.8</v>
       </c>
       <c r="F136" t="n">
-        <v>180851.7532</v>
+        <v>15168.5257</v>
       </c>
       <c r="G136" t="n">
-        <v>30.61783333333335</v>
+        <v>30.61583333333335</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5174,22 +5552,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C137" t="n">
         <v>30.22</v>
       </c>
-      <c r="C137" t="n">
-        <v>30.59</v>
-      </c>
       <c r="D137" t="n">
-        <v>30.59</v>
+        <v>30.7</v>
       </c>
       <c r="E137" t="n">
-        <v>30.02</v>
+        <v>30.22</v>
       </c>
       <c r="F137" t="n">
-        <v>268743.2708</v>
+        <v>180851.7532</v>
       </c>
       <c r="G137" t="n">
-        <v>30.60066666666669</v>
+        <v>30.61783333333335</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5209,22 +5587,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="C138" t="n">
         <v>30.59</v>
       </c>
-      <c r="C138" t="n">
-        <v>30.8</v>
-      </c>
       <c r="D138" t="n">
-        <v>30.8</v>
+        <v>30.59</v>
       </c>
       <c r="E138" t="n">
-        <v>30.59</v>
+        <v>30.02</v>
       </c>
       <c r="F138" t="n">
-        <v>128295.2926</v>
+        <v>268743.2708</v>
       </c>
       <c r="G138" t="n">
-        <v>30.59733333333335</v>
+        <v>30.60066666666669</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5244,7 +5622,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>30.8</v>
+        <v>30.59</v>
       </c>
       <c r="C139" t="n">
         <v>30.8</v>
@@ -5253,13 +5631,13 @@
         <v>30.8</v>
       </c>
       <c r="E139" t="n">
-        <v>30.8</v>
+        <v>30.59</v>
       </c>
       <c r="F139" t="n">
-        <v>20913.9829</v>
+        <v>128295.2926</v>
       </c>
       <c r="G139" t="n">
-        <v>30.59816666666668</v>
+        <v>30.59733333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5282,19 +5660,19 @@
         <v>30.8</v>
       </c>
       <c r="C140" t="n">
-        <v>30.59</v>
+        <v>30.8</v>
       </c>
       <c r="D140" t="n">
         <v>30.8</v>
       </c>
       <c r="E140" t="n">
-        <v>30.59</v>
+        <v>30.8</v>
       </c>
       <c r="F140" t="n">
-        <v>48878.8876</v>
+        <v>20913.9829</v>
       </c>
       <c r="G140" t="n">
-        <v>30.59550000000002</v>
+        <v>30.59816666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5314,22 +5692,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>30.59</v>
+        <v>30.8</v>
       </c>
       <c r="C141" t="n">
         <v>30.59</v>
       </c>
       <c r="D141" t="n">
-        <v>30.59</v>
+        <v>30.8</v>
       </c>
       <c r="E141" t="n">
         <v>30.59</v>
       </c>
       <c r="F141" t="n">
-        <v>27468.7701</v>
+        <v>48878.8876</v>
       </c>
       <c r="G141" t="n">
-        <v>30.59283333333335</v>
+        <v>30.59550000000002</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5349,22 +5727,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>30.8</v>
+        <v>30.59</v>
       </c>
       <c r="C142" t="n">
-        <v>30.8</v>
+        <v>30.59</v>
       </c>
       <c r="D142" t="n">
-        <v>30.8</v>
+        <v>30.59</v>
       </c>
       <c r="E142" t="n">
-        <v>30.8</v>
+        <v>30.59</v>
       </c>
       <c r="F142" t="n">
-        <v>2631.818181818182</v>
+        <v>27468.7701</v>
       </c>
       <c r="G142" t="n">
-        <v>30.59366666666668</v>
+        <v>30.59283333333335</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5379,6 +5757,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2631.818181818182</v>
+      </c>
+      <c r="G143" t="n">
+        <v>30.59366666666668</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-22 BackTest FCT.xlsx
+++ b/BackTest/2020-01-22 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31.07</v>
+        <v>30.57</v>
       </c>
       <c r="C2" t="n">
-        <v>31.07</v>
+        <v>30.57</v>
       </c>
       <c r="D2" t="n">
-        <v>31.07</v>
+        <v>30.57</v>
       </c>
       <c r="E2" t="n">
-        <v>31.07</v>
+        <v>30.54</v>
       </c>
       <c r="F2" t="n">
-        <v>20.8641</v>
+        <v>36416.6972</v>
       </c>
       <c r="G2" t="n">
-        <v>30.826</v>
+        <v>7813802.08724793</v>
       </c>
       <c r="H2" t="n">
-        <v>30.95100000000002</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31.07</v>
+        <v>30.57</v>
       </c>
       <c r="C3" t="n">
-        <v>31.07</v>
+        <v>30.54</v>
       </c>
       <c r="D3" t="n">
-        <v>31.07</v>
+        <v>30.57</v>
       </c>
       <c r="E3" t="n">
-        <v>31.07</v>
+        <v>30.54</v>
       </c>
       <c r="F3" t="n">
-        <v>192.4307</v>
+        <v>49795.1568</v>
       </c>
       <c r="G3" t="n">
-        <v>30.83733333333334</v>
+        <v>7764006.93044793</v>
       </c>
       <c r="H3" t="n">
-        <v>30.95166666666669</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.74</v>
+        <v>30.54</v>
       </c>
       <c r="C4" t="n">
-        <v>30.74</v>
+        <v>30.54</v>
       </c>
       <c r="D4" t="n">
-        <v>30.74</v>
+        <v>30.54</v>
       </c>
       <c r="E4" t="n">
-        <v>30.74</v>
+        <v>30.54</v>
       </c>
       <c r="F4" t="n">
-        <v>6268.3829</v>
+        <v>108707.9005</v>
       </c>
       <c r="G4" t="n">
-        <v>30.832</v>
+        <v>7764006.93044793</v>
       </c>
       <c r="H4" t="n">
-        <v>30.94700000000002</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.74</v>
+        <v>30.8</v>
       </c>
       <c r="C5" t="n">
-        <v>30.73</v>
+        <v>30.8</v>
       </c>
       <c r="D5" t="n">
-        <v>30.74</v>
+        <v>30.8</v>
       </c>
       <c r="E5" t="n">
-        <v>30.73</v>
+        <v>30.8</v>
       </c>
       <c r="F5" t="n">
-        <v>59417.9724</v>
+        <v>16.4954</v>
       </c>
       <c r="G5" t="n">
-        <v>30.82400000000001</v>
+        <v>7764023.425847931</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93766666666669</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.05</v>
+        <v>30.65</v>
       </c>
       <c r="C6" t="n">
-        <v>31.05</v>
+        <v>30.65</v>
       </c>
       <c r="D6" t="n">
-        <v>31.05</v>
+        <v>30.65</v>
       </c>
       <c r="E6" t="n">
-        <v>31.05</v>
+        <v>30.65</v>
       </c>
       <c r="F6" t="n">
-        <v>14980.4214</v>
+        <v>92.3459</v>
       </c>
       <c r="G6" t="n">
-        <v>30.83733333333334</v>
+        <v>7763931.079947931</v>
       </c>
       <c r="H6" t="n">
-        <v>30.93816666666669</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30.75</v>
+        <v>30.66</v>
       </c>
       <c r="C7" t="n">
-        <v>30.75</v>
+        <v>31.5</v>
       </c>
       <c r="D7" t="n">
-        <v>30.75</v>
+        <v>31.5</v>
       </c>
       <c r="E7" t="n">
-        <v>30.75</v>
+        <v>30.66</v>
       </c>
       <c r="F7" t="n">
-        <v>7214.032</v>
+        <v>60994.46726015873</v>
       </c>
       <c r="G7" t="n">
-        <v>30.83066666666667</v>
+        <v>7824925.547208089</v>
       </c>
       <c r="H7" t="n">
-        <v>30.93566666666668</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>31.06</v>
+        <v>30.8</v>
       </c>
       <c r="C8" t="n">
-        <v>31.06</v>
+        <v>31.1</v>
       </c>
       <c r="D8" t="n">
-        <v>31.06</v>
+        <v>31.1</v>
       </c>
       <c r="E8" t="n">
-        <v>31.06</v>
+        <v>30.8</v>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>6374.0237</v>
       </c>
       <c r="G8" t="n">
-        <v>30.84666666666667</v>
+        <v>7818551.52350809</v>
       </c>
       <c r="H8" t="n">
-        <v>30.93833333333335</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31.06</v>
+        <v>31.29</v>
       </c>
       <c r="C9" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E9" t="n">
         <v>31.29</v>
       </c>
-      <c r="D9" t="n">
-        <v>31.29</v>
-      </c>
-      <c r="E9" t="n">
-        <v>31.06</v>
-      </c>
       <c r="F9" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="n">
-        <v>30.876</v>
+        <v>7819551.52350809</v>
       </c>
       <c r="H9" t="n">
-        <v>30.94483333333335</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>31.29</v>
+        <v>31.4</v>
       </c>
       <c r="C10" t="n">
-        <v>31.37</v>
+        <v>31.4</v>
       </c>
       <c r="D10" t="n">
-        <v>31.37</v>
+        <v>31.4</v>
       </c>
       <c r="E10" t="n">
-        <v>31.29</v>
+        <v>31.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>20326.8156</v>
       </c>
       <c r="G10" t="n">
-        <v>30.91066666666667</v>
+        <v>7819551.52350809</v>
       </c>
       <c r="H10" t="n">
-        <v>30.95266666666668</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30.9</v>
+        <v>31.4</v>
       </c>
       <c r="C11" t="n">
-        <v>30.9</v>
+        <v>31.4</v>
       </c>
       <c r="D11" t="n">
-        <v>30.9</v>
+        <v>31.4</v>
       </c>
       <c r="E11" t="n">
-        <v>30.9</v>
+        <v>31.4</v>
       </c>
       <c r="F11" t="n">
-        <v>106273.2916</v>
+        <v>17941.2934</v>
       </c>
       <c r="G11" t="n">
-        <v>30.914</v>
+        <v>7819551.52350809</v>
       </c>
       <c r="H11" t="n">
-        <v>30.95266666666668</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>726.7084</v>
+        <v>462.6675</v>
       </c>
       <c r="G12" t="n">
-        <v>30.91733333333333</v>
+        <v>7819088.856008089</v>
       </c>
       <c r="H12" t="n">
-        <v>30.95266666666668</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31.09</v>
+        <v>31.1</v>
       </c>
       <c r="C13" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="D13" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="E13" t="n">
-        <v>31.09</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>47972.4078</v>
+        <v>59325.9378</v>
       </c>
       <c r="G13" t="n">
-        <v>30.944</v>
+        <v>7878414.79380809</v>
       </c>
       <c r="H13" t="n">
-        <v>30.95600000000001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -897,33 +856,30 @@
         <v>31.1</v>
       </c>
       <c r="C14" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="D14" t="n">
         <v>31.1</v>
       </c>
       <c r="E14" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="F14" t="n">
-        <v>96</v>
+        <v>21436.8352</v>
       </c>
       <c r="G14" t="n">
-        <v>30.96933333333333</v>
+        <v>7856977.95860809</v>
       </c>
       <c r="H14" t="n">
-        <v>30.95933333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -944,24 +900,21 @@
         <v>31.1</v>
       </c>
       <c r="F15" t="n">
-        <v>8544.112499999999</v>
+        <v>2650.4482</v>
       </c>
       <c r="G15" t="n">
-        <v>30.99533333333333</v>
+        <v>7859628.40680809</v>
       </c>
       <c r="H15" t="n">
-        <v>30.96266666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="C16" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="D16" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="E16" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="F16" t="n">
-        <v>1272.8527</v>
+        <v>4871.8126</v>
       </c>
       <c r="G16" t="n">
-        <v>31.022</v>
+        <v>7854756.594208091</v>
       </c>
       <c r="H16" t="n">
-        <v>30.966</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="C17" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="D17" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="E17" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="F17" t="n">
-        <v>16646.7336</v>
+        <v>20000</v>
       </c>
       <c r="G17" t="n">
-        <v>31.024</v>
+        <v>7854756.594208091</v>
       </c>
       <c r="H17" t="n">
-        <v>30.97016666666666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>31.25</v>
+        <v>30.82</v>
       </c>
       <c r="C18" t="n">
-        <v>31.25</v>
+        <v>30.82</v>
       </c>
       <c r="D18" t="n">
-        <v>31.25</v>
+        <v>30.82</v>
       </c>
       <c r="E18" t="n">
-        <v>31.25</v>
+        <v>30.82</v>
       </c>
       <c r="F18" t="n">
-        <v>15130.528</v>
+        <v>6570.8625</v>
       </c>
       <c r="G18" t="n">
-        <v>31.036</v>
+        <v>7848185.731708091</v>
       </c>
       <c r="H18" t="n">
-        <v>30.966</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="E19" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="F19" t="n">
-        <v>15155.5475</v>
+        <v>8661.4521</v>
       </c>
       <c r="G19" t="n">
-        <v>31.05333333333334</v>
+        <v>7856847.183808091</v>
       </c>
       <c r="H19" t="n">
-        <v>30.966</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30.89</v>
+        <v>30.85</v>
       </c>
       <c r="C20" t="n">
-        <v>30.89</v>
+        <v>30.85</v>
       </c>
       <c r="D20" t="n">
-        <v>30.89</v>
+        <v>30.85</v>
       </c>
       <c r="E20" t="n">
-        <v>30.89</v>
+        <v>30.85</v>
       </c>
       <c r="F20" t="n">
-        <v>12622.2839</v>
+        <v>7505.5857</v>
       </c>
       <c r="G20" t="n">
-        <v>31.064</v>
+        <v>7856847.183808091</v>
       </c>
       <c r="H20" t="n">
-        <v>30.96083333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="C21" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="D21" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="E21" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="F21" t="n">
-        <v>11177.9416</v>
+        <v>19136.53160453809</v>
       </c>
       <c r="G21" t="n">
-        <v>31.052</v>
+        <v>7856847.183808091</v>
       </c>
       <c r="H21" t="n">
-        <v>30.95683333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30.85</v>
+        <v>30.82</v>
       </c>
       <c r="C22" t="n">
-        <v>30.85</v>
+        <v>30.82</v>
       </c>
       <c r="D22" t="n">
-        <v>30.85</v>
+        <v>30.82</v>
       </c>
       <c r="E22" t="n">
-        <v>30.85</v>
+        <v>30.82</v>
       </c>
       <c r="F22" t="n">
-        <v>6121.0062</v>
+        <v>15017.8467</v>
       </c>
       <c r="G22" t="n">
-        <v>31.05866666666667</v>
+        <v>7841829.337108091</v>
       </c>
       <c r="H22" t="n">
-        <v>30.95266666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="C23" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="D23" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="E23" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="F23" t="n">
-        <v>67917.2534</v>
+        <v>33907.09886547812</v>
       </c>
       <c r="G23" t="n">
-        <v>31.046</v>
+        <v>7875736.43597357</v>
       </c>
       <c r="H23" t="n">
-        <v>30.9485</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>30.88</v>
+        <v>30.85</v>
       </c>
       <c r="C24" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="D24" t="n">
-        <v>30.88</v>
+        <v>30.85</v>
       </c>
       <c r="E24" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="F24" t="n">
-        <v>36668.8097</v>
+        <v>34430.8935</v>
       </c>
       <c r="G24" t="n">
-        <v>31.018</v>
+        <v>7875736.43597357</v>
       </c>
       <c r="H24" t="n">
-        <v>30.94733333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="C25" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="D25" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="E25" t="n">
-        <v>30.87</v>
+        <v>30.85</v>
       </c>
       <c r="F25" t="n">
-        <v>3045.2417</v>
+        <v>6000</v>
       </c>
       <c r="G25" t="n">
-        <v>30.98466666666667</v>
+        <v>7875736.43597357</v>
       </c>
       <c r="H25" t="n">
-        <v>30.94516666666666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="C26" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>30.85</v>
       </c>
       <c r="F26" t="n">
-        <v>16844.4525</v>
+        <v>90120.1384299838</v>
       </c>
       <c r="G26" t="n">
-        <v>30.99133333333334</v>
+        <v>7875736.43597357</v>
       </c>
       <c r="H26" t="n">
-        <v>30.94516666666666</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="E27" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="F27" t="n">
-        <v>25151.9639</v>
+        <v>840.3398</v>
       </c>
       <c r="G27" t="n">
-        <v>30.998</v>
+        <v>7874896.09617357</v>
       </c>
       <c r="H27" t="n">
-        <v>30.94516666666666</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>30.85</v>
+        <v>30.76</v>
       </c>
       <c r="C28" t="n">
-        <v>30.85</v>
+        <v>30.72</v>
       </c>
       <c r="D28" t="n">
-        <v>30.85</v>
+        <v>30.76</v>
       </c>
       <c r="E28" t="n">
-        <v>30.85</v>
+        <v>30.72</v>
       </c>
       <c r="F28" t="n">
-        <v>2814.3296</v>
+        <v>132459.8295</v>
       </c>
       <c r="G28" t="n">
-        <v>30.98133333333334</v>
+        <v>8007355.92567357</v>
       </c>
       <c r="H28" t="n">
-        <v>30.94366666666666</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30.85</v>
+        <v>30.72</v>
       </c>
       <c r="C29" t="n">
-        <v>30.85</v>
+        <v>30.71</v>
       </c>
       <c r="D29" t="n">
-        <v>30.85</v>
+        <v>30.72</v>
       </c>
       <c r="E29" t="n">
-        <v>30.85</v>
+        <v>30.71</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>49833.9457</v>
       </c>
       <c r="G29" t="n">
-        <v>30.96466666666667</v>
+        <v>7957521.97997357</v>
       </c>
       <c r="H29" t="n">
-        <v>30.94166666666666</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
+        <v>30.71</v>
       </c>
       <c r="C30" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="D30" t="n">
-        <v>31</v>
+        <v>30.71</v>
       </c>
       <c r="E30" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="F30" t="n">
-        <v>39.0793</v>
+        <v>31816.9609</v>
       </c>
       <c r="G30" t="n">
-        <v>30.95800000000001</v>
+        <v>7925705.019073569</v>
       </c>
       <c r="H30" t="n">
-        <v>30.94316666666665</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31</v>
+        <v>31.07</v>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>31.07</v>
       </c>
       <c r="D31" t="n">
-        <v>31</v>
+        <v>31.07</v>
       </c>
       <c r="E31" t="n">
-        <v>31</v>
+        <v>31.07</v>
       </c>
       <c r="F31" t="n">
-        <v>3211.9584</v>
+        <v>20.8641</v>
       </c>
       <c r="G31" t="n">
-        <v>30.95133333333333</v>
+        <v>7925725.883173569</v>
       </c>
       <c r="H31" t="n">
-        <v>30.94649999999999</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>31</v>
+        <v>31.07</v>
       </c>
       <c r="C32" t="n">
-        <v>31</v>
+        <v>31.07</v>
       </c>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>31.07</v>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>31.07</v>
       </c>
       <c r="F32" t="n">
-        <v>75.6138</v>
+        <v>192.4307</v>
       </c>
       <c r="G32" t="n">
-        <v>30.94466666666667</v>
+        <v>7925725.883173569</v>
       </c>
       <c r="H32" t="n">
-        <v>30.95366666666666</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30.85</v>
+        <v>30.74</v>
       </c>
       <c r="C33" t="n">
-        <v>30.83</v>
+        <v>30.74</v>
       </c>
       <c r="D33" t="n">
-        <v>30.85</v>
+        <v>30.74</v>
       </c>
       <c r="E33" t="n">
-        <v>30.83</v>
+        <v>30.74</v>
       </c>
       <c r="F33" t="n">
-        <v>23019.5941</v>
+        <v>6268.3829</v>
       </c>
       <c r="G33" t="n">
-        <v>30.91666666666667</v>
+        <v>7919457.500273569</v>
       </c>
       <c r="H33" t="n">
-        <v>30.95799999999999</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30.83</v>
+        <v>30.74</v>
       </c>
       <c r="C34" t="n">
-        <v>30.83</v>
+        <v>30.73</v>
       </c>
       <c r="D34" t="n">
-        <v>30.83</v>
+        <v>30.74</v>
       </c>
       <c r="E34" t="n">
-        <v>30.83</v>
+        <v>30.73</v>
       </c>
       <c r="F34" t="n">
-        <v>158.3281</v>
+        <v>59417.9724</v>
       </c>
       <c r="G34" t="n">
-        <v>30.90533333333333</v>
+        <v>7860039.527873569</v>
       </c>
       <c r="H34" t="n">
-        <v>30.96283333333332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>31</v>
+        <v>31.05</v>
       </c>
       <c r="C35" t="n">
-        <v>31</v>
+        <v>31.05</v>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>31.05</v>
       </c>
       <c r="E35" t="n">
-        <v>31</v>
+        <v>31.05</v>
       </c>
       <c r="F35" t="n">
-        <v>17</v>
+        <v>14980.4214</v>
       </c>
       <c r="G35" t="n">
-        <v>30.91266666666667</v>
+        <v>7875019.94927357</v>
       </c>
       <c r="H35" t="n">
-        <v>30.97049999999999</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>31</v>
+        <v>30.75</v>
       </c>
       <c r="C36" t="n">
-        <v>31.28</v>
+        <v>30.75</v>
       </c>
       <c r="D36" t="n">
-        <v>31.28</v>
+        <v>30.75</v>
       </c>
       <c r="E36" t="n">
-        <v>31</v>
+        <v>30.75</v>
       </c>
       <c r="F36" t="n">
-        <v>41465</v>
+        <v>7214.032</v>
       </c>
       <c r="G36" t="n">
-        <v>30.94</v>
+        <v>7867805.91727357</v>
       </c>
       <c r="H36" t="n">
-        <v>30.97849999999999</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>31.28</v>
+        <v>31.06</v>
       </c>
       <c r="C37" t="n">
-        <v>31.28</v>
+        <v>31.06</v>
       </c>
       <c r="D37" t="n">
-        <v>31.28</v>
+        <v>31.06</v>
       </c>
       <c r="E37" t="n">
-        <v>31.28</v>
+        <v>31.06</v>
       </c>
       <c r="F37" t="n">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="G37" t="n">
-        <v>30.96866666666666</v>
+        <v>7868805.91727357</v>
       </c>
       <c r="H37" t="n">
-        <v>30.98899999999999</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>31</v>
+        <v>31.06</v>
       </c>
       <c r="C38" t="n">
-        <v>31.33</v>
+        <v>31.29</v>
       </c>
       <c r="D38" t="n">
-        <v>31.33</v>
+        <v>31.29</v>
       </c>
       <c r="E38" t="n">
-        <v>30.9</v>
+        <v>31.06</v>
       </c>
       <c r="F38" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="n">
-        <v>30.99933333333333</v>
+        <v>7873805.91727357</v>
       </c>
       <c r="H38" t="n">
-        <v>30.98616666666665</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>31.05</v>
+        <v>31.29</v>
       </c>
       <c r="C39" t="n">
-        <v>31.1</v>
+        <v>31.37</v>
       </c>
       <c r="D39" t="n">
-        <v>31.1</v>
+        <v>31.37</v>
       </c>
       <c r="E39" t="n">
-        <v>31.05</v>
+        <v>31.29</v>
       </c>
       <c r="F39" t="n">
-        <v>8695184.0241</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>31.01466666666666</v>
+        <v>7874805.91727357</v>
       </c>
       <c r="H39" t="n">
-        <v>30.98616666666665</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="C40" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="D40" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="E40" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="F40" t="n">
-        <v>2707304.0388</v>
+        <v>106273.2916</v>
       </c>
       <c r="G40" t="n">
-        <v>31.03666666666667</v>
+        <v>7768532.62567357</v>
       </c>
       <c r="H40" t="n">
-        <v>30.98283333333332</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="C41" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="D41" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="E41" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="F41" t="n">
-        <v>30036.5781</v>
+        <v>726.7084</v>
       </c>
       <c r="G41" t="n">
-        <v>31.05</v>
+        <v>7768532.62567357</v>
       </c>
       <c r="H41" t="n">
-        <v>30.97949999999998</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>31.01</v>
+        <v>31.09</v>
       </c>
       <c r="C42" t="n">
-        <v>31.01</v>
+        <v>31.1</v>
       </c>
       <c r="D42" t="n">
-        <v>31.01</v>
+        <v>31.1</v>
       </c>
       <c r="E42" t="n">
-        <v>31.01</v>
+        <v>31.09</v>
       </c>
       <c r="F42" t="n">
-        <v>1999.3579</v>
+        <v>47972.4078</v>
       </c>
       <c r="G42" t="n">
-        <v>31.05066666666666</v>
+        <v>7816505.03347357</v>
       </c>
       <c r="H42" t="n">
-        <v>30.97299999999998</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.19</v>
+        <v>31.1</v>
       </c>
       <c r="C43" t="n">
-        <v>31.19</v>
+        <v>31.1</v>
       </c>
       <c r="D43" t="n">
-        <v>31.19</v>
+        <v>31.1</v>
       </c>
       <c r="E43" t="n">
-        <v>31.19</v>
+        <v>31.1</v>
       </c>
       <c r="F43" t="n">
-        <v>1629.7675</v>
+        <v>96</v>
       </c>
       <c r="G43" t="n">
-        <v>31.07333333333333</v>
+        <v>7816505.03347357</v>
       </c>
       <c r="H43" t="n">
-        <v>30.97616666666665</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.01</v>
+        <v>31.1</v>
       </c>
       <c r="C44" t="n">
-        <v>31.55</v>
+        <v>31.1</v>
       </c>
       <c r="D44" t="n">
-        <v>31.55</v>
+        <v>31.1</v>
       </c>
       <c r="E44" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="F44" t="n">
-        <v>90000</v>
+        <v>8544.112499999999</v>
       </c>
       <c r="G44" t="n">
-        <v>31.11999999999999</v>
+        <v>7816505.03347357</v>
       </c>
       <c r="H44" t="n">
-        <v>30.97699999999998</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="C45" t="n">
-        <v>31.58</v>
+        <v>31.1</v>
       </c>
       <c r="D45" t="n">
-        <v>31.58</v>
+        <v>31.1</v>
       </c>
       <c r="E45" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="F45" t="n">
-        <v>36000</v>
+        <v>1272.8527</v>
       </c>
       <c r="G45" t="n">
-        <v>31.15866666666666</v>
+        <v>7816505.03347357</v>
       </c>
       <c r="H45" t="n">
-        <v>30.98833333333331</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="C46" t="n">
-        <v>31.76</v>
+        <v>31.1</v>
       </c>
       <c r="D46" t="n">
-        <v>31.76</v>
+        <v>31.1</v>
       </c>
       <c r="E46" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="F46" t="n">
-        <v>145912</v>
+        <v>16646.7336</v>
       </c>
       <c r="G46" t="n">
-        <v>31.20933333333333</v>
+        <v>7816505.03347357</v>
       </c>
       <c r="H46" t="n">
-        <v>30.99933333333331</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>31.66</v>
+        <v>31.25</v>
       </c>
       <c r="C47" t="n">
-        <v>31.66</v>
+        <v>31.25</v>
       </c>
       <c r="D47" t="n">
-        <v>31.66</v>
+        <v>31.25</v>
       </c>
       <c r="E47" t="n">
-        <v>31.66</v>
+        <v>31.25</v>
       </c>
       <c r="F47" t="n">
-        <v>1445.0159</v>
+        <v>15130.528</v>
       </c>
       <c r="G47" t="n">
-        <v>31.25333333333333</v>
+        <v>7831635.56147357</v>
       </c>
       <c r="H47" t="n">
-        <v>31.01199999999998</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>31.66</v>
+        <v>31</v>
       </c>
       <c r="C48" t="n">
-        <v>31.66</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>31.66</v>
+        <v>31</v>
       </c>
       <c r="E48" t="n">
-        <v>31.66</v>
+        <v>31</v>
       </c>
       <c r="F48" t="n">
-        <v>3995.1189</v>
+        <v>15155.5475</v>
       </c>
       <c r="G48" t="n">
-        <v>31.30866666666666</v>
+        <v>7816480.013973569</v>
       </c>
       <c r="H48" t="n">
-        <v>31.02466666666665</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>31.66</v>
+        <v>30.89</v>
       </c>
       <c r="C49" t="n">
-        <v>31.66</v>
+        <v>30.89</v>
       </c>
       <c r="D49" t="n">
-        <v>31.66</v>
+        <v>30.89</v>
       </c>
       <c r="E49" t="n">
-        <v>31.66</v>
+        <v>30.89</v>
       </c>
       <c r="F49" t="n">
-        <v>1579.279848389134</v>
+        <v>12622.2839</v>
       </c>
       <c r="G49" t="n">
-        <v>31.364</v>
+        <v>7803857.730073569</v>
       </c>
       <c r="H49" t="n">
-        <v>31.03866666666665</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>31.4</v>
+        <v>30.87</v>
       </c>
       <c r="C50" t="n">
-        <v>31.2</v>
+        <v>30.87</v>
       </c>
       <c r="D50" t="n">
-        <v>31.4</v>
+        <v>30.87</v>
       </c>
       <c r="E50" t="n">
-        <v>31.2</v>
+        <v>30.87</v>
       </c>
       <c r="F50" t="n">
-        <v>17146.3756</v>
+        <v>11177.9416</v>
       </c>
       <c r="G50" t="n">
-        <v>31.37733333333333</v>
+        <v>7792679.78847357</v>
       </c>
       <c r="H50" t="n">
-        <v>31.04449999999999</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>31.3</v>
+        <v>30.85</v>
       </c>
       <c r="C51" t="n">
-        <v>31.2</v>
+        <v>30.85</v>
       </c>
       <c r="D51" t="n">
-        <v>31.3</v>
+        <v>30.85</v>
       </c>
       <c r="E51" t="n">
-        <v>31.2</v>
+        <v>30.85</v>
       </c>
       <c r="F51" t="n">
-        <v>32576.9576</v>
+        <v>6121.0062</v>
       </c>
       <c r="G51" t="n">
-        <v>31.372</v>
+        <v>7786558.78227357</v>
       </c>
       <c r="H51" t="n">
-        <v>31.05033333333332</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>31.2</v>
+        <v>30.87</v>
       </c>
       <c r="C52" t="n">
-        <v>31.2</v>
+        <v>30.87</v>
       </c>
       <c r="D52" t="n">
-        <v>31.2</v>
+        <v>30.87</v>
       </c>
       <c r="E52" t="n">
-        <v>31.2</v>
+        <v>30.87</v>
       </c>
       <c r="F52" t="n">
-        <v>12520.4031</v>
+        <v>67917.2534</v>
       </c>
       <c r="G52" t="n">
-        <v>31.36666666666666</v>
+        <v>7854476.03567357</v>
       </c>
       <c r="H52" t="n">
-        <v>31.05616666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>31.2</v>
+        <v>30.88</v>
       </c>
       <c r="C53" t="n">
-        <v>31.65</v>
+        <v>30.87</v>
       </c>
       <c r="D53" t="n">
-        <v>31.65</v>
+        <v>30.88</v>
       </c>
       <c r="E53" t="n">
-        <v>31.2</v>
+        <v>30.87</v>
       </c>
       <c r="F53" t="n">
-        <v>110151.1991</v>
+        <v>36668.8097</v>
       </c>
       <c r="G53" t="n">
-        <v>31.38799999999999</v>
+        <v>7854476.03567357</v>
       </c>
       <c r="H53" t="n">
-        <v>31.06999999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>31.31</v>
+        <v>30.87</v>
       </c>
       <c r="C54" t="n">
-        <v>31.31</v>
+        <v>30.87</v>
       </c>
       <c r="D54" t="n">
-        <v>31.31</v>
+        <v>30.87</v>
       </c>
       <c r="E54" t="n">
-        <v>31.31</v>
+        <v>30.87</v>
       </c>
       <c r="F54" t="n">
-        <v>3000</v>
+        <v>3045.2417</v>
       </c>
       <c r="G54" t="n">
-        <v>31.40199999999999</v>
+        <v>7854476.03567357</v>
       </c>
       <c r="H54" t="n">
-        <v>31.07766666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>31.45</v>
+        <v>31</v>
       </c>
       <c r="C55" t="n">
-        <v>31.45</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
-        <v>31.45</v>
+        <v>31</v>
       </c>
       <c r="E55" t="n">
-        <v>31.45</v>
+        <v>31</v>
       </c>
       <c r="F55" t="n">
-        <v>9181.7057</v>
+        <v>16844.4525</v>
       </c>
       <c r="G55" t="n">
-        <v>31.41866666666666</v>
+        <v>7871320.48817357</v>
       </c>
       <c r="H55" t="n">
-        <v>31.08766666666666</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31.46</v>
+        <v>31</v>
       </c>
       <c r="C56" t="n">
-        <v>31.46</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
-        <v>31.46</v>
+        <v>31</v>
       </c>
       <c r="E56" t="n">
-        <v>31.46</v>
+        <v>31</v>
       </c>
       <c r="F56" t="n">
-        <v>2466</v>
+        <v>25151.9639</v>
       </c>
       <c r="G56" t="n">
-        <v>31.43599999999999</v>
+        <v>7871320.48817357</v>
       </c>
       <c r="H56" t="n">
-        <v>31.09783333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>31.3</v>
+        <v>30.85</v>
       </c>
       <c r="C57" t="n">
-        <v>31.3</v>
+        <v>30.85</v>
       </c>
       <c r="D57" t="n">
-        <v>31.3</v>
+        <v>30.85</v>
       </c>
       <c r="E57" t="n">
-        <v>31.3</v>
+        <v>30.85</v>
       </c>
       <c r="F57" t="n">
-        <v>11196.8046</v>
+        <v>2814.3296</v>
       </c>
       <c r="G57" t="n">
-        <v>31.45533333333332</v>
+        <v>7868506.15857357</v>
       </c>
       <c r="H57" t="n">
-        <v>31.10533333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>31.45</v>
+        <v>30.85</v>
       </c>
       <c r="C58" t="n">
-        <v>31.45</v>
+        <v>30.85</v>
       </c>
       <c r="D58" t="n">
-        <v>31.45</v>
+        <v>30.85</v>
       </c>
       <c r="E58" t="n">
-        <v>31.45</v>
+        <v>30.85</v>
       </c>
       <c r="F58" t="n">
-        <v>3471.0137</v>
+        <v>17</v>
       </c>
       <c r="G58" t="n">
-        <v>31.47266666666666</v>
+        <v>7868506.15857357</v>
       </c>
       <c r="H58" t="n">
-        <v>31.11783333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="C59" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="D59" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="E59" t="n">
-        <v>31.3</v>
+        <v>31</v>
       </c>
       <c r="F59" t="n">
-        <v>2692.8823</v>
+        <v>39.0793</v>
       </c>
       <c r="G59" t="n">
-        <v>31.45599999999999</v>
+        <v>7868545.23787357</v>
       </c>
       <c r="H59" t="n">
-        <v>31.1275</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>31.18</v>
+        <v>31</v>
       </c>
       <c r="C60" t="n">
-        <v>31.18</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
-        <v>31.18</v>
+        <v>31</v>
       </c>
       <c r="E60" t="n">
-        <v>31.18</v>
+        <v>31</v>
       </c>
       <c r="F60" t="n">
-        <v>34793.8293</v>
+        <v>3211.9584</v>
       </c>
       <c r="G60" t="n">
-        <v>31.42933333333333</v>
+        <v>7868545.23787357</v>
       </c>
       <c r="H60" t="n">
-        <v>31.13533333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="D61" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="E61" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F61" t="n">
-        <v>7655.6397</v>
+        <v>75.6138</v>
       </c>
       <c r="G61" t="n">
-        <v>31.38533333333333</v>
+        <v>7868545.23787357</v>
       </c>
       <c r="H61" t="n">
-        <v>31.142</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>31.1</v>
+        <v>30.85</v>
       </c>
       <c r="C62" t="n">
-        <v>30.71</v>
+        <v>30.83</v>
       </c>
       <c r="D62" t="n">
-        <v>31.1</v>
+        <v>30.85</v>
       </c>
       <c r="E62" t="n">
-        <v>30.71</v>
+        <v>30.83</v>
       </c>
       <c r="F62" t="n">
-        <v>145814.9758</v>
+        <v>23019.5941</v>
       </c>
       <c r="G62" t="n">
-        <v>31.32199999999999</v>
+        <v>7845525.64377357</v>
       </c>
       <c r="H62" t="n">
-        <v>31.136</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>30.71</v>
+        <v>30.83</v>
       </c>
       <c r="C63" t="n">
-        <v>30.3</v>
+        <v>30.83</v>
       </c>
       <c r="D63" t="n">
-        <v>30.71</v>
+        <v>30.83</v>
       </c>
       <c r="E63" t="n">
-        <v>30.3</v>
+        <v>30.83</v>
       </c>
       <c r="F63" t="n">
-        <v>313295.2873</v>
+        <v>158.3281</v>
       </c>
       <c r="G63" t="n">
-        <v>31.23133333333332</v>
+        <v>7845525.64377357</v>
       </c>
       <c r="H63" t="n">
-        <v>31.12316666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.3</v>
+        <v>31</v>
       </c>
       <c r="C64" t="n">
-        <v>30.2</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
-        <v>30.3</v>
+        <v>31</v>
       </c>
       <c r="E64" t="n">
-        <v>30.2</v>
+        <v>31</v>
       </c>
       <c r="F64" t="n">
-        <v>40884.7369</v>
+        <v>17</v>
       </c>
       <c r="G64" t="n">
-        <v>31.13399999999999</v>
+        <v>7845542.64377357</v>
       </c>
       <c r="H64" t="n">
-        <v>31.11416666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="C65" t="n">
-        <v>30.4</v>
+        <v>31.28</v>
       </c>
       <c r="D65" t="n">
-        <v>30.48</v>
+        <v>31.28</v>
       </c>
       <c r="E65" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="F65" t="n">
-        <v>23894.7766</v>
+        <v>41465</v>
       </c>
       <c r="G65" t="n">
-        <v>31.08066666666666</v>
+        <v>7887007.64377357</v>
       </c>
       <c r="H65" t="n">
-        <v>31.10866666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30.5</v>
+        <v>31.28</v>
       </c>
       <c r="C66" t="n">
-        <v>30.5</v>
+        <v>31.28</v>
       </c>
       <c r="D66" t="n">
-        <v>30.5</v>
+        <v>31.28</v>
       </c>
       <c r="E66" t="n">
-        <v>30.5</v>
+        <v>31.28</v>
       </c>
       <c r="F66" t="n">
-        <v>1400</v>
+        <v>1047</v>
       </c>
       <c r="G66" t="n">
-        <v>31.03399999999999</v>
+        <v>7887007.64377357</v>
       </c>
       <c r="H66" t="n">
-        <v>31.0995</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="C67" t="n">
-        <v>30.7</v>
+        <v>31.33</v>
       </c>
       <c r="D67" t="n">
-        <v>30.7</v>
+        <v>31.33</v>
       </c>
       <c r="E67" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>18000</v>
       </c>
       <c r="G67" t="n">
-        <v>31.00066666666665</v>
+        <v>7905007.64377357</v>
       </c>
       <c r="H67" t="n">
-        <v>31.09866666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>30.86</v>
+        <v>31.05</v>
       </c>
       <c r="C68" t="n">
-        <v>30.86</v>
+        <v>31.1</v>
       </c>
       <c r="D68" t="n">
-        <v>30.86</v>
+        <v>31.1</v>
       </c>
       <c r="E68" t="n">
-        <v>30.86</v>
+        <v>31.05</v>
       </c>
       <c r="F68" t="n">
-        <v>19.9309</v>
+        <v>8695184.0241</v>
       </c>
       <c r="G68" t="n">
-        <v>30.94799999999999</v>
+        <v>-790176.3803264303</v>
       </c>
       <c r="H68" t="n">
-        <v>31.09533333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30.86</v>
+        <v>31.1</v>
       </c>
       <c r="C69" t="n">
-        <v>31.07</v>
+        <v>31.2</v>
       </c>
       <c r="D69" t="n">
-        <v>31.07</v>
+        <v>31.2</v>
       </c>
       <c r="E69" t="n">
-        <v>30.86</v>
+        <v>31.1</v>
       </c>
       <c r="F69" t="n">
-        <v>842.8113</v>
+        <v>2707304.0388</v>
       </c>
       <c r="G69" t="n">
-        <v>30.93199999999999</v>
+        <v>1917127.65847357</v>
       </c>
       <c r="H69" t="n">
-        <v>31.09166666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
       <c r="C70" t="n">
-        <v>30.69</v>
+        <v>31.2</v>
       </c>
       <c r="D70" t="n">
-        <v>30.69</v>
+        <v>31.2</v>
       </c>
       <c r="E70" t="n">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
       <c r="F70" t="n">
-        <v>19698.0253</v>
+        <v>30036.5781</v>
       </c>
       <c r="G70" t="n">
-        <v>30.88133333333332</v>
+        <v>1917127.65847357</v>
       </c>
       <c r="H70" t="n">
-        <v>31.08033333333334</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.5</v>
+        <v>31.01</v>
       </c>
       <c r="C71" t="n">
-        <v>30.5</v>
+        <v>31.01</v>
       </c>
       <c r="D71" t="n">
-        <v>30.5</v>
+        <v>31.01</v>
       </c>
       <c r="E71" t="n">
-        <v>30.5</v>
+        <v>31.01</v>
       </c>
       <c r="F71" t="n">
-        <v>1600</v>
+        <v>1999.3579</v>
       </c>
       <c r="G71" t="n">
-        <v>30.81733333333333</v>
+        <v>1915128.30057357</v>
       </c>
       <c r="H71" t="n">
-        <v>31.07366666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30.52</v>
+        <v>31.19</v>
       </c>
       <c r="C72" t="n">
-        <v>31.33</v>
+        <v>31.19</v>
       </c>
       <c r="D72" t="n">
-        <v>31.33</v>
+        <v>31.19</v>
       </c>
       <c r="E72" t="n">
-        <v>30.5</v>
+        <v>31.19</v>
       </c>
       <c r="F72" t="n">
-        <v>336000</v>
+        <v>1629.7675</v>
       </c>
       <c r="G72" t="n">
-        <v>30.81933333333332</v>
+        <v>1916758.06807357</v>
       </c>
       <c r="H72" t="n">
-        <v>31.08083333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>31.27</v>
+        <v>31.01</v>
       </c>
       <c r="C73" t="n">
-        <v>31.27</v>
+        <v>31.55</v>
       </c>
       <c r="D73" t="n">
-        <v>31.27</v>
+        <v>31.55</v>
       </c>
       <c r="E73" t="n">
-        <v>31.27</v>
+        <v>31</v>
       </c>
       <c r="F73" t="n">
-        <v>424.2009</v>
+        <v>90000</v>
       </c>
       <c r="G73" t="n">
-        <v>30.80733333333332</v>
+        <v>2006758.06807357</v>
       </c>
       <c r="H73" t="n">
-        <v>31.08366666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C74" t="n">
-        <v>31.25</v>
+        <v>31.58</v>
       </c>
       <c r="D74" t="n">
-        <v>31.25</v>
+        <v>31.58</v>
       </c>
       <c r="E74" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="F74" t="n">
-        <v>66480.3236</v>
+        <v>36000</v>
       </c>
       <c r="G74" t="n">
-        <v>30.80399999999999</v>
+        <v>2042758.06807357</v>
       </c>
       <c r="H74" t="n">
-        <v>31.08616666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="C75" t="n">
-        <v>31.1</v>
+        <v>31.76</v>
       </c>
       <c r="D75" t="n">
-        <v>31.1</v>
+        <v>31.76</v>
       </c>
       <c r="E75" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="F75" t="n">
-        <v>3436.2912</v>
+        <v>145912</v>
       </c>
       <c r="G75" t="n">
-        <v>30.79866666666666</v>
+        <v>2188670.06807357</v>
       </c>
       <c r="H75" t="n">
-        <v>31.08616666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.85</v>
+        <v>31.66</v>
       </c>
       <c r="C76" t="n">
-        <v>30.21</v>
+        <v>31.66</v>
       </c>
       <c r="D76" t="n">
-        <v>30.85</v>
+        <v>31.66</v>
       </c>
       <c r="E76" t="n">
-        <v>30.21</v>
+        <v>31.66</v>
       </c>
       <c r="F76" t="n">
-        <v>133630.7436</v>
+        <v>1445.0159</v>
       </c>
       <c r="G76" t="n">
-        <v>30.73933333333332</v>
+        <v>2187225.05217357</v>
       </c>
       <c r="H76" t="n">
-        <v>31.07133333333334</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30.2</v>
+        <v>31.66</v>
       </c>
       <c r="C77" t="n">
-        <v>30.1</v>
+        <v>31.66</v>
       </c>
       <c r="D77" t="n">
-        <v>30.99</v>
+        <v>31.66</v>
       </c>
       <c r="E77" t="n">
-        <v>30.1</v>
+        <v>31.66</v>
       </c>
       <c r="F77" t="n">
-        <v>369503.2564</v>
+        <v>3995.1189</v>
       </c>
       <c r="G77" t="n">
-        <v>30.69866666666666</v>
+        <v>2187225.05217357</v>
       </c>
       <c r="H77" t="n">
-        <v>31.05466666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.21</v>
+        <v>31.66</v>
       </c>
       <c r="C78" t="n">
-        <v>31.62</v>
+        <v>31.66</v>
       </c>
       <c r="D78" t="n">
-        <v>31.62</v>
+        <v>31.66</v>
       </c>
       <c r="E78" t="n">
-        <v>30.21</v>
+        <v>31.66</v>
       </c>
       <c r="F78" t="n">
-        <v>208816.0002</v>
+        <v>1579.279848389134</v>
       </c>
       <c r="G78" t="n">
-        <v>30.78666666666665</v>
+        <v>2187225.05217357</v>
       </c>
       <c r="H78" t="n">
-        <v>31.06083333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="C79" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="D79" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="E79" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="F79" t="n">
-        <v>15801.354</v>
+        <v>17146.3756</v>
       </c>
       <c r="G79" t="n">
-        <v>30.83999999999999</v>
+        <v>2170078.67657357</v>
       </c>
       <c r="H79" t="n">
-        <v>31.06083333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>30.75</v>
+        <v>31.3</v>
       </c>
       <c r="C80" t="n">
-        <v>30.75</v>
+        <v>31.2</v>
       </c>
       <c r="D80" t="n">
-        <v>30.75</v>
+        <v>31.3</v>
       </c>
       <c r="E80" t="n">
-        <v>30.75</v>
+        <v>31.2</v>
       </c>
       <c r="F80" t="n">
-        <v>1300.813</v>
+        <v>32576.9576</v>
       </c>
       <c r="G80" t="n">
-        <v>30.86333333333333</v>
+        <v>2170078.67657357</v>
       </c>
       <c r="H80" t="n">
-        <v>31.0585</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>30.75</v>
+        <v>31.2</v>
       </c>
       <c r="C81" t="n">
-        <v>30.75</v>
+        <v>31.2</v>
       </c>
       <c r="D81" t="n">
-        <v>30.75</v>
+        <v>31.2</v>
       </c>
       <c r="E81" t="n">
-        <v>30.75</v>
+        <v>31.2</v>
       </c>
       <c r="F81" t="n">
-        <v>2694.3059</v>
+        <v>12520.4031</v>
       </c>
       <c r="G81" t="n">
-        <v>30.87999999999999</v>
+        <v>2170078.67657357</v>
       </c>
       <c r="H81" t="n">
-        <v>31.0565</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>30.75</v>
+        <v>31.2</v>
       </c>
       <c r="C82" t="n">
-        <v>30.75</v>
+        <v>31.65</v>
       </c>
       <c r="D82" t="n">
-        <v>30.75</v>
+        <v>31.65</v>
       </c>
       <c r="E82" t="n">
-        <v>30.75</v>
+        <v>31.2</v>
       </c>
       <c r="F82" t="n">
-        <v>13151.9689</v>
+        <v>110151.1991</v>
       </c>
       <c r="G82" t="n">
-        <v>30.88333333333333</v>
+        <v>2280229.87567357</v>
       </c>
       <c r="H82" t="n">
-        <v>31.05483333333334</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>30.75</v>
+        <v>31.31</v>
       </c>
       <c r="C83" t="n">
-        <v>30.75</v>
+        <v>31.31</v>
       </c>
       <c r="D83" t="n">
-        <v>30.75</v>
+        <v>31.31</v>
       </c>
       <c r="E83" t="n">
-        <v>30.75</v>
+        <v>31.31</v>
       </c>
       <c r="F83" t="n">
-        <v>5465.4186</v>
+        <v>3000</v>
       </c>
       <c r="G83" t="n">
-        <v>30.87599999999999</v>
+        <v>2277229.87567357</v>
       </c>
       <c r="H83" t="n">
-        <v>31.05283333333334</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>30.75</v>
+        <v>31.45</v>
       </c>
       <c r="C84" t="n">
-        <v>30.75</v>
+        <v>31.45</v>
       </c>
       <c r="D84" t="n">
-        <v>30.75</v>
+        <v>31.45</v>
       </c>
       <c r="E84" t="n">
-        <v>30.75</v>
+        <v>31.45</v>
       </c>
       <c r="F84" t="n">
-        <v>17622.7691</v>
+        <v>9181.7057</v>
       </c>
       <c r="G84" t="n">
-        <v>30.85466666666666</v>
+        <v>2286411.58137357</v>
       </c>
       <c r="H84" t="n">
-        <v>31.05083333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>30.98</v>
+        <v>31.46</v>
       </c>
       <c r="C85" t="n">
-        <v>30.98</v>
+        <v>31.46</v>
       </c>
       <c r="D85" t="n">
-        <v>30.98</v>
+        <v>31.46</v>
       </c>
       <c r="E85" t="n">
-        <v>30.98</v>
+        <v>31.46</v>
       </c>
       <c r="F85" t="n">
-        <v>378.8047</v>
+        <v>2466</v>
       </c>
       <c r="G85" t="n">
-        <v>30.87399999999999</v>
+        <v>2288877.58137357</v>
       </c>
       <c r="H85" t="n">
-        <v>31.05266666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>30.98</v>
+        <v>31.3</v>
       </c>
       <c r="C86" t="n">
-        <v>30.98</v>
+        <v>31.3</v>
       </c>
       <c r="D86" t="n">
-        <v>30.98</v>
+        <v>31.3</v>
       </c>
       <c r="E86" t="n">
-        <v>30.98</v>
+        <v>31.3</v>
       </c>
       <c r="F86" t="n">
-        <v>379.7816</v>
+        <v>11196.8046</v>
       </c>
       <c r="G86" t="n">
-        <v>30.906</v>
+        <v>2277680.77677357</v>
       </c>
       <c r="H86" t="n">
-        <v>31.05233333333334</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>30.7</v>
+        <v>31.45</v>
       </c>
       <c r="C87" t="n">
-        <v>30.06</v>
+        <v>31.45</v>
       </c>
       <c r="D87" t="n">
-        <v>30.7</v>
+        <v>31.45</v>
       </c>
       <c r="E87" t="n">
-        <v>30.06</v>
+        <v>31.45</v>
       </c>
       <c r="F87" t="n">
-        <v>144318.0488</v>
+        <v>3471.0137</v>
       </c>
       <c r="G87" t="n">
-        <v>30.82133333333333</v>
+        <v>2281151.79047357</v>
       </c>
       <c r="H87" t="n">
-        <v>31.03666666666668</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>30.06</v>
+        <v>31.3</v>
       </c>
       <c r="C88" t="n">
-        <v>30.1</v>
+        <v>31.3</v>
       </c>
       <c r="D88" t="n">
-        <v>30.2</v>
+        <v>31.3</v>
       </c>
       <c r="E88" t="n">
-        <v>30.01</v>
+        <v>31.3</v>
       </c>
       <c r="F88" t="n">
-        <v>205281.3412</v>
+        <v>2692.8823</v>
       </c>
       <c r="G88" t="n">
-        <v>30.74333333333333</v>
+        <v>2278458.908173569</v>
       </c>
       <c r="H88" t="n">
-        <v>31.02416666666668</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>30.04</v>
+        <v>31.18</v>
       </c>
       <c r="C89" t="n">
-        <v>29.98</v>
+        <v>31.18</v>
       </c>
       <c r="D89" t="n">
-        <v>30.04</v>
+        <v>31.18</v>
       </c>
       <c r="E89" t="n">
-        <v>29.98</v>
+        <v>31.18</v>
       </c>
       <c r="F89" t="n">
-        <v>150395.61</v>
+        <v>34793.8293</v>
       </c>
       <c r="G89" t="n">
-        <v>30.65866666666667</v>
+        <v>2243665.07887357</v>
       </c>
       <c r="H89" t="n">
-        <v>31.00966666666668</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>30.2</v>
+        <v>31.1</v>
       </c>
       <c r="C90" t="n">
-        <v>30.2</v>
+        <v>31.1</v>
       </c>
       <c r="D90" t="n">
-        <v>30.2</v>
+        <v>31.1</v>
       </c>
       <c r="E90" t="n">
-        <v>30.2</v>
+        <v>31.1</v>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>7655.6397</v>
       </c>
       <c r="G90" t="n">
-        <v>30.59866666666666</v>
+        <v>2236009.439173569</v>
       </c>
       <c r="H90" t="n">
-        <v>30.99633333333334</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30.2</v>
+        <v>31.1</v>
       </c>
       <c r="C91" t="n">
-        <v>30.2</v>
+        <v>30.71</v>
       </c>
       <c r="D91" t="n">
-        <v>30.2</v>
+        <v>31.1</v>
       </c>
       <c r="E91" t="n">
-        <v>30.2</v>
+        <v>30.71</v>
       </c>
       <c r="F91" t="n">
-        <v>1000</v>
+        <v>145814.9758</v>
       </c>
       <c r="G91" t="n">
-        <v>30.598</v>
+        <v>2090194.46337357</v>
       </c>
       <c r="H91" t="n">
-        <v>30.98300000000001</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.07</v>
+        <v>30.71</v>
       </c>
       <c r="C92" t="n">
-        <v>30.05</v>
+        <v>30.3</v>
       </c>
       <c r="D92" t="n">
-        <v>30.07</v>
+        <v>30.71</v>
       </c>
       <c r="E92" t="n">
-        <v>30.05</v>
+        <v>30.3</v>
       </c>
       <c r="F92" t="n">
-        <v>5471.9606</v>
+        <v>313295.2873</v>
       </c>
       <c r="G92" t="n">
-        <v>30.59466666666667</v>
+        <v>1776899.17607357</v>
       </c>
       <c r="H92" t="n">
-        <v>30.96716666666668</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.08</v>
+        <v>30.3</v>
       </c>
       <c r="C93" t="n">
         <v>30.2</v>
       </c>
       <c r="D93" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E93" t="n">
         <v>30.2</v>
       </c>
-      <c r="E93" t="n">
-        <v>30.08</v>
-      </c>
       <c r="F93" t="n">
-        <v>35.8391</v>
+        <v>40884.7369</v>
       </c>
       <c r="G93" t="n">
-        <v>30.5</v>
+        <v>1736014.43917357</v>
       </c>
       <c r="H93" t="n">
-        <v>30.95666666666668</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="C94" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="D94" t="n">
-        <v>30.2</v>
+        <v>30.48</v>
       </c>
       <c r="E94" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="F94" t="n">
-        <v>571.6026000000001</v>
+        <v>23894.7766</v>
       </c>
       <c r="G94" t="n">
-        <v>30.44666666666666</v>
+        <v>1759909.21577357</v>
       </c>
       <c r="H94" t="n">
-        <v>30.94616666666668</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="C95" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="D95" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="E95" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>1400</v>
       </c>
       <c r="G95" t="n">
-        <v>30.42333333333333</v>
+        <v>1761309.21577357</v>
       </c>
       <c r="H95" t="n">
-        <v>30.93616666666668</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="C96" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="D96" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="E96" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="F96" t="n">
-        <v>32894.73684210526</v>
+        <v>200</v>
       </c>
       <c r="G96" t="n">
-        <v>30.39999999999999</v>
+        <v>1761509.21577357</v>
       </c>
       <c r="H96" t="n">
-        <v>30.92150000000002</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>30.5</v>
+        <v>30.86</v>
       </c>
       <c r="C97" t="n">
-        <v>30.5</v>
+        <v>30.86</v>
       </c>
       <c r="D97" t="n">
-        <v>30.5</v>
+        <v>30.86</v>
       </c>
       <c r="E97" t="n">
-        <v>30.5</v>
+        <v>30.86</v>
       </c>
       <c r="F97" t="n">
-        <v>1357.5755</v>
+        <v>19.9309</v>
       </c>
       <c r="G97" t="n">
-        <v>30.38333333333333</v>
+        <v>1761529.14667357</v>
       </c>
       <c r="H97" t="n">
-        <v>30.90850000000002</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30.69</v>
+        <v>30.86</v>
       </c>
       <c r="C98" t="n">
-        <v>30.69</v>
+        <v>31.07</v>
       </c>
       <c r="D98" t="n">
-        <v>30.69</v>
+        <v>31.07</v>
       </c>
       <c r="E98" t="n">
-        <v>30.69</v>
+        <v>30.86</v>
       </c>
       <c r="F98" t="n">
-        <v>19</v>
+        <v>842.8113</v>
       </c>
       <c r="G98" t="n">
-        <v>30.37933333333332</v>
+        <v>1762371.95797357</v>
       </c>
       <c r="H98" t="n">
-        <v>30.89783333333336</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,7 +3828,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>30.49</v>
+        <v>30.5</v>
       </c>
       <c r="C99" t="n">
         <v>30.69</v>
@@ -4133,27 +3837,24 @@
         <v>30.69</v>
       </c>
       <c r="E99" t="n">
-        <v>30.49</v>
+        <v>30.5</v>
       </c>
       <c r="F99" t="n">
-        <v>23789.3595</v>
+        <v>19698.0253</v>
       </c>
       <c r="G99" t="n">
-        <v>30.37533333333333</v>
+        <v>1742673.93267357</v>
       </c>
       <c r="H99" t="n">
-        <v>30.89100000000002</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="C100" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="D100" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="E100" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="F100" t="n">
-        <v>5307.799</v>
+        <v>1600</v>
       </c>
       <c r="G100" t="n">
-        <v>30.36333333333333</v>
+        <v>1741073.93267357</v>
       </c>
       <c r="H100" t="n">
-        <v>30.88433333333336</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30.6</v>
+        <v>30.52</v>
       </c>
       <c r="C101" t="n">
-        <v>30.6</v>
+        <v>31.33</v>
       </c>
       <c r="D101" t="n">
-        <v>30.6</v>
+        <v>31.33</v>
       </c>
       <c r="E101" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="F101" t="n">
-        <v>8210.2986</v>
+        <v>336000</v>
       </c>
       <c r="G101" t="n">
-        <v>30.33799999999999</v>
+        <v>2077073.93267357</v>
       </c>
       <c r="H101" t="n">
-        <v>30.87433333333335</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>30.7</v>
+        <v>31.27</v>
       </c>
       <c r="C102" t="n">
-        <v>30.7</v>
+        <v>31.27</v>
       </c>
       <c r="D102" t="n">
-        <v>30.7</v>
+        <v>31.27</v>
       </c>
       <c r="E102" t="n">
-        <v>30.7</v>
+        <v>31.27</v>
       </c>
       <c r="F102" t="n">
-        <v>7618.389</v>
+        <v>424.2009</v>
       </c>
       <c r="G102" t="n">
-        <v>30.38066666666666</v>
+        <v>2076649.731773569</v>
       </c>
       <c r="H102" t="n">
-        <v>30.86916666666669</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30.6</v>
+        <v>31.1</v>
       </c>
       <c r="C103" t="n">
-        <v>30.6</v>
+        <v>31.25</v>
       </c>
       <c r="D103" t="n">
-        <v>30.6</v>
+        <v>31.25</v>
       </c>
       <c r="E103" t="n">
-        <v>30.6</v>
+        <v>31.1</v>
       </c>
       <c r="F103" t="n">
-        <v>8198.128000000001</v>
+        <v>66480.3236</v>
       </c>
       <c r="G103" t="n">
-        <v>30.41399999999999</v>
+        <v>2010169.408173569</v>
       </c>
       <c r="H103" t="n">
-        <v>30.85933333333335</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>30.6</v>
+        <v>31.1</v>
       </c>
       <c r="C104" t="n">
-        <v>30.6</v>
+        <v>31.1</v>
       </c>
       <c r="D104" t="n">
-        <v>30.6</v>
+        <v>31.1</v>
       </c>
       <c r="E104" t="n">
-        <v>30.6</v>
+        <v>31.1</v>
       </c>
       <c r="F104" t="n">
-        <v>7618.389</v>
+        <v>3436.2912</v>
       </c>
       <c r="G104" t="n">
-        <v>30.45533333333332</v>
+        <v>2006733.116973569</v>
       </c>
       <c r="H104" t="n">
-        <v>30.84350000000002</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>30.72</v>
+        <v>30.85</v>
       </c>
       <c r="C105" t="n">
-        <v>30.72</v>
+        <v>30.21</v>
       </c>
       <c r="D105" t="n">
-        <v>30.72</v>
+        <v>30.85</v>
       </c>
       <c r="E105" t="n">
-        <v>30.72</v>
+        <v>30.21</v>
       </c>
       <c r="F105" t="n">
-        <v>48048.1403</v>
+        <v>133630.7436</v>
       </c>
       <c r="G105" t="n">
-        <v>30.48999999999999</v>
+        <v>1873102.373373569</v>
       </c>
       <c r="H105" t="n">
-        <v>30.82916666666669</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>30.72</v>
+        <v>30.2</v>
       </c>
       <c r="C106" t="n">
-        <v>30.72</v>
+        <v>30.1</v>
       </c>
       <c r="D106" t="n">
-        <v>30.72</v>
+        <v>30.99</v>
       </c>
       <c r="E106" t="n">
-        <v>30.72</v>
+        <v>30.1</v>
       </c>
       <c r="F106" t="n">
-        <v>4337.537</v>
+        <v>369503.2564</v>
       </c>
       <c r="G106" t="n">
-        <v>30.52466666666665</v>
+        <v>1503599.116973569</v>
       </c>
       <c r="H106" t="n">
-        <v>30.81183333333335</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>30.72</v>
+        <v>30.21</v>
       </c>
       <c r="C107" t="n">
-        <v>30.72</v>
+        <v>31.62</v>
       </c>
       <c r="D107" t="n">
-        <v>30.72</v>
+        <v>31.62</v>
       </c>
       <c r="E107" t="n">
-        <v>30.72</v>
+        <v>30.21</v>
       </c>
       <c r="F107" t="n">
-        <v>11037.7246</v>
+        <v>208816.0002</v>
       </c>
       <c r="G107" t="n">
-        <v>30.56933333333332</v>
+        <v>1712415.117173569</v>
       </c>
       <c r="H107" t="n">
-        <v>30.79616666666669</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>30.63</v>
+        <v>31</v>
       </c>
       <c r="C108" t="n">
-        <v>30.61</v>
+        <v>31</v>
       </c>
       <c r="D108" t="n">
-        <v>30.63</v>
+        <v>31</v>
       </c>
       <c r="E108" t="n">
-        <v>30.61</v>
+        <v>31</v>
       </c>
       <c r="F108" t="n">
-        <v>64372.3077</v>
+        <v>15801.354</v>
       </c>
       <c r="G108" t="n">
-        <v>30.59666666666665</v>
+        <v>1696613.763173569</v>
       </c>
       <c r="H108" t="n">
-        <v>30.77866666666668</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>30.72</v>
+        <v>30.75</v>
       </c>
       <c r="C109" t="n">
-        <v>31.06</v>
+        <v>30.75</v>
       </c>
       <c r="D109" t="n">
-        <v>31.06</v>
+        <v>30.75</v>
       </c>
       <c r="E109" t="n">
-        <v>30.72</v>
+        <v>30.75</v>
       </c>
       <c r="F109" t="n">
-        <v>4911.7037</v>
+        <v>1300.813</v>
       </c>
       <c r="G109" t="n">
-        <v>30.65399999999999</v>
+        <v>1695312.950173569</v>
       </c>
       <c r="H109" t="n">
-        <v>30.76866666666668</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>31.05</v>
+        <v>30.75</v>
       </c>
       <c r="C110" t="n">
-        <v>31.05</v>
+        <v>30.75</v>
       </c>
       <c r="D110" t="n">
-        <v>31.05</v>
+        <v>30.75</v>
       </c>
       <c r="E110" t="n">
-        <v>31.05</v>
+        <v>30.75</v>
       </c>
       <c r="F110" t="n">
-        <v>15550</v>
+        <v>2694.3059</v>
       </c>
       <c r="G110" t="n">
-        <v>30.69733333333333</v>
+        <v>1695312.950173569</v>
       </c>
       <c r="H110" t="n">
-        <v>30.76616666666668</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>30.55</v>
+        <v>30.75</v>
       </c>
       <c r="C111" t="n">
-        <v>31</v>
+        <v>30.75</v>
       </c>
       <c r="D111" t="n">
-        <v>31</v>
+        <v>30.75</v>
       </c>
       <c r="E111" t="n">
-        <v>30.2</v>
+        <v>30.75</v>
       </c>
       <c r="F111" t="n">
-        <v>78000</v>
+        <v>13151.9689</v>
       </c>
       <c r="G111" t="n">
-        <v>30.73733333333332</v>
+        <v>1695312.950173569</v>
       </c>
       <c r="H111" t="n">
-        <v>30.76283333333334</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>30.4</v>
+        <v>30.75</v>
       </c>
       <c r="C112" t="n">
-        <v>30.89</v>
+        <v>30.75</v>
       </c>
       <c r="D112" t="n">
-        <v>30.9</v>
+        <v>30.75</v>
       </c>
       <c r="E112" t="n">
-        <v>30.02</v>
+        <v>30.75</v>
       </c>
       <c r="F112" t="n">
-        <v>113886.6497</v>
+        <v>5465.4186</v>
       </c>
       <c r="G112" t="n">
-        <v>30.76333333333332</v>
+        <v>1695312.950173569</v>
       </c>
       <c r="H112" t="n">
-        <v>30.75766666666668</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="C113" t="n">
-        <v>30.4</v>
+        <v>30.75</v>
       </c>
       <c r="D113" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="E113" t="n">
-        <v>30.4</v>
+        <v>30.75</v>
       </c>
       <c r="F113" t="n">
-        <v>3551.3422</v>
+        <v>17622.7691</v>
       </c>
       <c r="G113" t="n">
-        <v>30.74399999999999</v>
+        <v>1695312.950173569</v>
       </c>
       <c r="H113" t="n">
-        <v>30.73683333333334</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4353,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>30.14</v>
+        <v>30.98</v>
       </c>
       <c r="C114" t="n">
-        <v>30.6</v>
+        <v>30.98</v>
       </c>
       <c r="D114" t="n">
-        <v>30.6</v>
+        <v>30.98</v>
       </c>
       <c r="E114" t="n">
-        <v>30.14</v>
+        <v>30.98</v>
       </c>
       <c r="F114" t="n">
-        <v>19888</v>
+        <v>378.8047</v>
       </c>
       <c r="G114" t="n">
-        <v>30.73799999999999</v>
+        <v>1695691.754873569</v>
       </c>
       <c r="H114" t="n">
-        <v>30.72500000000001</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>30.6</v>
+        <v>30.98</v>
       </c>
       <c r="C115" t="n">
-        <v>30.6</v>
+        <v>30.98</v>
       </c>
       <c r="D115" t="n">
-        <v>30.6</v>
+        <v>30.98</v>
       </c>
       <c r="E115" t="n">
-        <v>30.6</v>
+        <v>30.98</v>
       </c>
       <c r="F115" t="n">
-        <v>11976.2147</v>
+        <v>379.7816</v>
       </c>
       <c r="G115" t="n">
-        <v>30.72466666666666</v>
+        <v>1695691.754873569</v>
       </c>
       <c r="H115" t="n">
-        <v>30.71083333333334</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,40 +4423,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="C116" t="n">
-        <v>30.5</v>
+        <v>30.06</v>
       </c>
       <c r="D116" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="E116" t="n">
-        <v>30.5</v>
+        <v>30.06</v>
       </c>
       <c r="F116" t="n">
-        <v>2547.7162</v>
+        <v>144318.0488</v>
       </c>
       <c r="G116" t="n">
-        <v>30.71799999999999</v>
+        <v>1551373.706073569</v>
       </c>
       <c r="H116" t="n">
-        <v>30.69483333333334</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="L116" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4812,1640 +4458,2664 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="C117" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>30.01</v>
+      </c>
+      <c r="F117" t="n">
+        <v>205281.3412</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1756655.047273569</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="C118" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="D118" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="E118" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="F118" t="n">
+        <v>150395.61</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1606259.437273569</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1606279.437273569</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1606279.437273569</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="D121" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="E121" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5471.9606</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1600807.476673569</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="C122" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="F122" t="n">
+        <v>35.8391</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1600843.315773569</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>571.6026000000001</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1600843.315773569</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
         <v>30.4</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C124" t="n">
         <v>30.4</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D124" t="n">
         <v>30.4</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E124" t="n">
         <v>30.4</v>
       </c>
-      <c r="F117" t="n">
-        <v>2547</v>
-      </c>
-      <c r="G117" t="n">
-        <v>30.69799999999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>30.67983333333335</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L117" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M117" t="inlineStr">
+      <c r="F124" t="n">
+        <v>20</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1600863.315773569</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K124" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>32894.73684210526</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1600863.315773569</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K125" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>30.22</v>
-      </c>
-      <c r="C118" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="D118" t="n">
-        <v>30.22</v>
-      </c>
-      <c r="E118" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="F118" t="n">
-        <v>29012.8156</v>
-      </c>
-      <c r="G118" t="n">
-        <v>30.66733333333332</v>
-      </c>
-      <c r="H118" t="n">
-        <v>30.65800000000001</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1357.5755</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1602220.891273569</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
         <v>30.4</v>
       </c>
-      <c r="L118" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M118" t="inlineStr">
+      <c r="K126" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="C127" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="D127" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="E127" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="F127" t="n">
+        <v>19</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1602239.891273569</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K127" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="C128" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="D128" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="E128" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="F128" t="n">
+        <v>23789.3595</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1602239.891273569</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="K128" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C119" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D119" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E119" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F119" t="n">
-        <v>231.7162</v>
-      </c>
-      <c r="G119" t="n">
-        <v>30.65399999999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>30.64300000000001</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="L119" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M119" t="inlineStr">
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5307.799</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1607547.690273569</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C120" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D120" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E120" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F120" t="n">
-        <v>4670.913</v>
-      </c>
-      <c r="G120" t="n">
-        <v>30.63266666666665</v>
-      </c>
-      <c r="H120" t="n">
-        <v>30.63000000000001</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
         <v>30.6</v>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="C130" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8210.2986</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1599337.391673569</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C121" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D121" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E121" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F121" t="n">
-        <v>6713.709</v>
-      </c>
-      <c r="G121" t="n">
-        <v>30.61133333333332</v>
-      </c>
-      <c r="H121" t="n">
-        <v>30.61833333333335</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="L121" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M121" t="inlineStr">
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7618.389</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1606955.780673569</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C122" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D122" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E122" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F122" t="n">
-        <v>11870.0868</v>
-      </c>
-      <c r="G122" t="n">
-        <v>30.60999999999998</v>
-      </c>
-      <c r="H122" t="n">
-        <v>30.61816666666668</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="L122" t="n">
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>30.6</v>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="C132" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8198.128000000001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1598757.652673569</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="C123" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="D123" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="E123" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="F123" t="n">
-        <v>12903.0245</v>
-      </c>
-      <c r="G123" t="n">
-        <v>30.60999999999998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>30.62333333333335</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L123" t="n">
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>30.6</v>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="C133" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7618.389</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1598757.652673569</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="C124" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="D124" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="E124" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1181.1345</v>
-      </c>
-      <c r="G124" t="n">
-        <v>30.59199999999998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>30.63316666666668</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M124" t="inlineStr">
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="C134" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="D134" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="E134" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="F134" t="n">
+        <v>48048.1403</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1646805.792973569</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="C125" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="D125" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="E125" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="F125" t="n">
-        <v>12033.2785</v>
-      </c>
-      <c r="G125" t="n">
-        <v>30.56266666666665</v>
-      </c>
-      <c r="H125" t="n">
-        <v>30.63666666666668</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M125" t="inlineStr">
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="C135" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="D135" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="E135" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4337.537</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1646805.792973569</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="C126" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="D126" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="E126" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="F126" t="n">
-        <v>8459.2413</v>
-      </c>
-      <c r="G126" t="n">
-        <v>30.53666666666665</v>
-      </c>
-      <c r="H126" t="n">
-        <v>30.63850000000001</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M126" t="inlineStr">
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="C136" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="D136" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="E136" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="F136" t="n">
+        <v>11037.7246</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1646805.792973569</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="C137" t="n">
         <v>30.61</v>
       </c>
-      <c r="C127" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D127" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E127" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F127" t="n">
-        <v>126000</v>
-      </c>
-      <c r="G127" t="n">
-        <v>30.53066666666665</v>
-      </c>
-      <c r="H127" t="n">
-        <v>30.64016666666668</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M127" t="inlineStr">
+      <c r="D137" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="E137" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="F137" t="n">
+        <v>64372.3077</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1582433.485273569</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="C128" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="D128" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="E128" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="F128" t="n">
-        <v>6465152.9402</v>
-      </c>
-      <c r="G128" t="n">
-        <v>30.57266666666665</v>
-      </c>
-      <c r="H128" t="n">
-        <v>30.64300000000001</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M128" t="inlineStr">
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="C138" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="D138" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="E138" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4911.7037</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1587345.188973569</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="C129" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="E129" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F129" t="n">
-        <v>4628041.992</v>
-      </c>
-      <c r="G129" t="n">
-        <v>30.57933333333332</v>
-      </c>
-      <c r="H129" t="n">
-        <v>30.63683333333335</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M129" t="inlineStr">
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="C139" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="D139" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="E139" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="F139" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1571795.188973569</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E130" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>5888365.3185</v>
-      </c>
-      <c r="G130" t="n">
-        <v>30.58599999999998</v>
-      </c>
-      <c r="H130" t="n">
-        <v>30.63700000000001</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M130" t="inlineStr">
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="C140" t="n">
+        <v>31</v>
+      </c>
+      <c r="D140" t="n">
+        <v>31</v>
+      </c>
+      <c r="E140" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>78000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1493795.188973569</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C141" t="n">
         <v>30.89</v>
       </c>
-      <c r="C131" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="D131" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="E131" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="F131" t="n">
-        <v>22258.1566</v>
-      </c>
-      <c r="G131" t="n">
-        <v>30.61199999999998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>30.64350000000001</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M131" t="inlineStr">
+      <c r="D141" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="F141" t="n">
+        <v>113886.6497</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1379908.539273569</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D132" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E132" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3238.9963</v>
-      </c>
-      <c r="G132" t="n">
-        <v>30.64533333333332</v>
-      </c>
-      <c r="H132" t="n">
-        <v>30.63633333333335</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M132" t="inlineStr">
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3551.3422</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1376357.197073569</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C133" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D133" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E133" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F133" t="n">
-        <v>6525.6107</v>
-      </c>
-      <c r="G133" t="n">
-        <v>30.68266666666665</v>
-      </c>
-      <c r="H133" t="n">
-        <v>30.62683333333335</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="C143" t="n">
         <v>30.6</v>
       </c>
-      <c r="M133" t="inlineStr">
+      <c r="D143" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="F143" t="n">
+        <v>19888</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1396245.197073569</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C134" t="n">
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
         <v>30.6</v>
       </c>
-      <c r="D134" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E134" t="n">
+      <c r="C144" t="n">
         <v>30.6</v>
       </c>
-      <c r="F134" t="n">
-        <v>16001.6564</v>
-      </c>
-      <c r="G134" t="n">
-        <v>30.69599999999998</v>
-      </c>
-      <c r="H134" t="n">
-        <v>30.61600000000002</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
+      <c r="D144" t="n">
         <v>30.6</v>
       </c>
-      <c r="M134" t="inlineStr">
+      <c r="E144" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F144" t="n">
+        <v>11976.2147</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1396245.197073569</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C135" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D135" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E135" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F135" t="n">
-        <v>38382.698</v>
-      </c>
-      <c r="G135" t="n">
-        <v>30.70266666666665</v>
-      </c>
-      <c r="H135" t="n">
-        <v>30.60600000000002</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M135" t="inlineStr">
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2547.7162</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1393697.480873569</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="C136" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D136" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="E136" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F136" t="n">
-        <v>15168.5257</v>
-      </c>
-      <c r="G136" t="n">
-        <v>30.72933333333332</v>
-      </c>
-      <c r="H136" t="n">
-        <v>30.61583333333335</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M136" t="inlineStr">
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D146" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2547</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1391150.480873569</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C137" t="n">
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
         <v>30.22</v>
       </c>
-      <c r="D137" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E137" t="n">
+      <c r="C147" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="D147" t="n">
         <v>30.22</v>
       </c>
-      <c r="F137" t="n">
-        <v>180851.7532</v>
-      </c>
-      <c r="G137" t="n">
-        <v>30.69733333333333</v>
-      </c>
-      <c r="H137" t="n">
-        <v>30.61783333333335</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M137" t="inlineStr">
+      <c r="E147" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="F147" t="n">
+        <v>29012.8156</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1362137.665273569</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>30.22</v>
-      </c>
-      <c r="C138" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="D138" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="E138" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="F138" t="n">
-        <v>268743.2708</v>
-      </c>
-      <c r="G138" t="n">
-        <v>30.69599999999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>30.60066666666669</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M138" t="inlineStr">
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C148" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D148" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E148" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F148" t="n">
+        <v>231.7162</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1362369.381473569</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="C139" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="F139" t="n">
-        <v>128295.2926</v>
-      </c>
-      <c r="G139" t="n">
-        <v>30.69666666666665</v>
-      </c>
-      <c r="H139" t="n">
-        <v>30.59733333333335</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M139" t="inlineStr">
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D149" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4670.913</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1362369.381473569</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E140" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>20913.9829</v>
-      </c>
-      <c r="G140" t="n">
-        <v>30.70933333333332</v>
-      </c>
-      <c r="H140" t="n">
-        <v>30.59816666666668</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M140" t="inlineStr">
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6713.709</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1362369.381473569</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C141" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="D141" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E141" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="F141" t="n">
-        <v>48878.8876</v>
-      </c>
-      <c r="G141" t="n">
-        <v>30.70799999999998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>30.59550000000002</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M141" t="inlineStr">
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C151" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11870.0868</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1374239.468273569</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="C142" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="D142" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="E142" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="F142" t="n">
-        <v>27468.7701</v>
-      </c>
-      <c r="G142" t="n">
-        <v>30.69399999999998</v>
-      </c>
-      <c r="H142" t="n">
-        <v>30.59283333333335</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M142" t="inlineStr">
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="C152" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="D152" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="E152" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12903.0245</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1361336.443773569</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2631.818181818182</v>
-      </c>
-      <c r="G143" t="n">
-        <v>30.67866666666665</v>
-      </c>
-      <c r="H143" t="n">
-        <v>30.59366666666668</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M143" t="inlineStr">
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="C153" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="D153" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="E153" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1181.1345</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1362517.578273569</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D144" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G144" t="n">
-        <v>30.68533333333331</v>
-      </c>
-      <c r="H144" t="n">
-        <v>30.59450000000001</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M144" t="inlineStr">
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="C154" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="D154" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="E154" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12033.2785</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1350484.299773569</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C145" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>5387.1646</v>
-      </c>
-      <c r="G145" t="n">
-        <v>30.67199999999998</v>
-      </c>
-      <c r="H145" t="n">
-        <v>30.58650000000001</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M145" t="inlineStr">
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="C155" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="D155" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="E155" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8459.2413</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1350484.299773569</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C146" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D146" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E146" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F146" t="n">
-        <v>28008.69281045752</v>
-      </c>
-      <c r="G146" t="n">
-        <v>30.65266666666665</v>
-      </c>
-      <c r="H146" t="n">
-        <v>30.58016666666668</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M146" t="inlineStr">
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="C156" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>126000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1476484.299773569</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C147" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D147" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E147" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2027.346189542484</v>
-      </c>
-      <c r="G147" t="n">
-        <v>30.63266666666665</v>
-      </c>
-      <c r="H147" t="n">
-        <v>30.58916666666668</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M147" t="inlineStr">
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="C157" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="D157" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="E157" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6465152.9402</v>
+      </c>
+      <c r="G157" t="n">
+        <v>7941637.239973568</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C148" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D148" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E148" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F148" t="n">
-        <v>350</v>
-      </c>
-      <c r="G148" t="n">
-        <v>30.62599999999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>30.59750000000001</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M148" t="inlineStr">
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="C158" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="E158" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4628041.992</v>
+      </c>
+      <c r="G158" t="n">
+        <v>3313595.247973569</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D149" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>25296.56171818182</v>
-      </c>
-      <c r="G149" t="n">
-        <v>30.63933333333332</v>
-      </c>
-      <c r="H149" t="n">
-        <v>30.61116666666668</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M149" t="inlineStr">
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D159" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5888365.3185</v>
+      </c>
+      <c r="G159" t="n">
+        <v>3313595.247973569</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="C150" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="D150" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="E150" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2693.0172</v>
-      </c>
-      <c r="G150" t="n">
-        <v>30.66333333333332</v>
-      </c>
-      <c r="H150" t="n">
-        <v>30.62216666666667</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M150" t="inlineStr">
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="C160" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="D160" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="E160" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="F160" t="n">
+        <v>22258.1566</v>
+      </c>
+      <c r="G160" t="n">
+        <v>3335853.404573569</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C151" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>134.4078</v>
-      </c>
-      <c r="G151" t="n">
-        <v>30.65666666666666</v>
-      </c>
-      <c r="H151" t="n">
-        <v>30.6305</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M151" t="inlineStr">
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3238.9963</v>
+      </c>
+      <c r="G161" t="n">
+        <v>3339092.400873569</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C152" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D152" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E152" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F152" t="n">
-        <v>45028.7461</v>
-      </c>
-      <c r="G152" t="n">
-        <v>30.682</v>
-      </c>
-      <c r="H152" t="n">
-        <v>30.63966666666667</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M152" t="inlineStr">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C162" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D162" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6525.6107</v>
+      </c>
+      <c r="G162" t="n">
+        <v>3332566.790173569</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C163" t="n">
         <v>30.6</v>
       </c>
-      <c r="C153" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D153" t="n">
+      <c r="D163" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E163" t="n">
         <v>30.6</v>
       </c>
-      <c r="E153" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F153" t="n">
-        <v>48361.6809</v>
-      </c>
-      <c r="G153" t="n">
-        <v>30.66933333333333</v>
-      </c>
-      <c r="H153" t="n">
-        <v>30.64300000000001</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="M153" t="inlineStr">
+      <c r="F163" t="n">
+        <v>16001.6564</v>
+      </c>
+      <c r="G163" t="n">
+        <v>3316565.133773569</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N153" t="n">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>38382.698</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3278182.435773569</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="C165" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="E165" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>15168.5257</v>
+      </c>
+      <c r="G165" t="n">
+        <v>3293350.961473569</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="D166" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="F166" t="n">
+        <v>180851.7532</v>
+      </c>
+      <c r="G166" t="n">
+        <v>3112499.208273569</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="C167" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="D167" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="E167" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="F167" t="n">
+        <v>268743.2708</v>
+      </c>
+      <c r="G167" t="n">
+        <v>3381242.479073569</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="C168" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D168" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E168" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="F168" t="n">
+        <v>128295.2926</v>
+      </c>
+      <c r="G168" t="n">
+        <v>3509537.771673569</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>20913.9829</v>
+      </c>
+      <c r="G169" t="n">
+        <v>3509537.771673569</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C170" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="D170" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E170" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="F170" t="n">
+        <v>48878.8876</v>
+      </c>
+      <c r="G170" t="n">
+        <v>3460658.884073569</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="C171" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="D171" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="E171" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="F171" t="n">
+        <v>27468.7701</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3460658.884073569</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2631.818181818182</v>
+      </c>
+      <c r="G172" t="n">
+        <v>3463290.702255387</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C173" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D173" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>3463290.702255387</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C174" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>5387.1646</v>
+      </c>
+      <c r="G174" t="n">
+        <v>3457903.537655387</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C175" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E175" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>28008.69281045752</v>
+      </c>
+      <c r="G175" t="n">
+        <v>3485912.230465845</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2027.346189542484</v>
+      </c>
+      <c r="G176" t="n">
+        <v>3485912.230465845</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C177" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E177" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F177" t="n">
+        <v>350</v>
+      </c>
+      <c r="G177" t="n">
+        <v>3485912.230465845</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>25296.56171818182</v>
+      </c>
+      <c r="G178" t="n">
+        <v>3511208.792184026</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="C179" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="D179" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="E179" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2693.0172</v>
+      </c>
+      <c r="G179" t="n">
+        <v>3513901.809384027</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>134.4078</v>
+      </c>
+      <c r="G180" t="n">
+        <v>3513767.401584026</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C181" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F181" t="n">
+        <v>45028.7461</v>
+      </c>
+      <c r="G181" t="n">
+        <v>3468738.655484026</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C182" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D182" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F182" t="n">
+        <v>48361.6809</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3420376.974584026</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest FCT.xlsx
+++ b/BackTest/2020-01-22 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30.57</v>
+        <v>31.1</v>
       </c>
       <c r="C2" t="n">
-        <v>30.57</v>
+        <v>31.1</v>
       </c>
       <c r="D2" t="n">
-        <v>30.57</v>
+        <v>31.1</v>
       </c>
       <c r="E2" t="n">
-        <v>30.54</v>
+        <v>31.1</v>
       </c>
       <c r="F2" t="n">
-        <v>36416.6972</v>
+        <v>8544.112499999999</v>
       </c>
       <c r="G2" t="n">
-        <v>7813802.08724793</v>
+        <v>7816505.03347357</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.57</v>
+        <v>31.1</v>
       </c>
       <c r="C3" t="n">
-        <v>30.54</v>
+        <v>31.1</v>
       </c>
       <c r="D3" t="n">
-        <v>30.57</v>
+        <v>31.1</v>
       </c>
       <c r="E3" t="n">
-        <v>30.54</v>
+        <v>31.1</v>
       </c>
       <c r="F3" t="n">
-        <v>49795.1568</v>
+        <v>1272.8527</v>
       </c>
       <c r="G3" t="n">
-        <v>7764006.93044793</v>
+        <v>7816505.03347357</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.54</v>
+        <v>31.1</v>
       </c>
       <c r="C4" t="n">
-        <v>30.54</v>
+        <v>31.1</v>
       </c>
       <c r="D4" t="n">
-        <v>30.54</v>
+        <v>31.1</v>
       </c>
       <c r="E4" t="n">
-        <v>30.54</v>
+        <v>31.1</v>
       </c>
       <c r="F4" t="n">
-        <v>108707.9005</v>
+        <v>16646.7336</v>
       </c>
       <c r="G4" t="n">
-        <v>7764006.93044793</v>
+        <v>7816505.03347357</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.8</v>
+        <v>31.25</v>
       </c>
       <c r="C5" t="n">
-        <v>30.8</v>
+        <v>31.25</v>
       </c>
       <c r="D5" t="n">
-        <v>30.8</v>
+        <v>31.25</v>
       </c>
       <c r="E5" t="n">
-        <v>30.8</v>
+        <v>31.25</v>
       </c>
       <c r="F5" t="n">
-        <v>16.4954</v>
+        <v>15130.528</v>
       </c>
       <c r="G5" t="n">
-        <v>7764023.425847931</v>
+        <v>7831635.56147357</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30.65</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>30.65</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>30.65</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>30.65</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>92.3459</v>
+        <v>15155.5475</v>
       </c>
       <c r="G6" t="n">
-        <v>7763931.079947931</v>
+        <v>7816480.013973569</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30.66</v>
+        <v>30.89</v>
       </c>
       <c r="C7" t="n">
-        <v>31.5</v>
+        <v>30.89</v>
       </c>
       <c r="D7" t="n">
-        <v>31.5</v>
+        <v>30.89</v>
       </c>
       <c r="E7" t="n">
-        <v>30.66</v>
+        <v>30.89</v>
       </c>
       <c r="F7" t="n">
-        <v>60994.46726015873</v>
+        <v>12622.2839</v>
       </c>
       <c r="G7" t="n">
-        <v>7824925.547208089</v>
+        <v>7803857.730073569</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.8</v>
+        <v>30.87</v>
       </c>
       <c r="C8" t="n">
-        <v>31.1</v>
+        <v>30.87</v>
       </c>
       <c r="D8" t="n">
-        <v>31.1</v>
+        <v>30.87</v>
       </c>
       <c r="E8" t="n">
-        <v>30.8</v>
+        <v>30.87</v>
       </c>
       <c r="F8" t="n">
-        <v>6374.0237</v>
+        <v>11177.9416</v>
       </c>
       <c r="G8" t="n">
-        <v>7818551.52350809</v>
+        <v>7792679.78847357</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31.29</v>
+        <v>30.85</v>
       </c>
       <c r="C9" t="n">
-        <v>31.4</v>
+        <v>30.85</v>
       </c>
       <c r="D9" t="n">
-        <v>31.4</v>
+        <v>30.85</v>
       </c>
       <c r="E9" t="n">
-        <v>31.29</v>
+        <v>30.85</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>6121.0062</v>
       </c>
       <c r="G9" t="n">
-        <v>7819551.52350809</v>
+        <v>7786558.78227357</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4</v>
+        <v>30.87</v>
       </c>
       <c r="C10" t="n">
-        <v>31.4</v>
+        <v>30.87</v>
       </c>
       <c r="D10" t="n">
-        <v>31.4</v>
+        <v>30.87</v>
       </c>
       <c r="E10" t="n">
-        <v>31.4</v>
+        <v>30.87</v>
       </c>
       <c r="F10" t="n">
-        <v>20326.8156</v>
+        <v>67917.2534</v>
       </c>
       <c r="G10" t="n">
-        <v>7819551.52350809</v>
+        <v>7854476.03567357</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31.4</v>
+        <v>30.88</v>
       </c>
       <c r="C11" t="n">
-        <v>31.4</v>
+        <v>30.87</v>
       </c>
       <c r="D11" t="n">
-        <v>31.4</v>
+        <v>30.88</v>
       </c>
       <c r="E11" t="n">
-        <v>31.4</v>
+        <v>30.87</v>
       </c>
       <c r="F11" t="n">
-        <v>17941.2934</v>
+        <v>36668.8097</v>
       </c>
       <c r="G11" t="n">
-        <v>7819551.52350809</v>
+        <v>7854476.03567357</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31</v>
+        <v>30.87</v>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>30.87</v>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>30.87</v>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>30.87</v>
       </c>
       <c r="F12" t="n">
-        <v>462.6675</v>
+        <v>3045.2417</v>
       </c>
       <c r="G12" t="n">
-        <v>7819088.856008089</v>
+        <v>7854476.03567357</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
         <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>59325.9378</v>
+        <v>16844.4525</v>
       </c>
       <c r="G13" t="n">
-        <v>7878414.79380809</v>
+        <v>7871320.48817357</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
-        <v>21436.8352</v>
+        <v>25151.9639</v>
       </c>
       <c r="G14" t="n">
-        <v>7856977.95860809</v>
+        <v>7871320.48817357</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>31.1</v>
+        <v>30.85</v>
       </c>
       <c r="C15" t="n">
-        <v>31.1</v>
+        <v>30.85</v>
       </c>
       <c r="D15" t="n">
-        <v>31.1</v>
+        <v>30.85</v>
       </c>
       <c r="E15" t="n">
-        <v>31.1</v>
+        <v>30.85</v>
       </c>
       <c r="F15" t="n">
-        <v>2650.4482</v>
+        <v>2814.3296</v>
       </c>
       <c r="G15" t="n">
-        <v>7859628.40680809</v>
+        <v>7868506.15857357</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30.9</v>
+        <v>30.85</v>
       </c>
       <c r="C16" t="n">
-        <v>30.9</v>
+        <v>30.85</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9</v>
+        <v>30.85</v>
       </c>
       <c r="E16" t="n">
-        <v>30.9</v>
+        <v>30.85</v>
       </c>
       <c r="F16" t="n">
-        <v>4871.8126</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>7854756.594208091</v>
+        <v>7868506.15857357</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="D17" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>20000</v>
+        <v>39.0793</v>
       </c>
       <c r="G17" t="n">
-        <v>7854756.594208091</v>
+        <v>7868545.23787357</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30.82</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>30.82</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>30.82</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
-        <v>30.82</v>
+        <v>31</v>
       </c>
       <c r="F18" t="n">
-        <v>6570.8625</v>
+        <v>3211.9584</v>
       </c>
       <c r="G18" t="n">
-        <v>7848185.731708091</v>
+        <v>7868545.23787357</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="C19" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>8661.4521</v>
+        <v>75.6138</v>
       </c>
       <c r="G19" t="n">
-        <v>7856847.183808091</v>
+        <v>7868545.23787357</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1066,19 +1089,19 @@
         <v>30.85</v>
       </c>
       <c r="C20" t="n">
-        <v>30.85</v>
+        <v>30.83</v>
       </c>
       <c r="D20" t="n">
         <v>30.85</v>
       </c>
       <c r="E20" t="n">
-        <v>30.85</v>
+        <v>30.83</v>
       </c>
       <c r="F20" t="n">
-        <v>7505.5857</v>
+        <v>23019.5941</v>
       </c>
       <c r="G20" t="n">
-        <v>7856847.183808091</v>
+        <v>7845525.64377357</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30.85</v>
+        <v>30.83</v>
       </c>
       <c r="C21" t="n">
-        <v>30.85</v>
+        <v>30.83</v>
       </c>
       <c r="D21" t="n">
-        <v>30.85</v>
+        <v>30.83</v>
       </c>
       <c r="E21" t="n">
-        <v>30.85</v>
+        <v>30.83</v>
       </c>
       <c r="F21" t="n">
-        <v>19136.53160453809</v>
+        <v>158.3281</v>
       </c>
       <c r="G21" t="n">
-        <v>7856847.183808091</v>
+        <v>7845525.64377357</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30.82</v>
+        <v>31</v>
       </c>
       <c r="C22" t="n">
-        <v>30.82</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
-        <v>30.82</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
-        <v>30.82</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
-        <v>15017.8467</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>7841829.337108091</v>
+        <v>7845542.64377357</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>30.85</v>
+        <v>31.28</v>
       </c>
       <c r="D23" t="n">
-        <v>30.85</v>
+        <v>31.28</v>
       </c>
       <c r="E23" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
-        <v>33907.09886547812</v>
+        <v>41465</v>
       </c>
       <c r="G23" t="n">
-        <v>7875736.43597357</v>
+        <v>7887007.64377357</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>30.85</v>
+        <v>31.28</v>
       </c>
       <c r="C24" t="n">
-        <v>30.85</v>
+        <v>31.28</v>
       </c>
       <c r="D24" t="n">
-        <v>30.85</v>
+        <v>31.28</v>
       </c>
       <c r="E24" t="n">
-        <v>30.85</v>
+        <v>31.28</v>
       </c>
       <c r="F24" t="n">
-        <v>34430.8935</v>
+        <v>1047</v>
       </c>
       <c r="G24" t="n">
-        <v>7875736.43597357</v>
+        <v>7887007.64377357</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>30.85</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>30.85</v>
+        <v>31.33</v>
       </c>
       <c r="D25" t="n">
-        <v>30.85</v>
+        <v>31.33</v>
       </c>
       <c r="E25" t="n">
-        <v>30.85</v>
+        <v>30.9</v>
       </c>
       <c r="F25" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="G25" t="n">
-        <v>7875736.43597357</v>
+        <v>7905007.64377357</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>30.85</v>
+        <v>31.05</v>
       </c>
       <c r="C26" t="n">
-        <v>30.85</v>
+        <v>31.1</v>
       </c>
       <c r="D26" t="n">
-        <v>30.85</v>
+        <v>31.1</v>
       </c>
       <c r="E26" t="n">
-        <v>30.85</v>
+        <v>31.05</v>
       </c>
       <c r="F26" t="n">
-        <v>90120.1384299838</v>
+        <v>8695184.0241</v>
       </c>
       <c r="G26" t="n">
-        <v>7875736.43597357</v>
+        <v>-790176.3803264303</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="C27" t="n">
-        <v>30.7</v>
+        <v>31.2</v>
       </c>
       <c r="D27" t="n">
-        <v>30.7</v>
+        <v>31.2</v>
       </c>
       <c r="E27" t="n">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="F27" t="n">
-        <v>840.3398</v>
+        <v>2707304.0388</v>
       </c>
       <c r="G27" t="n">
-        <v>7874896.09617357</v>
+        <v>1917127.65847357</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>30.76</v>
+        <v>31.2</v>
       </c>
       <c r="C28" t="n">
-        <v>30.72</v>
+        <v>31.2</v>
       </c>
       <c r="D28" t="n">
-        <v>30.76</v>
+        <v>31.2</v>
       </c>
       <c r="E28" t="n">
-        <v>30.72</v>
+        <v>31.2</v>
       </c>
       <c r="F28" t="n">
-        <v>132459.8295</v>
+        <v>30036.5781</v>
       </c>
       <c r="G28" t="n">
-        <v>8007355.92567357</v>
+        <v>1917127.65847357</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30.72</v>
+        <v>31.01</v>
       </c>
       <c r="C29" t="n">
-        <v>30.71</v>
+        <v>31.01</v>
       </c>
       <c r="D29" t="n">
-        <v>30.72</v>
+        <v>31.01</v>
       </c>
       <c r="E29" t="n">
-        <v>30.71</v>
+        <v>31.01</v>
       </c>
       <c r="F29" t="n">
-        <v>49833.9457</v>
+        <v>1999.3579</v>
       </c>
       <c r="G29" t="n">
-        <v>7957521.97997357</v>
+        <v>1915128.30057357</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>30.71</v>
+        <v>31.19</v>
       </c>
       <c r="C30" t="n">
-        <v>30.7</v>
+        <v>31.19</v>
       </c>
       <c r="D30" t="n">
-        <v>30.71</v>
+        <v>31.19</v>
       </c>
       <c r="E30" t="n">
-        <v>30.7</v>
+        <v>31.19</v>
       </c>
       <c r="F30" t="n">
-        <v>31816.9609</v>
+        <v>1629.7675</v>
       </c>
       <c r="G30" t="n">
-        <v>7925705.019073569</v>
+        <v>1916758.06807357</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31.07</v>
+        <v>31.01</v>
       </c>
       <c r="C31" t="n">
-        <v>31.07</v>
+        <v>31.55</v>
       </c>
       <c r="D31" t="n">
-        <v>31.07</v>
+        <v>31.55</v>
       </c>
       <c r="E31" t="n">
-        <v>31.07</v>
+        <v>31</v>
       </c>
       <c r="F31" t="n">
-        <v>20.8641</v>
+        <v>90000</v>
       </c>
       <c r="G31" t="n">
-        <v>7925725.883173569</v>
+        <v>2006758.06807357</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>31.07</v>
+        <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>31.07</v>
+        <v>31.58</v>
       </c>
       <c r="D32" t="n">
-        <v>31.07</v>
+        <v>31.58</v>
       </c>
       <c r="E32" t="n">
-        <v>31.07</v>
+        <v>31</v>
       </c>
       <c r="F32" t="n">
-        <v>192.4307</v>
+        <v>36000</v>
       </c>
       <c r="G32" t="n">
-        <v>7925725.883173569</v>
+        <v>2042758.06807357</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30.74</v>
+        <v>31.3</v>
       </c>
       <c r="C33" t="n">
-        <v>30.74</v>
+        <v>31.76</v>
       </c>
       <c r="D33" t="n">
-        <v>30.74</v>
+        <v>31.76</v>
       </c>
       <c r="E33" t="n">
-        <v>30.74</v>
+        <v>31.2</v>
       </c>
       <c r="F33" t="n">
-        <v>6268.3829</v>
+        <v>145912</v>
       </c>
       <c r="G33" t="n">
-        <v>7919457.500273569</v>
+        <v>2188670.06807357</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30.74</v>
+        <v>31.66</v>
       </c>
       <c r="C34" t="n">
-        <v>30.73</v>
+        <v>31.66</v>
       </c>
       <c r="D34" t="n">
-        <v>30.74</v>
+        <v>31.66</v>
       </c>
       <c r="E34" t="n">
-        <v>30.73</v>
+        <v>31.66</v>
       </c>
       <c r="F34" t="n">
-        <v>59417.9724</v>
+        <v>1445.0159</v>
       </c>
       <c r="G34" t="n">
-        <v>7860039.527873569</v>
+        <v>2187225.05217357</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>31.05</v>
+        <v>31.66</v>
       </c>
       <c r="C35" t="n">
-        <v>31.05</v>
+        <v>31.66</v>
       </c>
       <c r="D35" t="n">
-        <v>31.05</v>
+        <v>31.66</v>
       </c>
       <c r="E35" t="n">
-        <v>31.05</v>
+        <v>31.66</v>
       </c>
       <c r="F35" t="n">
-        <v>14980.4214</v>
+        <v>3995.1189</v>
       </c>
       <c r="G35" t="n">
-        <v>7875019.94927357</v>
+        <v>2187225.05217357</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30.75</v>
+        <v>31.66</v>
       </c>
       <c r="C36" t="n">
-        <v>30.75</v>
+        <v>31.66</v>
       </c>
       <c r="D36" t="n">
-        <v>30.75</v>
+        <v>31.66</v>
       </c>
       <c r="E36" t="n">
-        <v>30.75</v>
+        <v>31.66</v>
       </c>
       <c r="F36" t="n">
-        <v>7214.032</v>
+        <v>1579.279848389134</v>
       </c>
       <c r="G36" t="n">
-        <v>7867805.91727357</v>
+        <v>2187225.05217357</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>31.06</v>
+        <v>31.4</v>
       </c>
       <c r="C37" t="n">
-        <v>31.06</v>
+        <v>31.2</v>
       </c>
       <c r="D37" t="n">
-        <v>31.06</v>
+        <v>31.4</v>
       </c>
       <c r="E37" t="n">
-        <v>31.06</v>
+        <v>31.2</v>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>17146.3756</v>
       </c>
       <c r="G37" t="n">
-        <v>7868805.91727357</v>
+        <v>2170078.67657357</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>31.06</v>
+        <v>31.3</v>
       </c>
       <c r="C38" t="n">
-        <v>31.29</v>
+        <v>31.2</v>
       </c>
       <c r="D38" t="n">
-        <v>31.29</v>
+        <v>31.3</v>
       </c>
       <c r="E38" t="n">
-        <v>31.06</v>
+        <v>31.2</v>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>32576.9576</v>
       </c>
       <c r="G38" t="n">
-        <v>7873805.91727357</v>
+        <v>2170078.67657357</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>31.29</v>
+        <v>31.2</v>
       </c>
       <c r="C39" t="n">
-        <v>31.37</v>
+        <v>31.2</v>
       </c>
       <c r="D39" t="n">
-        <v>31.37</v>
+        <v>31.2</v>
       </c>
       <c r="E39" t="n">
-        <v>31.29</v>
+        <v>31.2</v>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>12520.4031</v>
       </c>
       <c r="G39" t="n">
-        <v>7874805.91727357</v>
+        <v>2170078.67657357</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="C40" t="n">
-        <v>30.9</v>
+        <v>31.65</v>
       </c>
       <c r="D40" t="n">
-        <v>30.9</v>
+        <v>31.65</v>
       </c>
       <c r="E40" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="F40" t="n">
-        <v>106273.2916</v>
+        <v>110151.1991</v>
       </c>
       <c r="G40" t="n">
-        <v>7768532.62567357</v>
+        <v>2280229.87567357</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30.9</v>
+        <v>31.31</v>
       </c>
       <c r="C41" t="n">
-        <v>30.9</v>
+        <v>31.31</v>
       </c>
       <c r="D41" t="n">
-        <v>30.9</v>
+        <v>31.31</v>
       </c>
       <c r="E41" t="n">
-        <v>30.9</v>
+        <v>31.31</v>
       </c>
       <c r="F41" t="n">
-        <v>726.7084</v>
+        <v>3000</v>
       </c>
       <c r="G41" t="n">
-        <v>7768532.62567357</v>
+        <v>2277229.87567357</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>31.09</v>
+        <v>31.45</v>
       </c>
       <c r="C42" t="n">
-        <v>31.1</v>
+        <v>31.45</v>
       </c>
       <c r="D42" t="n">
-        <v>31.1</v>
+        <v>31.45</v>
       </c>
       <c r="E42" t="n">
-        <v>31.09</v>
+        <v>31.45</v>
       </c>
       <c r="F42" t="n">
-        <v>47972.4078</v>
+        <v>9181.7057</v>
       </c>
       <c r="G42" t="n">
-        <v>7816505.03347357</v>
+        <v>2286411.58137357</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.1</v>
+        <v>31.46</v>
       </c>
       <c r="C43" t="n">
-        <v>31.1</v>
+        <v>31.46</v>
       </c>
       <c r="D43" t="n">
-        <v>31.1</v>
+        <v>31.46</v>
       </c>
       <c r="E43" t="n">
-        <v>31.1</v>
+        <v>31.46</v>
       </c>
       <c r="F43" t="n">
-        <v>96</v>
+        <v>2466</v>
       </c>
       <c r="G43" t="n">
-        <v>7816505.03347357</v>
+        <v>2288877.58137357</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="C44" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="D44" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="E44" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="F44" t="n">
-        <v>8544.112499999999</v>
+        <v>11196.8046</v>
       </c>
       <c r="G44" t="n">
-        <v>7816505.03347357</v>
+        <v>2277680.77677357</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.1</v>
+        <v>31.45</v>
       </c>
       <c r="C45" t="n">
-        <v>31.1</v>
+        <v>31.45</v>
       </c>
       <c r="D45" t="n">
-        <v>31.1</v>
+        <v>31.45</v>
       </c>
       <c r="E45" t="n">
-        <v>31.1</v>
+        <v>31.45</v>
       </c>
       <c r="F45" t="n">
-        <v>1272.8527</v>
+        <v>3471.0137</v>
       </c>
       <c r="G45" t="n">
-        <v>7816505.03347357</v>
+        <v>2281151.79047357</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="C46" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="D46" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="E46" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="F46" t="n">
-        <v>16646.7336</v>
+        <v>2692.8823</v>
       </c>
       <c r="G46" t="n">
-        <v>7816505.03347357</v>
+        <v>2278458.908173569</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>31.25</v>
+        <v>31.18</v>
       </c>
       <c r="C47" t="n">
-        <v>31.25</v>
+        <v>31.18</v>
       </c>
       <c r="D47" t="n">
-        <v>31.25</v>
+        <v>31.18</v>
       </c>
       <c r="E47" t="n">
-        <v>31.25</v>
+        <v>31.18</v>
       </c>
       <c r="F47" t="n">
-        <v>15130.528</v>
+        <v>34793.8293</v>
       </c>
       <c r="G47" t="n">
-        <v>7831635.56147357</v>
+        <v>2243665.07887357</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="C48" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="D48" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="E48" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="F48" t="n">
-        <v>15155.5475</v>
+        <v>7655.6397</v>
       </c>
       <c r="G48" t="n">
-        <v>7816480.013973569</v>
+        <v>2236009.439173569</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30.89</v>
+        <v>31.1</v>
       </c>
       <c r="C49" t="n">
-        <v>30.89</v>
+        <v>30.71</v>
       </c>
       <c r="D49" t="n">
-        <v>30.89</v>
+        <v>31.1</v>
       </c>
       <c r="E49" t="n">
-        <v>30.89</v>
+        <v>30.71</v>
       </c>
       <c r="F49" t="n">
-        <v>12622.2839</v>
+        <v>145814.9758</v>
       </c>
       <c r="G49" t="n">
-        <v>7803857.730073569</v>
+        <v>2090194.46337357</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30.87</v>
+        <v>30.71</v>
       </c>
       <c r="C50" t="n">
-        <v>30.87</v>
+        <v>30.3</v>
       </c>
       <c r="D50" t="n">
-        <v>30.87</v>
+        <v>30.71</v>
       </c>
       <c r="E50" t="n">
-        <v>30.87</v>
+        <v>30.3</v>
       </c>
       <c r="F50" t="n">
-        <v>11177.9416</v>
+        <v>313295.2873</v>
       </c>
       <c r="G50" t="n">
-        <v>7792679.78847357</v>
+        <v>1776899.17607357</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30.85</v>
+        <v>30.3</v>
       </c>
       <c r="C51" t="n">
-        <v>30.85</v>
+        <v>30.2</v>
       </c>
       <c r="D51" t="n">
-        <v>30.85</v>
+        <v>30.3</v>
       </c>
       <c r="E51" t="n">
-        <v>30.85</v>
+        <v>30.2</v>
       </c>
       <c r="F51" t="n">
-        <v>6121.0062</v>
+        <v>40884.7369</v>
       </c>
       <c r="G51" t="n">
-        <v>7786558.78227357</v>
+        <v>1736014.43917357</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>30.87</v>
+        <v>30.4</v>
       </c>
       <c r="C52" t="n">
-        <v>30.87</v>
+        <v>30.4</v>
       </c>
       <c r="D52" t="n">
-        <v>30.87</v>
+        <v>30.48</v>
       </c>
       <c r="E52" t="n">
-        <v>30.87</v>
+        <v>30.4</v>
       </c>
       <c r="F52" t="n">
-        <v>67917.2534</v>
+        <v>23894.7766</v>
       </c>
       <c r="G52" t="n">
-        <v>7854476.03567357</v>
+        <v>1759909.21577357</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>30.88</v>
+        <v>30.5</v>
       </c>
       <c r="C53" t="n">
-        <v>30.87</v>
+        <v>30.5</v>
       </c>
       <c r="D53" t="n">
-        <v>30.88</v>
+        <v>30.5</v>
       </c>
       <c r="E53" t="n">
-        <v>30.87</v>
+        <v>30.5</v>
       </c>
       <c r="F53" t="n">
-        <v>36668.8097</v>
+        <v>1400</v>
       </c>
       <c r="G53" t="n">
-        <v>7854476.03567357</v>
+        <v>1761309.21577357</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,63 +2303,69 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>30.87</v>
+        <v>30.7</v>
       </c>
       <c r="C54" t="n">
-        <v>30.87</v>
+        <v>30.7</v>
       </c>
       <c r="D54" t="n">
-        <v>30.87</v>
+        <v>30.7</v>
       </c>
       <c r="E54" t="n">
-        <v>30.87</v>
+        <v>30.7</v>
       </c>
       <c r="F54" t="n">
-        <v>3045.2417</v>
+        <v>200</v>
       </c>
       <c r="G54" t="n">
-        <v>7854476.03567357</v>
+        <v>1761509.21577357</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>30.5</v>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>31</v>
+        <v>30.86</v>
       </c>
       <c r="C55" t="n">
-        <v>31</v>
+        <v>30.86</v>
       </c>
       <c r="D55" t="n">
-        <v>31</v>
+        <v>30.86</v>
       </c>
       <c r="E55" t="n">
-        <v>31</v>
+        <v>30.86</v>
       </c>
       <c r="F55" t="n">
-        <v>16844.4525</v>
+        <v>19.9309</v>
       </c>
       <c r="G55" t="n">
-        <v>7871320.48817357</v>
+        <v>1761529.14667357</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,33 +2374,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>31</v>
+        <v>30.86</v>
       </c>
       <c r="C56" t="n">
-        <v>31</v>
+        <v>31.07</v>
       </c>
       <c r="D56" t="n">
-        <v>31</v>
+        <v>31.07</v>
       </c>
       <c r="E56" t="n">
-        <v>31</v>
+        <v>30.86</v>
       </c>
       <c r="F56" t="n">
-        <v>25151.9639</v>
+        <v>842.8113</v>
       </c>
       <c r="G56" t="n">
-        <v>7871320.48817357</v>
+        <v>1762371.95797357</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,33 +2416,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>30.85</v>
+        <v>30.5</v>
       </c>
       <c r="C57" t="n">
-        <v>30.85</v>
+        <v>30.69</v>
       </c>
       <c r="D57" t="n">
-        <v>30.85</v>
+        <v>30.69</v>
       </c>
       <c r="E57" t="n">
-        <v>30.85</v>
+        <v>30.5</v>
       </c>
       <c r="F57" t="n">
-        <v>2814.3296</v>
+        <v>19698.0253</v>
       </c>
       <c r="G57" t="n">
-        <v>7868506.15857357</v>
+        <v>1742673.93267357</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2463,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30.85</v>
+        <v>30.5</v>
       </c>
       <c r="C58" t="n">
-        <v>30.85</v>
+        <v>30.5</v>
       </c>
       <c r="D58" t="n">
-        <v>30.85</v>
+        <v>30.5</v>
       </c>
       <c r="E58" t="n">
-        <v>30.85</v>
+        <v>30.5</v>
       </c>
       <c r="F58" t="n">
-        <v>17</v>
+        <v>1600</v>
       </c>
       <c r="G58" t="n">
-        <v>7868506.15857357</v>
+        <v>1741073.93267357</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2499,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>31</v>
+        <v>30.52</v>
       </c>
       <c r="C59" t="n">
-        <v>31</v>
+        <v>31.33</v>
       </c>
       <c r="D59" t="n">
-        <v>31</v>
+        <v>31.33</v>
       </c>
       <c r="E59" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="F59" t="n">
-        <v>39.0793</v>
+        <v>336000</v>
       </c>
       <c r="G59" t="n">
-        <v>7868545.23787357</v>
+        <v>2077073.93267357</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2535,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>31</v>
+        <v>31.27</v>
       </c>
       <c r="C60" t="n">
-        <v>31</v>
+        <v>31.27</v>
       </c>
       <c r="D60" t="n">
-        <v>31</v>
+        <v>31.27</v>
       </c>
       <c r="E60" t="n">
-        <v>31</v>
+        <v>31.27</v>
       </c>
       <c r="F60" t="n">
-        <v>3211.9584</v>
+        <v>424.2009</v>
       </c>
       <c r="G60" t="n">
-        <v>7868545.23787357</v>
+        <v>2076649.731773569</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,34 +2571,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="C61" t="n">
-        <v>31</v>
+        <v>31.25</v>
       </c>
       <c r="D61" t="n">
-        <v>31</v>
+        <v>31.25</v>
       </c>
       <c r="E61" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="F61" t="n">
-        <v>75.6138</v>
+        <v>66480.3236</v>
       </c>
       <c r="G61" t="n">
-        <v>7868545.23787357</v>
+        <v>2010169.408173569</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2527,34 +2607,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>30.85</v>
+        <v>31.1</v>
       </c>
       <c r="C62" t="n">
-        <v>30.83</v>
+        <v>31.1</v>
       </c>
       <c r="D62" t="n">
-        <v>30.85</v>
+        <v>31.1</v>
       </c>
       <c r="E62" t="n">
-        <v>30.83</v>
+        <v>31.1</v>
       </c>
       <c r="F62" t="n">
-        <v>23019.5941</v>
+        <v>3436.2912</v>
       </c>
       <c r="G62" t="n">
-        <v>7845525.64377357</v>
+        <v>2006733.116973569</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,34 +2643,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>30.83</v>
+        <v>30.85</v>
       </c>
       <c r="C63" t="n">
-        <v>30.83</v>
+        <v>30.21</v>
       </c>
       <c r="D63" t="n">
-        <v>30.83</v>
+        <v>30.85</v>
       </c>
       <c r="E63" t="n">
-        <v>30.83</v>
+        <v>30.21</v>
       </c>
       <c r="F63" t="n">
-        <v>158.3281</v>
+        <v>133630.7436</v>
       </c>
       <c r="G63" t="n">
-        <v>7845525.64377357</v>
+        <v>1873102.373373569</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,34 +2679,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>31</v>
+        <v>30.2</v>
       </c>
       <c r="C64" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="D64" t="n">
-        <v>31</v>
+        <v>30.99</v>
       </c>
       <c r="E64" t="n">
-        <v>31</v>
+        <v>30.1</v>
       </c>
       <c r="F64" t="n">
-        <v>17</v>
+        <v>369503.2564</v>
       </c>
       <c r="G64" t="n">
-        <v>7845542.64377357</v>
+        <v>1503599.116973569</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,34 +2715,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>31</v>
+        <v>30.21</v>
       </c>
       <c r="C65" t="n">
-        <v>31.28</v>
+        <v>31.62</v>
       </c>
       <c r="D65" t="n">
-        <v>31.28</v>
+        <v>31.62</v>
       </c>
       <c r="E65" t="n">
-        <v>31</v>
+        <v>30.21</v>
       </c>
       <c r="F65" t="n">
-        <v>41465</v>
+        <v>208816.0002</v>
       </c>
       <c r="G65" t="n">
-        <v>7887007.64377357</v>
+        <v>1712415.117173569</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,34 +2751,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>31.28</v>
+        <v>31</v>
       </c>
       <c r="C66" t="n">
-        <v>31.28</v>
+        <v>31</v>
       </c>
       <c r="D66" t="n">
-        <v>31.28</v>
+        <v>31</v>
       </c>
       <c r="E66" t="n">
-        <v>31.28</v>
+        <v>31</v>
       </c>
       <c r="F66" t="n">
-        <v>1047</v>
+        <v>15801.354</v>
       </c>
       <c r="G66" t="n">
-        <v>7887007.64377357</v>
+        <v>1696613.763173569</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2702,34 +2787,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>31</v>
+        <v>30.75</v>
       </c>
       <c r="C67" t="n">
-        <v>31.33</v>
+        <v>30.75</v>
       </c>
       <c r="D67" t="n">
-        <v>31.33</v>
+        <v>30.75</v>
       </c>
       <c r="E67" t="n">
-        <v>30.9</v>
+        <v>30.75</v>
       </c>
       <c r="F67" t="n">
-        <v>18000</v>
+        <v>1300.813</v>
       </c>
       <c r="G67" t="n">
-        <v>7905007.64377357</v>
+        <v>1695312.950173569</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,34 +2823,35 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>31.05</v>
+        <v>30.75</v>
       </c>
       <c r="C68" t="n">
-        <v>31.1</v>
+        <v>30.75</v>
       </c>
       <c r="D68" t="n">
-        <v>31.1</v>
+        <v>30.75</v>
       </c>
       <c r="E68" t="n">
-        <v>31.05</v>
+        <v>30.75</v>
       </c>
       <c r="F68" t="n">
-        <v>8695184.0241</v>
+        <v>2694.3059</v>
       </c>
       <c r="G68" t="n">
-        <v>-790176.3803264303</v>
+        <v>1695312.950173569</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2772,34 +2859,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>31.1</v>
+        <v>30.75</v>
       </c>
       <c r="C69" t="n">
-        <v>31.2</v>
+        <v>30.75</v>
       </c>
       <c r="D69" t="n">
-        <v>31.2</v>
+        <v>30.75</v>
       </c>
       <c r="E69" t="n">
-        <v>31.1</v>
+        <v>30.75</v>
       </c>
       <c r="F69" t="n">
-        <v>2707304.0388</v>
+        <v>13151.9689</v>
       </c>
       <c r="G69" t="n">
-        <v>1917127.65847357</v>
+        <v>1695312.950173569</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2807,34 +2895,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>31.2</v>
+        <v>30.75</v>
       </c>
       <c r="C70" t="n">
-        <v>31.2</v>
+        <v>30.75</v>
       </c>
       <c r="D70" t="n">
-        <v>31.2</v>
+        <v>30.75</v>
       </c>
       <c r="E70" t="n">
-        <v>31.2</v>
+        <v>30.75</v>
       </c>
       <c r="F70" t="n">
-        <v>30036.5781</v>
+        <v>5465.4186</v>
       </c>
       <c r="G70" t="n">
-        <v>1917127.65847357</v>
+        <v>1695312.950173569</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2842,28 +2931,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>31.01</v>
+        <v>30.75</v>
       </c>
       <c r="C71" t="n">
-        <v>31.01</v>
+        <v>30.75</v>
       </c>
       <c r="D71" t="n">
-        <v>31.01</v>
+        <v>30.75</v>
       </c>
       <c r="E71" t="n">
-        <v>31.01</v>
+        <v>30.75</v>
       </c>
       <c r="F71" t="n">
-        <v>1999.3579</v>
+        <v>17622.7691</v>
       </c>
       <c r="G71" t="n">
-        <v>1915128.30057357</v>
+        <v>1695312.950173569</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,98 +2967,113 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>31.19</v>
+        <v>30.98</v>
       </c>
       <c r="C72" t="n">
-        <v>31.19</v>
+        <v>30.98</v>
       </c>
       <c r="D72" t="n">
-        <v>31.19</v>
+        <v>30.98</v>
       </c>
       <c r="E72" t="n">
-        <v>31.19</v>
+        <v>30.98</v>
       </c>
       <c r="F72" t="n">
-        <v>1629.7675</v>
+        <v>378.8047</v>
       </c>
       <c r="G72" t="n">
-        <v>1916758.06807357</v>
+        <v>1695691.754873569</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="K72" t="n">
+        <v>30.75</v>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>31.01</v>
+        <v>30.98</v>
       </c>
       <c r="C73" t="n">
-        <v>31.55</v>
+        <v>30.98</v>
       </c>
       <c r="D73" t="n">
-        <v>31.55</v>
+        <v>30.98</v>
       </c>
       <c r="E73" t="n">
-        <v>31</v>
+        <v>30.98</v>
       </c>
       <c r="F73" t="n">
-        <v>90000</v>
+        <v>379.7816</v>
       </c>
       <c r="G73" t="n">
-        <v>2006758.06807357</v>
+        <v>1695691.754873569</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="K73" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="C74" t="n">
-        <v>31.58</v>
+        <v>30.06</v>
       </c>
       <c r="D74" t="n">
-        <v>31.58</v>
+        <v>30.7</v>
       </c>
       <c r="E74" t="n">
-        <v>31</v>
+        <v>30.06</v>
       </c>
       <c r="F74" t="n">
-        <v>36000</v>
+        <v>144318.0488</v>
       </c>
       <c r="G74" t="n">
-        <v>2042758.06807357</v>
+        <v>1551373.706073569</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,33 +3082,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>31.3</v>
+        <v>30.06</v>
       </c>
       <c r="C75" t="n">
-        <v>31.76</v>
+        <v>30.1</v>
       </c>
       <c r="D75" t="n">
-        <v>31.76</v>
+        <v>30.2</v>
       </c>
       <c r="E75" t="n">
-        <v>31.2</v>
+        <v>30.01</v>
       </c>
       <c r="F75" t="n">
-        <v>145912</v>
+        <v>205281.3412</v>
       </c>
       <c r="G75" t="n">
-        <v>2188670.06807357</v>
+        <v>1756655.047273569</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,488 +3124,608 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>31.66</v>
+        <v>30.04</v>
       </c>
       <c r="C76" t="n">
-        <v>31.66</v>
+        <v>29.98</v>
       </c>
       <c r="D76" t="n">
-        <v>31.66</v>
+        <v>30.04</v>
       </c>
       <c r="E76" t="n">
-        <v>31.66</v>
+        <v>29.98</v>
       </c>
       <c r="F76" t="n">
-        <v>1445.0159</v>
+        <v>150395.61</v>
       </c>
       <c r="G76" t="n">
-        <v>2187225.05217357</v>
+        <v>1606259.437273569</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>31.66</v>
+        <v>30.2</v>
       </c>
       <c r="C77" t="n">
-        <v>31.66</v>
+        <v>30.2</v>
       </c>
       <c r="D77" t="n">
-        <v>31.66</v>
+        <v>30.2</v>
       </c>
       <c r="E77" t="n">
-        <v>31.66</v>
+        <v>30.2</v>
       </c>
       <c r="F77" t="n">
-        <v>3995.1189</v>
+        <v>20</v>
       </c>
       <c r="G77" t="n">
-        <v>2187225.05217357</v>
+        <v>1606279.437273569</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>31.66</v>
+        <v>30.2</v>
       </c>
       <c r="C78" t="n">
-        <v>31.66</v>
+        <v>30.2</v>
       </c>
       <c r="D78" t="n">
-        <v>31.66</v>
+        <v>30.2</v>
       </c>
       <c r="E78" t="n">
-        <v>31.66</v>
+        <v>30.2</v>
       </c>
       <c r="F78" t="n">
-        <v>1579.279848389134</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="n">
-        <v>2187225.05217357</v>
+        <v>1606279.437273569</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K78" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>31.4</v>
+        <v>30.07</v>
       </c>
       <c r="C79" t="n">
-        <v>31.2</v>
+        <v>30.05</v>
       </c>
       <c r="D79" t="n">
-        <v>31.4</v>
+        <v>30.07</v>
       </c>
       <c r="E79" t="n">
-        <v>31.2</v>
+        <v>30.05</v>
       </c>
       <c r="F79" t="n">
-        <v>17146.3756</v>
+        <v>5471.9606</v>
       </c>
       <c r="G79" t="n">
-        <v>2170078.67657357</v>
+        <v>1600807.476673569</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>31.3</v>
+        <v>30.08</v>
       </c>
       <c r="C80" t="n">
-        <v>31.2</v>
+        <v>30.2</v>
       </c>
       <c r="D80" t="n">
-        <v>31.3</v>
+        <v>30.2</v>
       </c>
       <c r="E80" t="n">
-        <v>31.2</v>
+        <v>30.08</v>
       </c>
       <c r="F80" t="n">
-        <v>32576.9576</v>
+        <v>35.8391</v>
       </c>
       <c r="G80" t="n">
-        <v>2170078.67657357</v>
+        <v>1600843.315773569</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="K80" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>31.2</v>
+        <v>30.2</v>
       </c>
       <c r="C81" t="n">
-        <v>31.2</v>
+        <v>30.2</v>
       </c>
       <c r="D81" t="n">
-        <v>31.2</v>
+        <v>30.2</v>
       </c>
       <c r="E81" t="n">
-        <v>31.2</v>
+        <v>30.2</v>
       </c>
       <c r="F81" t="n">
-        <v>12520.4031</v>
+        <v>571.6026000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>2170078.67657357</v>
+        <v>1600843.315773569</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="C82" t="n">
-        <v>31.65</v>
+        <v>30.4</v>
       </c>
       <c r="D82" t="n">
-        <v>31.65</v>
+        <v>30.4</v>
       </c>
       <c r="E82" t="n">
-        <v>31.2</v>
+        <v>30.4</v>
       </c>
       <c r="F82" t="n">
-        <v>110151.1991</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
-        <v>2280229.87567357</v>
+        <v>1600863.315773569</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K82" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>31.31</v>
+        <v>30.4</v>
       </c>
       <c r="C83" t="n">
-        <v>31.31</v>
+        <v>30.4</v>
       </c>
       <c r="D83" t="n">
-        <v>31.31</v>
+        <v>30.4</v>
       </c>
       <c r="E83" t="n">
-        <v>31.31</v>
+        <v>30.4</v>
       </c>
       <c r="F83" t="n">
-        <v>3000</v>
+        <v>32894.73684210526</v>
       </c>
       <c r="G83" t="n">
-        <v>2277229.87567357</v>
+        <v>1600863.315773569</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>31.45</v>
+        <v>30.5</v>
       </c>
       <c r="C84" t="n">
-        <v>31.45</v>
+        <v>30.5</v>
       </c>
       <c r="D84" t="n">
-        <v>31.45</v>
+        <v>30.5</v>
       </c>
       <c r="E84" t="n">
-        <v>31.45</v>
+        <v>30.5</v>
       </c>
       <c r="F84" t="n">
-        <v>9181.7057</v>
+        <v>1357.5755</v>
       </c>
       <c r="G84" t="n">
-        <v>2286411.58137357</v>
+        <v>1602220.891273569</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>31.46</v>
+        <v>30.69</v>
       </c>
       <c r="C85" t="n">
-        <v>31.46</v>
+        <v>30.69</v>
       </c>
       <c r="D85" t="n">
-        <v>31.46</v>
+        <v>30.69</v>
       </c>
       <c r="E85" t="n">
-        <v>31.46</v>
+        <v>30.69</v>
       </c>
       <c r="F85" t="n">
-        <v>2466</v>
+        <v>19</v>
       </c>
       <c r="G85" t="n">
-        <v>2288877.58137357</v>
+        <v>1602239.891273569</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>31.3</v>
+        <v>30.49</v>
       </c>
       <c r="C86" t="n">
-        <v>31.3</v>
+        <v>30.69</v>
       </c>
       <c r="D86" t="n">
-        <v>31.3</v>
+        <v>30.69</v>
       </c>
       <c r="E86" t="n">
-        <v>31.3</v>
+        <v>30.49</v>
       </c>
       <c r="F86" t="n">
-        <v>11196.8046</v>
+        <v>23789.3595</v>
       </c>
       <c r="G86" t="n">
-        <v>2277680.77677357</v>
+        <v>1602239.891273569</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="K86" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>31.45</v>
+        <v>30.8</v>
       </c>
       <c r="C87" t="n">
-        <v>31.45</v>
+        <v>30.8</v>
       </c>
       <c r="D87" t="n">
-        <v>31.45</v>
+        <v>30.8</v>
       </c>
       <c r="E87" t="n">
-        <v>31.45</v>
+        <v>30.8</v>
       </c>
       <c r="F87" t="n">
-        <v>3471.0137</v>
+        <v>5307.799</v>
       </c>
       <c r="G87" t="n">
-        <v>2281151.79047357</v>
+        <v>1607547.690273569</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="K87" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="C88" t="n">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="D88" t="n">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="E88" t="n">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="F88" t="n">
-        <v>2692.8823</v>
+        <v>8210.2986</v>
       </c>
       <c r="G88" t="n">
-        <v>2278458.908173569</v>
+        <v>1599337.391673569</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="K88" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>31.18</v>
+        <v>30.7</v>
       </c>
       <c r="C89" t="n">
-        <v>31.18</v>
+        <v>30.7</v>
       </c>
       <c r="D89" t="n">
-        <v>31.18</v>
+        <v>30.7</v>
       </c>
       <c r="E89" t="n">
-        <v>31.18</v>
+        <v>30.7</v>
       </c>
       <c r="F89" t="n">
-        <v>34793.8293</v>
+        <v>7618.389</v>
       </c>
       <c r="G89" t="n">
-        <v>2243665.07887357</v>
+        <v>1606955.780673569</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,68 +3734,84 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="C90" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="D90" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="E90" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="F90" t="n">
-        <v>7655.6397</v>
+        <v>8198.128000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>2236009.439173569</v>
+        <v>1598757.652673569</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K90" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="C91" t="n">
-        <v>30.71</v>
+        <v>30.6</v>
       </c>
       <c r="D91" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="E91" t="n">
-        <v>30.71</v>
+        <v>30.6</v>
       </c>
       <c r="F91" t="n">
-        <v>145814.9758</v>
+        <v>7618.389</v>
       </c>
       <c r="G91" t="n">
-        <v>2090194.46337357</v>
+        <v>1598757.652673569</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,208 +3820,260 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30.71</v>
+        <v>30.72</v>
       </c>
       <c r="C92" t="n">
-        <v>30.3</v>
+        <v>30.72</v>
       </c>
       <c r="D92" t="n">
-        <v>30.71</v>
+        <v>30.72</v>
       </c>
       <c r="E92" t="n">
-        <v>30.3</v>
+        <v>30.72</v>
       </c>
       <c r="F92" t="n">
-        <v>313295.2873</v>
+        <v>48048.1403</v>
       </c>
       <c r="G92" t="n">
-        <v>1776899.17607357</v>
+        <v>1646805.792973569</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K92" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.3</v>
+        <v>30.72</v>
       </c>
       <c r="C93" t="n">
-        <v>30.2</v>
+        <v>30.72</v>
       </c>
       <c r="D93" t="n">
-        <v>30.3</v>
+        <v>30.72</v>
       </c>
       <c r="E93" t="n">
-        <v>30.2</v>
+        <v>30.72</v>
       </c>
       <c r="F93" t="n">
-        <v>40884.7369</v>
+        <v>4337.537</v>
       </c>
       <c r="G93" t="n">
-        <v>1736014.43917357</v>
+        <v>1646805.792973569</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="K93" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>30.4</v>
+        <v>30.72</v>
       </c>
       <c r="C94" t="n">
-        <v>30.4</v>
+        <v>30.72</v>
       </c>
       <c r="D94" t="n">
-        <v>30.48</v>
+        <v>30.72</v>
       </c>
       <c r="E94" t="n">
-        <v>30.4</v>
+        <v>30.72</v>
       </c>
       <c r="F94" t="n">
-        <v>23894.7766</v>
+        <v>11037.7246</v>
       </c>
       <c r="G94" t="n">
-        <v>1759909.21577357</v>
+        <v>1646805.792973569</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="K94" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>30.5</v>
+        <v>30.63</v>
       </c>
       <c r="C95" t="n">
-        <v>30.5</v>
+        <v>30.61</v>
       </c>
       <c r="D95" t="n">
-        <v>30.5</v>
+        <v>30.63</v>
       </c>
       <c r="E95" t="n">
-        <v>30.5</v>
+        <v>30.61</v>
       </c>
       <c r="F95" t="n">
-        <v>1400</v>
+        <v>64372.3077</v>
       </c>
       <c r="G95" t="n">
-        <v>1761309.21577357</v>
+        <v>1582433.485273569</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="K95" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>30.7</v>
+        <v>30.72</v>
       </c>
       <c r="C96" t="n">
-        <v>30.7</v>
+        <v>31.06</v>
       </c>
       <c r="D96" t="n">
-        <v>30.7</v>
+        <v>31.06</v>
       </c>
       <c r="E96" t="n">
-        <v>30.7</v>
+        <v>30.72</v>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>4911.7037</v>
       </c>
       <c r="G96" t="n">
-        <v>1761509.21577357</v>
+        <v>1587345.188973569</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="K96" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>30.86</v>
+        <v>31.05</v>
       </c>
       <c r="C97" t="n">
-        <v>30.86</v>
+        <v>31.05</v>
       </c>
       <c r="D97" t="n">
-        <v>30.86</v>
+        <v>31.05</v>
       </c>
       <c r="E97" t="n">
-        <v>30.86</v>
+        <v>31.05</v>
       </c>
       <c r="F97" t="n">
-        <v>19.9309</v>
+        <v>15550</v>
       </c>
       <c r="G97" t="n">
-        <v>1761529.14667357</v>
+        <v>1571795.188973569</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,33 +4082,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30.86</v>
+        <v>30.55</v>
       </c>
       <c r="C98" t="n">
-        <v>31.07</v>
+        <v>31</v>
       </c>
       <c r="D98" t="n">
-        <v>31.07</v>
+        <v>31</v>
       </c>
       <c r="E98" t="n">
-        <v>30.86</v>
+        <v>30.2</v>
       </c>
       <c r="F98" t="n">
-        <v>842.8113</v>
+        <v>78000</v>
       </c>
       <c r="G98" t="n">
-        <v>1762371.95797357</v>
+        <v>1493795.188973569</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,33 +4124,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="C99" t="n">
-        <v>30.69</v>
+        <v>30.89</v>
       </c>
       <c r="D99" t="n">
-        <v>30.69</v>
+        <v>30.9</v>
       </c>
       <c r="E99" t="n">
-        <v>30.5</v>
+        <v>30.02</v>
       </c>
       <c r="F99" t="n">
-        <v>19698.0253</v>
+        <v>113886.6497</v>
       </c>
       <c r="G99" t="n">
-        <v>1742673.93267357</v>
+        <v>1379908.539273569</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,11 +4166,18 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3866,19 +4187,19 @@
         <v>30.5</v>
       </c>
       <c r="C100" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="D100" t="n">
         <v>30.5</v>
       </c>
       <c r="E100" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="F100" t="n">
-        <v>1600</v>
+        <v>3551.3422</v>
       </c>
       <c r="G100" t="n">
-        <v>1741073.93267357</v>
+        <v>1376357.197073569</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,33 +4208,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30.52</v>
+        <v>30.14</v>
       </c>
       <c r="C101" t="n">
-        <v>31.33</v>
+        <v>30.6</v>
       </c>
       <c r="D101" t="n">
-        <v>31.33</v>
+        <v>30.6</v>
       </c>
       <c r="E101" t="n">
-        <v>30.5</v>
+        <v>30.14</v>
       </c>
       <c r="F101" t="n">
-        <v>336000</v>
+        <v>19888</v>
       </c>
       <c r="G101" t="n">
-        <v>2077073.93267357</v>
+        <v>1396245.197073569</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,33 +4250,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>31.27</v>
+        <v>30.6</v>
       </c>
       <c r="C102" t="n">
-        <v>31.27</v>
+        <v>30.6</v>
       </c>
       <c r="D102" t="n">
-        <v>31.27</v>
+        <v>30.6</v>
       </c>
       <c r="E102" t="n">
-        <v>31.27</v>
+        <v>30.6</v>
       </c>
       <c r="F102" t="n">
-        <v>424.2009</v>
+        <v>11976.2147</v>
       </c>
       <c r="G102" t="n">
-        <v>2076649.731773569</v>
+        <v>1396245.197073569</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,33 +4292,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>31.1</v>
+        <v>30.5</v>
       </c>
       <c r="C103" t="n">
-        <v>31.25</v>
+        <v>30.5</v>
       </c>
       <c r="D103" t="n">
-        <v>31.25</v>
+        <v>30.5</v>
       </c>
       <c r="E103" t="n">
-        <v>31.1</v>
+        <v>30.5</v>
       </c>
       <c r="F103" t="n">
-        <v>66480.3236</v>
+        <v>2547.7162</v>
       </c>
       <c r="G103" t="n">
-        <v>2010169.408173569</v>
+        <v>1393697.480873569</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,33 +4334,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>31.1</v>
+        <v>30.4</v>
       </c>
       <c r="C104" t="n">
-        <v>31.1</v>
+        <v>30.4</v>
       </c>
       <c r="D104" t="n">
-        <v>31.1</v>
+        <v>30.4</v>
       </c>
       <c r="E104" t="n">
-        <v>31.1</v>
+        <v>30.4</v>
       </c>
       <c r="F104" t="n">
-        <v>3436.2912</v>
+        <v>2547</v>
       </c>
       <c r="G104" t="n">
-        <v>2006733.116973569</v>
+        <v>1391150.480873569</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,33 +4376,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>30.85</v>
+        <v>30.22</v>
       </c>
       <c r="C105" t="n">
-        <v>30.21</v>
+        <v>30.14</v>
       </c>
       <c r="D105" t="n">
-        <v>30.85</v>
+        <v>30.22</v>
       </c>
       <c r="E105" t="n">
-        <v>30.21</v>
+        <v>30.14</v>
       </c>
       <c r="F105" t="n">
-        <v>133630.7436</v>
+        <v>29012.8156</v>
       </c>
       <c r="G105" t="n">
-        <v>1873102.373373569</v>
+        <v>1362137.665273569</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,33 +4418,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="C106" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="D106" t="n">
-        <v>30.99</v>
+        <v>30.4</v>
       </c>
       <c r="E106" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="F106" t="n">
-        <v>369503.2564</v>
+        <v>231.7162</v>
       </c>
       <c r="G106" t="n">
-        <v>1503599.116973569</v>
+        <v>1362369.381473569</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,33 +4460,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>30.21</v>
+        <v>30.4</v>
       </c>
       <c r="C107" t="n">
-        <v>31.62</v>
+        <v>30.4</v>
       </c>
       <c r="D107" t="n">
-        <v>31.62</v>
+        <v>30.4</v>
       </c>
       <c r="E107" t="n">
-        <v>30.21</v>
+        <v>30.4</v>
       </c>
       <c r="F107" t="n">
-        <v>208816.0002</v>
+        <v>4670.913</v>
       </c>
       <c r="G107" t="n">
-        <v>1712415.117173569</v>
+        <v>1362369.381473569</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,33 +4502,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="C108" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="D108" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="E108" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="F108" t="n">
-        <v>15801.354</v>
+        <v>6713.709</v>
       </c>
       <c r="G108" t="n">
-        <v>1696613.763173569</v>
+        <v>1362369.381473569</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,33 +4544,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>30.75</v>
+        <v>30.7</v>
       </c>
       <c r="C109" t="n">
-        <v>30.75</v>
+        <v>30.7</v>
       </c>
       <c r="D109" t="n">
-        <v>30.75</v>
+        <v>30.7</v>
       </c>
       <c r="E109" t="n">
-        <v>30.75</v>
+        <v>30.7</v>
       </c>
       <c r="F109" t="n">
-        <v>1300.813</v>
+        <v>11870.0868</v>
       </c>
       <c r="G109" t="n">
-        <v>1695312.950173569</v>
+        <v>1374239.468273569</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,33 +4586,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>30.75</v>
+        <v>30.61</v>
       </c>
       <c r="C110" t="n">
-        <v>30.75</v>
+        <v>30.61</v>
       </c>
       <c r="D110" t="n">
-        <v>30.75</v>
+        <v>30.61</v>
       </c>
       <c r="E110" t="n">
-        <v>30.75</v>
+        <v>30.61</v>
       </c>
       <c r="F110" t="n">
-        <v>2694.3059</v>
+        <v>12903.0245</v>
       </c>
       <c r="G110" t="n">
-        <v>1695312.950173569</v>
+        <v>1361336.443773569</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,33 +4628,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>30.75</v>
+        <v>30.79</v>
       </c>
       <c r="C111" t="n">
-        <v>30.75</v>
+        <v>30.79</v>
       </c>
       <c r="D111" t="n">
-        <v>30.75</v>
+        <v>30.79</v>
       </c>
       <c r="E111" t="n">
-        <v>30.75</v>
+        <v>30.79</v>
       </c>
       <c r="F111" t="n">
-        <v>13151.9689</v>
+        <v>1181.1345</v>
       </c>
       <c r="G111" t="n">
-        <v>1695312.950173569</v>
+        <v>1362517.578273569</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,33 +4670,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>30.75</v>
+        <v>30.74</v>
       </c>
       <c r="C112" t="n">
-        <v>30.75</v>
+        <v>30.61</v>
       </c>
       <c r="D112" t="n">
-        <v>30.75</v>
+        <v>30.74</v>
       </c>
       <c r="E112" t="n">
-        <v>30.75</v>
+        <v>30.61</v>
       </c>
       <c r="F112" t="n">
-        <v>5465.4186</v>
+        <v>12033.2785</v>
       </c>
       <c r="G112" t="n">
-        <v>1695312.950173569</v>
+        <v>1350484.299773569</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,33 +4712,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>30.75</v>
+        <v>30.61</v>
       </c>
       <c r="C113" t="n">
-        <v>30.75</v>
+        <v>30.61</v>
       </c>
       <c r="D113" t="n">
-        <v>30.75</v>
+        <v>30.61</v>
       </c>
       <c r="E113" t="n">
-        <v>30.75</v>
+        <v>30.61</v>
       </c>
       <c r="F113" t="n">
-        <v>17622.7691</v>
+        <v>8459.2413</v>
       </c>
       <c r="G113" t="n">
-        <v>1695312.950173569</v>
+        <v>1350484.299773569</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,33 +4754,40 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>30.98</v>
+        <v>30.61</v>
       </c>
       <c r="C114" t="n">
-        <v>30.98</v>
+        <v>30.8</v>
       </c>
       <c r="D114" t="n">
-        <v>30.98</v>
+        <v>30.8</v>
       </c>
       <c r="E114" t="n">
-        <v>30.98</v>
+        <v>30.4</v>
       </c>
       <c r="F114" t="n">
-        <v>378.8047</v>
+        <v>126000</v>
       </c>
       <c r="G114" t="n">
-        <v>1695691.754873569</v>
+        <v>1476484.299773569</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,33 +4796,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>30.98</v>
+        <v>30.41</v>
       </c>
       <c r="C115" t="n">
-        <v>30.98</v>
+        <v>31.03</v>
       </c>
       <c r="D115" t="n">
-        <v>30.98</v>
+        <v>31.03</v>
       </c>
       <c r="E115" t="n">
-        <v>30.98</v>
+        <v>30.41</v>
       </c>
       <c r="F115" t="n">
-        <v>379.7816</v>
+        <v>6465152.9402</v>
       </c>
       <c r="G115" t="n">
-        <v>1695691.754873569</v>
+        <v>7941637.239973568</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,33 +4838,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="C116" t="n">
         <v>30.7</v>
       </c>
-      <c r="C116" t="n">
-        <v>30.06</v>
-      </c>
       <c r="D116" t="n">
-        <v>30.7</v>
+        <v>31.04</v>
       </c>
       <c r="E116" t="n">
-        <v>30.06</v>
+        <v>30.4</v>
       </c>
       <c r="F116" t="n">
-        <v>144318.0488</v>
+        <v>4628041.992</v>
       </c>
       <c r="G116" t="n">
-        <v>1551373.706073569</v>
+        <v>3313595.247973569</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,33 +4880,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>30.06</v>
+        <v>30.7</v>
       </c>
       <c r="C117" t="n">
-        <v>30.1</v>
+        <v>30.7</v>
       </c>
       <c r="D117" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="E117" t="n">
-        <v>30.01</v>
+        <v>30.7</v>
       </c>
       <c r="F117" t="n">
-        <v>205281.3412</v>
+        <v>5888365.3185</v>
       </c>
       <c r="G117" t="n">
-        <v>1756655.047273569</v>
+        <v>3313595.247973569</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,33 +4922,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>30.04</v>
+        <v>30.89</v>
       </c>
       <c r="C118" t="n">
-        <v>29.98</v>
+        <v>30.89</v>
       </c>
       <c r="D118" t="n">
-        <v>30.04</v>
+        <v>30.89</v>
       </c>
       <c r="E118" t="n">
-        <v>29.98</v>
+        <v>30.89</v>
       </c>
       <c r="F118" t="n">
-        <v>150395.61</v>
+        <v>22258.1566</v>
       </c>
       <c r="G118" t="n">
-        <v>1606259.437273569</v>
+        <v>3335853.404573569</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,33 +4964,40 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="C119" t="n">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="D119" t="n">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="E119" t="n">
-        <v>30.2</v>
+        <v>30.9</v>
       </c>
       <c r="F119" t="n">
-        <v>20</v>
+        <v>3238.9963</v>
       </c>
       <c r="G119" t="n">
-        <v>1606279.437273569</v>
+        <v>3339092.400873569</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,33 +5006,40 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="C120" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="D120" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="E120" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="F120" t="n">
-        <v>1000</v>
+        <v>6525.6107</v>
       </c>
       <c r="G120" t="n">
-        <v>1606279.437273569</v>
+        <v>3332566.790173569</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,33 +5048,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>30.07</v>
+        <v>30.7</v>
       </c>
       <c r="C121" t="n">
-        <v>30.05</v>
+        <v>30.6</v>
       </c>
       <c r="D121" t="n">
-        <v>30.07</v>
+        <v>30.7</v>
       </c>
       <c r="E121" t="n">
-        <v>30.05</v>
+        <v>30.6</v>
       </c>
       <c r="F121" t="n">
-        <v>5471.9606</v>
+        <v>16001.6564</v>
       </c>
       <c r="G121" t="n">
-        <v>1600807.476673569</v>
+        <v>3316565.133773569</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,33 +5090,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>30.08</v>
+        <v>30.5</v>
       </c>
       <c r="C122" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="D122" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="E122" t="n">
-        <v>30.08</v>
+        <v>30.5</v>
       </c>
       <c r="F122" t="n">
-        <v>35.8391</v>
+        <v>38382.698</v>
       </c>
       <c r="G122" t="n">
-        <v>1600843.315773569</v>
+        <v>3278182.435773569</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,33 +5132,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>30.2</v>
+        <v>31.03</v>
       </c>
       <c r="C123" t="n">
-        <v>30.2</v>
+        <v>30.8</v>
       </c>
       <c r="D123" t="n">
-        <v>30.2</v>
+        <v>31.03</v>
       </c>
       <c r="E123" t="n">
-        <v>30.2</v>
+        <v>30.8</v>
       </c>
       <c r="F123" t="n">
-        <v>571.6026000000001</v>
+        <v>15168.5257</v>
       </c>
       <c r="G123" t="n">
-        <v>1600843.315773569</v>
+        <v>3293350.961473569</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,240 +5174,250 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="C124" t="n">
-        <v>30.4</v>
+        <v>30.22</v>
       </c>
       <c r="D124" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="E124" t="n">
-        <v>30.4</v>
+        <v>30.22</v>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>180851.7532</v>
       </c>
       <c r="G124" t="n">
-        <v>1600863.315773569</v>
+        <v>3112499.208273569</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>30.2</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
+        <v>30.75</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>30.4</v>
+        <v>30.22</v>
       </c>
       <c r="C125" t="n">
-        <v>30.4</v>
+        <v>30.59</v>
       </c>
       <c r="D125" t="n">
-        <v>30.4</v>
+        <v>30.59</v>
       </c>
       <c r="E125" t="n">
-        <v>30.4</v>
+        <v>30.02</v>
       </c>
       <c r="F125" t="n">
-        <v>32894.73684210526</v>
+        <v>268743.2708</v>
       </c>
       <c r="G125" t="n">
-        <v>1600863.315773569</v>
+        <v>3381242.479073569</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>30.4</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>30.2</v>
+        <v>30.75</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>30.5</v>
+        <v>30.59</v>
       </c>
       <c r="C126" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="D126" t="n">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="E126" t="n">
-        <v>30.5</v>
+        <v>30.59</v>
       </c>
       <c r="F126" t="n">
-        <v>1357.5755</v>
+        <v>128295.2926</v>
       </c>
       <c r="G126" t="n">
-        <v>1602220.891273569</v>
+        <v>3509537.771673569</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>30.4</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>30.2</v>
+        <v>30.75</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>30.69</v>
+        <v>30.8</v>
       </c>
       <c r="C127" t="n">
-        <v>30.69</v>
+        <v>30.8</v>
       </c>
       <c r="D127" t="n">
-        <v>30.69</v>
+        <v>30.8</v>
       </c>
       <c r="E127" t="n">
-        <v>30.69</v>
+        <v>30.8</v>
       </c>
       <c r="F127" t="n">
-        <v>19</v>
+        <v>20913.9829</v>
       </c>
       <c r="G127" t="n">
-        <v>1602239.891273569</v>
+        <v>3509537.771673569</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>30.5</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L127" t="inlineStr"/>
+        <v>30.75</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>30.49</v>
+        <v>30.8</v>
       </c>
       <c r="C128" t="n">
-        <v>30.69</v>
+        <v>30.59</v>
       </c>
       <c r="D128" t="n">
-        <v>30.69</v>
+        <v>30.8</v>
       </c>
       <c r="E128" t="n">
-        <v>30.49</v>
+        <v>30.59</v>
       </c>
       <c r="F128" t="n">
-        <v>23789.3595</v>
+        <v>48878.8876</v>
       </c>
       <c r="G128" t="n">
-        <v>1602239.891273569</v>
+        <v>3460658.884073569</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>30.69</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>30.8</v>
+        <v>30.59</v>
       </c>
       <c r="C129" t="n">
-        <v>30.8</v>
+        <v>30.59</v>
       </c>
       <c r="D129" t="n">
-        <v>30.8</v>
+        <v>30.59</v>
       </c>
       <c r="E129" t="n">
-        <v>30.8</v>
+        <v>30.59</v>
       </c>
       <c r="F129" t="n">
-        <v>5307.799</v>
+        <v>27468.7701</v>
       </c>
       <c r="G129" t="n">
-        <v>1607547.690273569</v>
+        <v>3460658.884073569</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4935,7 +5427,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -4945,28 +5437,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="C130" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="D130" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="E130" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="F130" t="n">
-        <v>8210.2986</v>
+        <v>2631.818181818182</v>
       </c>
       <c r="G130" t="n">
-        <v>1599337.391673569</v>
+        <v>3463290.702255387</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4976,7 +5469,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -4986,28 +5479,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="C131" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="D131" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="E131" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="F131" t="n">
-        <v>7618.389</v>
+        <v>1000</v>
       </c>
       <c r="G131" t="n">
-        <v>1606955.780673569</v>
+        <v>3463290.702255387</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5017,7 +5511,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5027,6 +5521,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5036,19 +5531,19 @@
         <v>30.6</v>
       </c>
       <c r="C132" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="D132" t="n">
         <v>30.6</v>
       </c>
       <c r="E132" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="F132" t="n">
-        <v>8198.128000000001</v>
+        <v>5387.1646</v>
       </c>
       <c r="G132" t="n">
-        <v>1598757.652673569</v>
+        <v>3457903.537655387</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5058,7 +5553,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5068,6 +5563,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5086,10 +5582,10 @@
         <v>30.6</v>
       </c>
       <c r="F133" t="n">
-        <v>7618.389</v>
+        <v>28008.69281045752</v>
       </c>
       <c r="G133" t="n">
-        <v>1598757.652673569</v>
+        <v>3485912.230465845</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5099,7 +5595,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5109,28 +5605,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="C134" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="D134" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="E134" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="F134" t="n">
-        <v>48048.1403</v>
+        <v>2027.346189542484</v>
       </c>
       <c r="G134" t="n">
-        <v>1646805.792973569</v>
+        <v>3485912.230465845</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5140,7 +5637,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5150,28 +5647,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="C135" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="D135" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="E135" t="n">
-        <v>30.72</v>
+        <v>30.6</v>
       </c>
       <c r="F135" t="n">
-        <v>4337.537</v>
+        <v>350</v>
       </c>
       <c r="G135" t="n">
-        <v>1646805.792973569</v>
+        <v>3485912.230465845</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5181,7 +5679,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5191,28 +5689,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>30.72</v>
+        <v>30.8</v>
       </c>
       <c r="C136" t="n">
-        <v>30.72</v>
+        <v>30.8</v>
       </c>
       <c r="D136" t="n">
-        <v>30.72</v>
+        <v>30.8</v>
       </c>
       <c r="E136" t="n">
-        <v>30.72</v>
+        <v>30.8</v>
       </c>
       <c r="F136" t="n">
-        <v>11037.7246</v>
+        <v>25296.56171818182</v>
       </c>
       <c r="G136" t="n">
-        <v>1646805.792973569</v>
+        <v>3511208.792184026</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5222,7 +5721,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5232,28 +5731,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>30.63</v>
+        <v>30.86</v>
       </c>
       <c r="C137" t="n">
-        <v>30.61</v>
+        <v>30.86</v>
       </c>
       <c r="D137" t="n">
-        <v>30.63</v>
+        <v>30.86</v>
       </c>
       <c r="E137" t="n">
-        <v>30.61</v>
+        <v>30.86</v>
       </c>
       <c r="F137" t="n">
-        <v>64372.3077</v>
+        <v>2693.0172</v>
       </c>
       <c r="G137" t="n">
-        <v>1582433.485273569</v>
+        <v>3513901.809384027</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5263,7 +5763,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5273,28 +5773,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>30.72</v>
+        <v>30.7</v>
       </c>
       <c r="C138" t="n">
-        <v>31.06</v>
+        <v>30.7</v>
       </c>
       <c r="D138" t="n">
-        <v>31.06</v>
+        <v>30.7</v>
       </c>
       <c r="E138" t="n">
-        <v>30.72</v>
+        <v>30.7</v>
       </c>
       <c r="F138" t="n">
-        <v>4911.7037</v>
+        <v>134.4078</v>
       </c>
       <c r="G138" t="n">
-        <v>1587345.188973569</v>
+        <v>3513767.401584026</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5304,7 +5805,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5314,28 +5815,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>31.05</v>
+        <v>30.6</v>
       </c>
       <c r="C139" t="n">
-        <v>31.05</v>
+        <v>30.6</v>
       </c>
       <c r="D139" t="n">
-        <v>31.05</v>
+        <v>30.6</v>
       </c>
       <c r="E139" t="n">
-        <v>31.05</v>
+        <v>30.6</v>
       </c>
       <c r="F139" t="n">
-        <v>15550</v>
+        <v>45028.7461</v>
       </c>
       <c r="G139" t="n">
-        <v>1571795.188973569</v>
+        <v>3468738.655484026</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5345,7 +5847,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5355,28 +5857,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>30.55</v>
+        <v>30.6</v>
       </c>
       <c r="C140" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="D140" t="n">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="E140" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="F140" t="n">
-        <v>78000</v>
+        <v>48361.6809</v>
       </c>
       <c r="G140" t="n">
-        <v>1493795.188973569</v>
+        <v>3420376.974584026</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5386,7 +5889,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5396,1728 +5899,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C141" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="D141" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E141" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="F141" t="n">
-        <v>113886.6497</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1379908.539273569</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C142" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D142" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3551.3422</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1376357.197073569</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="C143" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D143" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E143" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="F143" t="n">
-        <v>19888</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1396245.197073569</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C144" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D144" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E144" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F144" t="n">
-        <v>11976.2147</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1396245.197073569</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2547.7162</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1393697.480873569</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C146" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D146" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E146" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2547</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1391150.480873569</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>30.22</v>
-      </c>
-      <c r="C147" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="D147" t="n">
-        <v>30.22</v>
-      </c>
-      <c r="E147" t="n">
-        <v>30.14</v>
-      </c>
-      <c r="F147" t="n">
-        <v>29012.8156</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1362137.665273569</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C148" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E148" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F148" t="n">
-        <v>231.7162</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1362369.381473569</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C149" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D149" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E149" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F149" t="n">
-        <v>4670.913</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1362369.381473569</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C150" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D150" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E150" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F150" t="n">
-        <v>6713.709</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1362369.381473569</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C151" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>11870.0868</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1374239.468273569</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="C152" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="D152" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="E152" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="F152" t="n">
-        <v>12903.0245</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1361336.443773569</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="C153" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="D153" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="E153" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1181.1345</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1362517.578273569</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="C154" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="D154" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="E154" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="F154" t="n">
-        <v>12033.2785</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1350484.299773569</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="C155" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="D155" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="E155" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="F155" t="n">
-        <v>8459.2413</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1350484.299773569</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>30.61</v>
-      </c>
-      <c r="C156" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E156" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>126000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1476484.299773569</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="C157" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="D157" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="E157" t="n">
-        <v>30.41</v>
-      </c>
-      <c r="F157" t="n">
-        <v>6465152.9402</v>
-      </c>
-      <c r="G157" t="n">
-        <v>7941637.239973568</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="C158" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D158" t="n">
-        <v>31.04</v>
-      </c>
-      <c r="E158" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4628041.992</v>
-      </c>
-      <c r="G158" t="n">
-        <v>3313595.247973569</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C159" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D159" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E159" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5888365.3185</v>
-      </c>
-      <c r="G159" t="n">
-        <v>3313595.247973569</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="C160" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="D160" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="E160" t="n">
-        <v>30.89</v>
-      </c>
-      <c r="F160" t="n">
-        <v>22258.1566</v>
-      </c>
-      <c r="G160" t="n">
-        <v>3335853.404573569</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C161" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D161" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E161" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3238.9963</v>
-      </c>
-      <c r="G161" t="n">
-        <v>3339092.400873569</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C162" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D162" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E162" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F162" t="n">
-        <v>6525.6107</v>
-      </c>
-      <c r="G162" t="n">
-        <v>3332566.790173569</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C163" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D163" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E163" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F163" t="n">
-        <v>16001.6564</v>
-      </c>
-      <c r="G163" t="n">
-        <v>3316565.133773569</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C164" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D164" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E164" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F164" t="n">
-        <v>38382.698</v>
-      </c>
-      <c r="G164" t="n">
-        <v>3278182.435773569</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="C165" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D165" t="n">
-        <v>31.03</v>
-      </c>
-      <c r="E165" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F165" t="n">
-        <v>15168.5257</v>
-      </c>
-      <c r="G165" t="n">
-        <v>3293350.961473569</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C166" t="n">
-        <v>30.22</v>
-      </c>
-      <c r="D166" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E166" t="n">
-        <v>30.22</v>
-      </c>
-      <c r="F166" t="n">
-        <v>180851.7532</v>
-      </c>
-      <c r="G166" t="n">
-        <v>3112499.208273569</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>30.22</v>
-      </c>
-      <c r="C167" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="D167" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="E167" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="F167" t="n">
-        <v>268743.2708</v>
-      </c>
-      <c r="G167" t="n">
-        <v>3381242.479073569</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="C168" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D168" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E168" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="F168" t="n">
-        <v>128295.2926</v>
-      </c>
-      <c r="G168" t="n">
-        <v>3509537.771673569</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C169" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D169" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E169" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F169" t="n">
-        <v>20913.9829</v>
-      </c>
-      <c r="G169" t="n">
-        <v>3509537.771673569</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C170" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="D170" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E170" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="F170" t="n">
-        <v>48878.8876</v>
-      </c>
-      <c r="G170" t="n">
-        <v>3460658.884073569</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="C171" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="D171" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="E171" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="F171" t="n">
-        <v>27468.7701</v>
-      </c>
-      <c r="G171" t="n">
-        <v>3460658.884073569</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E172" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2631.818181818182</v>
-      </c>
-      <c r="G172" t="n">
-        <v>3463290.702255387</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E173" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G173" t="n">
-        <v>3463290.702255387</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C174" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D174" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E174" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F174" t="n">
-        <v>5387.1646</v>
-      </c>
-      <c r="G174" t="n">
-        <v>3457903.537655387</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C175" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D175" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E175" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F175" t="n">
-        <v>28008.69281045752</v>
-      </c>
-      <c r="G175" t="n">
-        <v>3485912.230465845</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C176" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D176" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E176" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2027.346189542484</v>
-      </c>
-      <c r="G176" t="n">
-        <v>3485912.230465845</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C177" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D177" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E177" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F177" t="n">
-        <v>350</v>
-      </c>
-      <c r="G177" t="n">
-        <v>3485912.230465845</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C178" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D178" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E178" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F178" t="n">
-        <v>25296.56171818182</v>
-      </c>
-      <c r="G178" t="n">
-        <v>3511208.792184026</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="C179" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="D179" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="E179" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="F179" t="n">
-        <v>2693.0172</v>
-      </c>
-      <c r="G179" t="n">
-        <v>3513901.809384027</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="C180" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D180" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="E180" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="F180" t="n">
-        <v>134.4078</v>
-      </c>
-      <c r="G180" t="n">
-        <v>3513767.401584026</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C181" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="D181" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E181" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="F181" t="n">
-        <v>45028.7461</v>
-      </c>
-      <c r="G181" t="n">
-        <v>3468738.655484026</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="C182" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D182" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="E182" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F182" t="n">
-        <v>48361.6809</v>
-      </c>
-      <c r="G182" t="n">
-        <v>3420376.974584026</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
+      <c r="N140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest FCT.xlsx
+++ b/BackTest/2020-01-22 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8331692.063847932</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8331708.063847932</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>8323835.212647932</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>8232538.696647931</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>8282538.696647931</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>8277654.281247931</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>8299291.74484793</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>8035166.79124793</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>7905221.00084793</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>7763931.079947931</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>7819551.52350809</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>7819551.52350809</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>7819551.52350809</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>7819088.856008089</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>7841829.337108091</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>7867805.91727357</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>7803857.730073569</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1917127.65847357</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1917127.65847357</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>2006758.06807357</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>2187225.05217357</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>2187225.05217357</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>2170078.67657357</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>2170078.67657357</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>2170078.67657357</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>2288877.58137357</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>2277680.77677357</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>2281151.79047357</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2243665.07887357</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1742673.93267357</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1741073.93267357</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5401,10 +5401,14 @@
         <v>1600843.315773569</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>30.2</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
@@ -5434,11 +5438,19 @@
         <v>1600863.315773569</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5479,19 @@
         <v>1600863.315773569</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J154" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,10 +5520,14 @@
         <v>1602220.891273569</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J155" t="n">
+        <v>30.4</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
@@ -5536,8 +5560,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5596,17 @@
         <v>1602239.891273569</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5665,7 +5701,7 @@
         <v>1606955.780673569</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5734,7 @@
         <v>1598757.652673569</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5764,7 +5800,7 @@
         <v>1646805.792973569</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5830,7 +5866,7 @@
         <v>1646805.792973569</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6193,11 +6229,17 @@
         <v>1362137.665273569</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6268,17 @@
         <v>1362369.381473569</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>30.14</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6311,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6344,17 @@
         <v>1362369.381473569</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,15 +6383,17 @@
         <v>1374239.468273569</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>30.4</v>
       </c>
-      <c r="J180" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,15 +6422,15 @@
         <v>1361336.443773569</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>30.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -6401,15 +6461,15 @@
         <v>1362517.578273569</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>30.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -6444,7 +6504,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6477,7 +6541,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6510,7 +6578,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6543,7 +6615,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6576,7 +6652,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6609,7 +6689,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6642,7 +6726,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6675,7 +6763,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6708,7 +6800,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6737,15 +6833,13 @@
         <v>3316565.133773569</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -6776,11 +6870,9 @@
         <v>3278182.435773569</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -6815,7 +6907,7 @@
         <v>3293350.961473569</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>30.5</v>
@@ -6854,11 +6946,9 @@
         <v>3112499.208273569</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>30.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -6893,9 +6983,11 @@
         <v>3381242.479073569</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>30.22</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -6930,9 +7022,11 @@
         <v>3509537.771673569</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>30.59</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -6967,9 +7061,11 @@
         <v>3509537.771673569</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7078,7 +7174,7 @@
         <v>3463290.702255387</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>30.59</v>
@@ -7154,11 +7250,9 @@
         <v>3457903.537655387</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>30.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7193,9 +7287,11 @@
         <v>3485912.230465845</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7230,7 +7326,7 @@
         <v>3485912.230465845</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>30.6</v>
@@ -7269,11 +7365,9 @@
         <v>3485912.230465845</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7308,11 +7402,9 @@
         <v>3511208.792184026</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7347,11 +7439,9 @@
         <v>3513901.809384027</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>30.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7475,6 +7565,6 @@
       <c r="M211" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest FCT.xlsx
+++ b/BackTest/2020-01-22 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8331692.063847932</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8331708.063847932</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>8323835.212647932</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>8232538.696647931</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>8282538.696647931</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>8277654.281247931</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>8299291.74484793</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>8035166.79124793</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>7905221.00084793</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>7867805.91727357</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>7831635.56147357</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>7816480.013973569</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>7803857.730073569</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>7905007.64377357</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-790176.3803264303</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1917127.65847357</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1917127.65847357</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1915128.30057357</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>2188670.06807357</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>2187225.05217357</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>2170078.67657357</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>2170078.67657357</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1742673.93267357</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>2076649.731773569</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>2010169.408173569</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>2006733.116973569</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1873102.373373569</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1503599.116973569</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1696613.763173569</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5401,14 +5401,10 @@
         <v>1600843.315773569</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J152" t="n">
-        <v>30.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
@@ -5446,11 +5442,7 @@
       <c r="J153" t="n">
         <v>30.2</v>
       </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5526,9 +5518,13 @@
         <v>30.4</v>
       </c>
       <c r="J155" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+        <v>30.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5560,14 +5556,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5599,14 +5589,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6097,7 +6081,7 @@
         <v>1396245.197073569</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6229,17 +6213,11 @@
         <v>1362137.665273569</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6268,17 +6246,11 @@
         <v>1362369.381473569</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>30.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6311,11 +6283,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6344,17 +6312,11 @@
         <v>1362369.381473569</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6383,17 +6345,11 @@
         <v>1374239.468273569</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6422,17 +6378,11 @@
         <v>1361336.443773569</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6461,17 +6411,11 @@
         <v>1362517.578273569</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>30.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6504,11 +6448,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6541,11 +6481,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6578,11 +6514,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6615,11 +6547,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6652,11 +6580,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6689,11 +6613,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +6646,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6763,11 +6679,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6800,11 +6712,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6837,11 +6745,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6874,11 +6778,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6907,17 +6807,11 @@
         <v>3293350.961473569</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>30.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6950,11 +6844,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6983,17 +6873,11 @@
         <v>3381242.479073569</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>30.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7022,17 +6906,11 @@
         <v>3509537.771673569</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>30.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7061,17 +6939,11 @@
         <v>3509537.771673569</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>30.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7104,11 +6976,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7141,11 +7009,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7174,17 +7038,11 @@
         <v>3463290.702255387</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>30.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7217,11 +7075,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7254,11 +7108,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7287,17 +7137,11 @@
         <v>3485912.230465845</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>30.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7326,17 +7170,11 @@
         <v>3485912.230465845</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7369,11 +7207,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7406,11 +7240,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7443,11 +7273,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7306,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7517,11 +7339,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7554,17 +7372,13 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
       <c r="M211" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest FCT.xlsx
+++ b/BackTest/2020-01-22 BackTest FCT.xlsx
@@ -451,7 +451,7 @@
         <v>8331692.063847932</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8331708.063847932</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>8323835.212647932</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>8277654.281247931</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>8292307.527747931</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>8284696.786747931</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>8282102.67724793</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>8299291.74484793</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>8035166.79124793</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>7905221.00084793</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>7813802.08724793</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>7818551.52350809</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>7819551.52350809</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>7819551.52350809</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>7819551.52350809</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>7819088.856008089</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>7878414.79380809</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>7856977.95860809</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>7859628.40680809</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>7854756.594208091</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>7919457.500273569</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>7874805.91727357</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>7768532.62567357</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>7768532.62567357</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>7803857.730073569</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>7868545.23787357</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>7868545.23787357</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>7845525.64377357</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>7887007.64377357</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>7887007.64377357</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1915128.30057357</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>2188670.06807357</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>2187225.05217357</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>2170078.67657357</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>2170078.67657357</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1742673.93267357</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>2076649.731773569</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>2010169.408173569</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>2006733.116973569</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1873102.373373569</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1503599.116973569</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1696613.763173569</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5368,10 +5368,14 @@
         <v>1600843.315773569</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="J151" t="n">
+        <v>30.05</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5401,11 +5405,19 @@
         <v>1600843.315773569</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5440,9 +5452,13 @@
         <v>30.2</v>
       </c>
       <c r="J153" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+        <v>30.05</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5477,13 +5493,9 @@
         <v>30.4</v>
       </c>
       <c r="J154" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>30.4</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5518,7 +5530,7 @@
         <v>30.4</v>
       </c>
       <c r="J155" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5553,11 +5565,19 @@
         <v>1602239.891273569</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J156" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5619,10 +5639,14 @@
         <v>1607547.690273569</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="J158" t="n">
+        <v>30.69</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
@@ -5655,8 +5679,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5685,11 +5715,19 @@
         <v>1606955.780673569</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J160" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5883,11 +5921,17 @@
         <v>1582433.485273569</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>30.72</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5920,7 +5964,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6001,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5986,7 +6038,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6019,7 +6075,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6052,7 +6112,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6081,11 +6145,15 @@
         <v>1396245.197073569</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6118,7 +6186,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6151,7 +6223,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +6256,17 @@
         <v>1391150.480873569</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6213,11 +6295,17 @@
         <v>1362137.665273569</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6246,11 +6334,17 @@
         <v>1362369.381473569</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>30.14</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6279,11 +6373,17 @@
         <v>1362369.381473569</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6312,11 +6412,17 @@
         <v>1362369.381473569</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6345,11 +6451,17 @@
         <v>1374239.468273569</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6378,11 +6490,17 @@
         <v>1361336.443773569</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6411,11 +6529,17 @@
         <v>1362517.578273569</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>30.61</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6444,11 +6568,17 @@
         <v>1350484.299773569</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>30.79</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6477,11 +6607,17 @@
         <v>1350484.299773569</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>30.61</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6514,7 +6650,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6547,7 +6687,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6580,7 +6724,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6609,14 +6757,16 @@
         <v>3313595.247973569</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -7038,10 +7188,14 @@
         <v>3463290.702255387</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="J201" t="n">
+        <v>30.59</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
@@ -7074,8 +7228,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7107,8 +7267,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7140,8 +7306,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7173,8 +7345,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7206,8 +7384,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7239,8 +7423,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7272,8 +7462,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7305,8 +7501,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7338,8 +7540,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7371,8 +7579,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-22 BackTest FCT.xlsx
+++ b/BackTest/2020-01-22 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:L211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>6082.914</v>
       </c>
       <c r="G2" t="n">
-        <v>8331692.063847932</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>8331708.063847932</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>7872.8512</v>
       </c>
       <c r="G4" t="n">
-        <v>8323835.212647932</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4688.5453</v>
       </c>
       <c r="G5" t="n">
-        <v>8319146.667347931</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>9861.498</v>
       </c>
       <c r="G6" t="n">
-        <v>8319146.667347931</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>12000</v>
       </c>
       <c r="G7" t="n">
-        <v>8319146.667347931</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>13701.5982</v>
       </c>
       <c r="G8" t="n">
-        <v>8319146.667347931</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>45745.226</v>
       </c>
       <c r="G9" t="n">
-        <v>8319146.667347931</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>20497.1426</v>
       </c>
       <c r="G10" t="n">
-        <v>8319146.667347931</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>91021.4038</v>
       </c>
       <c r="G11" t="n">
-        <v>8319146.667347931</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10357.2818</v>
       </c>
       <c r="G12" t="n">
-        <v>8319146.667347931</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>15643.8754</v>
       </c>
       <c r="G13" t="n">
-        <v>8319146.667347931</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>300</v>
       </c>
       <c r="G14" t="n">
-        <v>8319146.667347931</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>86607.97070000001</v>
       </c>
       <c r="G15" t="n">
-        <v>8232538.696647931</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>50000</v>
       </c>
       <c r="G16" t="n">
-        <v>8282538.696647931</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>4884.4154</v>
       </c>
       <c r="G17" t="n">
-        <v>8277654.281247931</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>14653.2465</v>
       </c>
       <c r="G18" t="n">
-        <v>8292307.527747931</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>7610.741</v>
       </c>
       <c r="G19" t="n">
-        <v>8284696.786747931</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2594.1095</v>
       </c>
       <c r="G20" t="n">
-        <v>8282102.67724793</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>29797.2395</v>
       </c>
       <c r="G21" t="n">
-        <v>8311899.91674793</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>40135.8093</v>
       </c>
       <c r="G22" t="n">
-        <v>8271764.107447931</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>20000</v>
       </c>
       <c r="G23" t="n">
-        <v>8291764.107447931</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1549.5146</v>
       </c>
       <c r="G24" t="n">
-        <v>8291764.107447931</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>42336.7368</v>
       </c>
       <c r="G25" t="n">
-        <v>8291764.107447931</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>15499.4363</v>
       </c>
       <c r="G26" t="n">
-        <v>8276264.67114793</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>23027.0737</v>
       </c>
       <c r="G27" t="n">
-        <v>8299291.74484793</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>264124.9536</v>
       </c>
       <c r="G28" t="n">
-        <v>8035166.79124793</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>129945.7904</v>
       </c>
       <c r="G29" t="n">
-        <v>7905221.00084793</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>91418.9136</v>
       </c>
       <c r="G30" t="n">
-        <v>7813802.08724793</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>36416.6972</v>
       </c>
       <c r="G31" t="n">
-        <v>7813802.08724793</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>49795.1568</v>
       </c>
       <c r="G32" t="n">
-        <v>7764006.93044793</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>108707.9005</v>
       </c>
       <c r="G33" t="n">
-        <v>7764006.93044793</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>16.4954</v>
       </c>
       <c r="G34" t="n">
-        <v>7764023.425847931</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>92.3459</v>
       </c>
       <c r="G35" t="n">
-        <v>7763931.079947931</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>60994.46726015873</v>
       </c>
       <c r="G36" t="n">
-        <v>7824925.547208089</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>6374.0237</v>
       </c>
       <c r="G37" t="n">
-        <v>7818551.52350809</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1000</v>
       </c>
       <c r="G38" t="n">
-        <v>7819551.52350809</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>20326.8156</v>
       </c>
       <c r="G39" t="n">
-        <v>7819551.52350809</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>17941.2934</v>
       </c>
       <c r="G40" t="n">
-        <v>7819551.52350809</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>462.6675</v>
       </c>
       <c r="G41" t="n">
-        <v>7819088.856008089</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>59325.9378</v>
       </c>
       <c r="G42" t="n">
-        <v>7878414.79380809</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>21436.8352</v>
       </c>
       <c r="G43" t="n">
-        <v>7856977.95860809</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2650.4482</v>
       </c>
       <c r="G44" t="n">
-        <v>7859628.40680809</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>4871.8126</v>
       </c>
       <c r="G45" t="n">
-        <v>7854756.594208091</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>20000</v>
       </c>
       <c r="G46" t="n">
-        <v>7854756.594208091</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>6570.8625</v>
       </c>
       <c r="G47" t="n">
-        <v>7848185.731708091</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>8661.4521</v>
       </c>
       <c r="G48" t="n">
-        <v>7856847.183808091</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>7505.5857</v>
       </c>
       <c r="G49" t="n">
-        <v>7856847.183808091</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>19136.53160453809</v>
       </c>
       <c r="G50" t="n">
-        <v>7856847.183808091</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>15017.8467</v>
       </c>
       <c r="G51" t="n">
-        <v>7841829.337108091</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>33907.09886547812</v>
       </c>
       <c r="G52" t="n">
-        <v>7875736.43597357</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>34430.8935</v>
       </c>
       <c r="G53" t="n">
-        <v>7875736.43597357</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>6000</v>
       </c>
       <c r="G54" t="n">
-        <v>7875736.43597357</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>90120.1384299838</v>
       </c>
       <c r="G55" t="n">
-        <v>7875736.43597357</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>840.3398</v>
       </c>
       <c r="G56" t="n">
-        <v>7874896.09617357</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>132459.8295</v>
       </c>
       <c r="G57" t="n">
-        <v>8007355.92567357</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>49833.9457</v>
       </c>
       <c r="G58" t="n">
-        <v>7957521.97997357</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>31816.9609</v>
       </c>
       <c r="G59" t="n">
-        <v>7925705.019073569</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>20.8641</v>
       </c>
       <c r="G60" t="n">
-        <v>7925725.883173569</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>192.4307</v>
       </c>
       <c r="G61" t="n">
-        <v>7925725.883173569</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>6268.3829</v>
       </c>
       <c r="G62" t="n">
-        <v>7919457.500273569</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>59417.9724</v>
       </c>
       <c r="G63" t="n">
-        <v>7860039.527873569</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>14980.4214</v>
       </c>
       <c r="G64" t="n">
-        <v>7875019.94927357</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>7214.032</v>
       </c>
       <c r="G65" t="n">
-        <v>7867805.91727357</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1000</v>
       </c>
       <c r="G66" t="n">
-        <v>7868805.91727357</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>5000</v>
       </c>
       <c r="G67" t="n">
-        <v>7873805.91727357</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>7874805.91727357</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>106273.2916</v>
       </c>
       <c r="G69" t="n">
-        <v>7768532.62567357</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>726.7084</v>
       </c>
       <c r="G70" t="n">
-        <v>7768532.62567357</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>47972.4078</v>
       </c>
       <c r="G71" t="n">
-        <v>7816505.03347357</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>96</v>
       </c>
       <c r="G72" t="n">
-        <v>7816505.03347357</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>8544.112499999999</v>
       </c>
       <c r="G73" t="n">
-        <v>7816505.03347357</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1272.8527</v>
       </c>
       <c r="G74" t="n">
-        <v>7816505.03347357</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>16646.7336</v>
       </c>
       <c r="G75" t="n">
-        <v>7816505.03347357</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>15130.528</v>
       </c>
       <c r="G76" t="n">
-        <v>7831635.56147357</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>15155.5475</v>
       </c>
       <c r="G77" t="n">
-        <v>7816480.013973569</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>12622.2839</v>
       </c>
       <c r="G78" t="n">
-        <v>7803857.730073569</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>11177.9416</v>
       </c>
       <c r="G79" t="n">
-        <v>7792679.78847357</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>6121.0062</v>
       </c>
       <c r="G80" t="n">
-        <v>7786558.78227357</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>67917.2534</v>
       </c>
       <c r="G81" t="n">
-        <v>7854476.03567357</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>36668.8097</v>
       </c>
       <c r="G82" t="n">
-        <v>7854476.03567357</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>3045.2417</v>
       </c>
       <c r="G83" t="n">
-        <v>7854476.03567357</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>16844.4525</v>
       </c>
       <c r="G84" t="n">
-        <v>7871320.48817357</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>25151.9639</v>
       </c>
       <c r="G85" t="n">
-        <v>7871320.48817357</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2814.3296</v>
       </c>
       <c r="G86" t="n">
-        <v>7868506.15857357</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>17</v>
       </c>
       <c r="G87" t="n">
-        <v>7868506.15857357</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>39.0793</v>
       </c>
       <c r="G88" t="n">
-        <v>7868545.23787357</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>3211.9584</v>
       </c>
       <c r="G89" t="n">
-        <v>7868545.23787357</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>75.6138</v>
       </c>
       <c r="G90" t="n">
-        <v>7868545.23787357</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>23019.5941</v>
       </c>
       <c r="G91" t="n">
-        <v>7845525.64377357</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>158.3281</v>
       </c>
       <c r="G92" t="n">
-        <v>7845525.64377357</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>17</v>
       </c>
       <c r="G93" t="n">
-        <v>7845542.64377357</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>41465</v>
       </c>
       <c r="G94" t="n">
-        <v>7887007.64377357</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1047</v>
       </c>
       <c r="G95" t="n">
-        <v>7887007.64377357</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>18000</v>
       </c>
       <c r="G96" t="n">
-        <v>7905007.64377357</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>8695184.0241</v>
       </c>
       <c r="G97" t="n">
-        <v>-790176.3803264303</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>2707304.0388</v>
       </c>
       <c r="G98" t="n">
-        <v>1917127.65847357</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>30036.5781</v>
       </c>
       <c r="G99" t="n">
-        <v>1917127.65847357</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1999.3579</v>
       </c>
       <c r="G100" t="n">
-        <v>1915128.30057357</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>1629.7675</v>
       </c>
       <c r="G101" t="n">
-        <v>1916758.06807357</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>90000</v>
       </c>
       <c r="G102" t="n">
-        <v>2006758.06807357</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>36000</v>
       </c>
       <c r="G103" t="n">
-        <v>2042758.06807357</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>145912</v>
       </c>
       <c r="G104" t="n">
-        <v>2188670.06807357</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1445.0159</v>
       </c>
       <c r="G105" t="n">
-        <v>2187225.05217357</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>3995.1189</v>
       </c>
       <c r="G106" t="n">
-        <v>2187225.05217357</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1579.279848389134</v>
       </c>
       <c r="G107" t="n">
-        <v>2187225.05217357</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>17146.3756</v>
       </c>
       <c r="G108" t="n">
-        <v>2170078.67657357</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>32576.9576</v>
       </c>
       <c r="G109" t="n">
-        <v>2170078.67657357</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>12520.4031</v>
       </c>
       <c r="G110" t="n">
-        <v>2170078.67657357</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>110151.1991</v>
       </c>
       <c r="G111" t="n">
-        <v>2280229.87567357</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>3000</v>
       </c>
       <c r="G112" t="n">
-        <v>2277229.87567357</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>9181.7057</v>
       </c>
       <c r="G113" t="n">
-        <v>2286411.58137357</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>2466</v>
       </c>
       <c r="G114" t="n">
-        <v>2288877.58137357</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>11196.8046</v>
       </c>
       <c r="G115" t="n">
-        <v>2277680.77677357</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>3471.0137</v>
       </c>
       <c r="G116" t="n">
-        <v>2281151.79047357</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>2692.8823</v>
       </c>
       <c r="G117" t="n">
-        <v>2278458.908173569</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>34793.8293</v>
       </c>
       <c r="G118" t="n">
-        <v>2243665.07887357</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>7655.6397</v>
       </c>
       <c r="G119" t="n">
-        <v>2236009.439173569</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>145814.9758</v>
       </c>
       <c r="G120" t="n">
-        <v>2090194.46337357</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>313295.2873</v>
       </c>
       <c r="G121" t="n">
-        <v>1776899.17607357</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>40884.7369</v>
       </c>
       <c r="G122" t="n">
-        <v>1736014.43917357</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>23894.7766</v>
       </c>
       <c r="G123" t="n">
-        <v>1759909.21577357</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1400</v>
       </c>
       <c r="G124" t="n">
-        <v>1761309.21577357</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>200</v>
       </c>
       <c r="G125" t="n">
-        <v>1761509.21577357</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>19.9309</v>
       </c>
       <c r="G126" t="n">
-        <v>1761529.14667357</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>842.8113</v>
       </c>
       <c r="G127" t="n">
-        <v>1762371.95797357</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>19698.0253</v>
       </c>
       <c r="G128" t="n">
-        <v>1742673.93267357</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1600</v>
       </c>
       <c r="G129" t="n">
-        <v>1741073.93267357</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>336000</v>
       </c>
       <c r="G130" t="n">
-        <v>2077073.93267357</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>424.2009</v>
       </c>
       <c r="G131" t="n">
-        <v>2076649.731773569</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>66480.3236</v>
       </c>
       <c r="G132" t="n">
-        <v>2010169.408173569</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>3436.2912</v>
       </c>
       <c r="G133" t="n">
-        <v>2006733.116973569</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>133630.7436</v>
       </c>
       <c r="G134" t="n">
-        <v>1873102.373373569</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>369503.2564</v>
       </c>
       <c r="G135" t="n">
-        <v>1503599.116973569</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>208816.0002</v>
       </c>
       <c r="G136" t="n">
-        <v>1712415.117173569</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>15801.354</v>
       </c>
       <c r="G137" t="n">
-        <v>1696613.763173569</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>1300.813</v>
       </c>
       <c r="G138" t="n">
-        <v>1695312.950173569</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>2694.3059</v>
       </c>
       <c r="G139" t="n">
-        <v>1695312.950173569</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>13151.9689</v>
       </c>
       <c r="G140" t="n">
-        <v>1695312.950173569</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>5465.4186</v>
       </c>
       <c r="G141" t="n">
-        <v>1695312.950173569</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>17622.7691</v>
       </c>
       <c r="G142" t="n">
-        <v>1695312.950173569</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>378.8047</v>
       </c>
       <c r="G143" t="n">
-        <v>1695691.754873569</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>379.7816</v>
       </c>
       <c r="G144" t="n">
-        <v>1695691.754873569</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>144318.0488</v>
       </c>
       <c r="G145" t="n">
-        <v>1551373.706073569</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>205281.3412</v>
       </c>
       <c r="G146" t="n">
-        <v>1756655.047273569</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>150395.61</v>
       </c>
       <c r="G147" t="n">
-        <v>1606259.437273569</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>20</v>
       </c>
       <c r="G148" t="n">
-        <v>1606279.437273569</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>1000</v>
       </c>
       <c r="G149" t="n">
-        <v>1606279.437273569</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>5471.9606</v>
       </c>
       <c r="G150" t="n">
-        <v>1600807.476673569</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,22 +4913,15 @@
         <v>35.8391</v>
       </c>
       <c r="G151" t="n">
-        <v>1600843.315773569</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>30.05</v>
-      </c>
-      <c r="J151" t="n">
-        <v>30.05</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5402,219 +4943,183 @@
         <v>571.6026000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>1600843.315773569</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J152" t="n">
-        <v>30.05</v>
-      </c>
-      <c r="K152" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>20</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D154" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>32894.73684210526</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C155" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E155" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1357.5755</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="I155" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="C156" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="D156" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="E156" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="F156" t="n">
+        <v>19</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I156" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J156" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="C157" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="D157" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="E157" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="F157" t="n">
+        <v>23789.3595</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
         <v>30.4</v>
       </c>
-      <c r="C153" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D153" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E153" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F153" t="n">
-        <v>20</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1600863.315773569</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="J153" t="n">
-        <v>30.05</v>
-      </c>
-      <c r="K153" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="C154" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D154" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E154" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F154" t="n">
-        <v>32894.73684210526</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1600863.315773569</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J154" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="C155" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="D155" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="E155" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1357.5755</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1602220.891273569</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J155" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="C156" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="D156" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="E156" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="F156" t="n">
-        <v>19</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1602239.891273569</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="J156" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>30.49</v>
-      </c>
-      <c r="C157" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="D157" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="E157" t="n">
-        <v>30.49</v>
-      </c>
-      <c r="F157" t="n">
-        <v>23789.3595</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1602239.891273569</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5636,22 +5141,15 @@
         <v>5307.799</v>
       </c>
       <c r="G158" t="n">
-        <v>1607547.690273569</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="J158" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5673,24 +5171,15 @@
         <v>8210.2986</v>
       </c>
       <c r="G159" t="n">
-        <v>1599337.391673569</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5712,26 +5201,15 @@
         <v>7618.389</v>
       </c>
       <c r="G160" t="n">
-        <v>1606955.780673569</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="J160" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5753,18 +5231,15 @@
         <v>8198.128000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>1598757.652673569</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5786,18 +5261,15 @@
         <v>7618.389</v>
       </c>
       <c r="G162" t="n">
-        <v>1598757.652673569</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5819,18 +5291,15 @@
         <v>48048.1403</v>
       </c>
       <c r="G163" t="n">
-        <v>1646805.792973569</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5852,18 +5321,15 @@
         <v>4337.537</v>
       </c>
       <c r="G164" t="n">
-        <v>1646805.792973569</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5885,18 +5351,15 @@
         <v>11037.7246</v>
       </c>
       <c r="G165" t="n">
-        <v>1646805.792973569</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5918,24 +5381,15 @@
         <v>64372.3077</v>
       </c>
       <c r="G166" t="n">
-        <v>1582433.485273569</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>30.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5957,22 +5411,15 @@
         <v>4911.7037</v>
       </c>
       <c r="G167" t="n">
-        <v>1587345.188973569</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5994,22 +5441,15 @@
         <v>15550</v>
       </c>
       <c r="G168" t="n">
-        <v>1571795.188973569</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6031,22 +5471,15 @@
         <v>78000</v>
       </c>
       <c r="G169" t="n">
-        <v>1493795.188973569</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6068,22 +5501,15 @@
         <v>113886.6497</v>
       </c>
       <c r="G170" t="n">
-        <v>1379908.539273569</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6105,22 +5531,15 @@
         <v>3551.3422</v>
       </c>
       <c r="G171" t="n">
-        <v>1376357.197073569</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6142,22 +5561,15 @@
         <v>19888</v>
       </c>
       <c r="G172" t="n">
-        <v>1396245.197073569</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6179,22 +5591,15 @@
         <v>11976.2147</v>
       </c>
       <c r="G173" t="n">
-        <v>1396245.197073569</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6216,22 +5621,15 @@
         <v>2547.7162</v>
       </c>
       <c r="G174" t="n">
-        <v>1393697.480873569</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6253,24 +5651,15 @@
         <v>2547</v>
       </c>
       <c r="G175" t="n">
-        <v>1391150.480873569</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>30.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6292,24 +5681,15 @@
         <v>29012.8156</v>
       </c>
       <c r="G176" t="n">
-        <v>1362137.665273569</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6331,24 +5711,15 @@
         <v>231.7162</v>
       </c>
       <c r="G177" t="n">
-        <v>1362369.381473569</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>30.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6370,24 +5741,15 @@
         <v>4670.913</v>
       </c>
       <c r="G178" t="n">
-        <v>1362369.381473569</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6409,24 +5771,15 @@
         <v>6713.709</v>
       </c>
       <c r="G179" t="n">
-        <v>1362369.381473569</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6448,24 +5801,15 @@
         <v>11870.0868</v>
       </c>
       <c r="G180" t="n">
-        <v>1374239.468273569</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>30.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6487,24 +5831,15 @@
         <v>12903.0245</v>
       </c>
       <c r="G181" t="n">
-        <v>1361336.443773569</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6526,24 +5861,15 @@
         <v>1181.1345</v>
       </c>
       <c r="G182" t="n">
-        <v>1362517.578273569</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>30.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6565,24 +5891,15 @@
         <v>12033.2785</v>
       </c>
       <c r="G183" t="n">
-        <v>1350484.299773569</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>30.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6604,24 +5921,15 @@
         <v>8459.2413</v>
       </c>
       <c r="G184" t="n">
-        <v>1350484.299773569</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>30.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6643,22 +5951,15 @@
         <v>126000</v>
       </c>
       <c r="G185" t="n">
-        <v>1476484.299773569</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6680,22 +5981,15 @@
         <v>6465152.9402</v>
       </c>
       <c r="G186" t="n">
-        <v>7941637.239973568</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6717,22 +6011,15 @@
         <v>4628041.992</v>
       </c>
       <c r="G187" t="n">
-        <v>3313595.247973569</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6754,20 +6041,15 @@
         <v>5888365.3185</v>
       </c>
       <c r="G188" t="n">
-        <v>3313595.247973569</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K188" t="n">
+        <v>1</v>
       </c>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6789,18 +6071,15 @@
         <v>22258.1566</v>
       </c>
       <c r="G189" t="n">
-        <v>3335853.404573569</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6822,18 +6101,15 @@
         <v>3238.9963</v>
       </c>
       <c r="G190" t="n">
-        <v>3339092.400873569</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6855,18 +6131,15 @@
         <v>6525.6107</v>
       </c>
       <c r="G191" t="n">
-        <v>3332566.790173569</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6888,18 +6161,15 @@
         <v>16001.6564</v>
       </c>
       <c r="G192" t="n">
-        <v>3316565.133773569</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6921,18 +6191,15 @@
         <v>38382.698</v>
       </c>
       <c r="G193" t="n">
-        <v>3278182.435773569</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6954,18 +6221,15 @@
         <v>15168.5257</v>
       </c>
       <c r="G194" t="n">
-        <v>3293350.961473569</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6987,18 +6251,15 @@
         <v>180851.7532</v>
       </c>
       <c r="G195" t="n">
-        <v>3112499.208273569</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7020,18 +6281,15 @@
         <v>268743.2708</v>
       </c>
       <c r="G196" t="n">
-        <v>3381242.479073569</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7053,18 +6311,15 @@
         <v>128295.2926</v>
       </c>
       <c r="G197" t="n">
-        <v>3509537.771673569</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7086,18 +6341,15 @@
         <v>20913.9829</v>
       </c>
       <c r="G198" t="n">
-        <v>3509537.771673569</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7119,18 +6371,15 @@
         <v>48878.8876</v>
       </c>
       <c r="G199" t="n">
-        <v>3460658.884073569</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7152,18 +6401,15 @@
         <v>27468.7701</v>
       </c>
       <c r="G200" t="n">
-        <v>3460658.884073569</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7185,22 +6431,15 @@
         <v>2631.818181818182</v>
       </c>
       <c r="G201" t="n">
-        <v>3463290.702255387</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="J201" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7222,24 +6461,15 @@
         <v>1000</v>
       </c>
       <c r="G202" t="n">
-        <v>3463290.702255387</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7261,24 +6491,15 @@
         <v>5387.1646</v>
       </c>
       <c r="G203" t="n">
-        <v>3457903.537655387</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7300,24 +6521,15 @@
         <v>28008.69281045752</v>
       </c>
       <c r="G204" t="n">
-        <v>3485912.230465845</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7339,24 +6551,15 @@
         <v>2027.346189542484</v>
       </c>
       <c r="G205" t="n">
-        <v>3485912.230465845</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7378,24 +6581,15 @@
         <v>350</v>
       </c>
       <c r="G206" t="n">
-        <v>3485912.230465845</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7417,24 +6611,15 @@
         <v>25296.56171818182</v>
       </c>
       <c r="G207" t="n">
-        <v>3511208.792184026</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7456,24 +6641,15 @@
         <v>2693.0172</v>
       </c>
       <c r="G208" t="n">
-        <v>3513901.809384027</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7495,24 +6671,15 @@
         <v>134.4078</v>
       </c>
       <c r="G209" t="n">
-        <v>3513767.401584026</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7534,24 +6701,15 @@
         <v>45028.7461</v>
       </c>
       <c r="G210" t="n">
-        <v>3468738.655484026</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7573,24 +6731,15 @@
         <v>48361.6809</v>
       </c>
       <c r="G211" t="n">
-        <v>3420376.974584026</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
